--- a/analysis/cfg-case-study/result-summary/energy-analysis/energy_SOC_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/energy-analysis/energy_SOC_1500_3000_ft.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000" activeTab="1"/>
+    <workbookView windowWidth="27948" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1500 ft" sheetId="1" r:id="rId1"/>
@@ -15359,8 +15359,8 @@
   <sheetPr/>
   <dimension ref="A1:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="27" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="W130" sqref="W130"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="27" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/analysis/cfg-case-study/result-summary/energy-analysis/energy_SOC_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/energy-analysis/energy_SOC_1500_3000_ft.xlsx
@@ -1021,61 +1021,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>64.78556</c:v>
+                  <c:v>63.926575</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.78142</c:v>
+                  <c:v>63.922435</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62.274316</c:v>
+                  <c:v>61.415331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.454474</c:v>
+                  <c:v>58.596318</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58.901609</c:v>
+                  <c:v>58.047409</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.191359</c:v>
+                  <c:v>52.390339</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.21302</c:v>
+                  <c:v>22.028366</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.989196</c:v>
+                  <c:v>18.857723</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.436331</c:v>
+                  <c:v>18.308814</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.361976</c:v>
+                  <c:v>18.235288</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.884623</c:v>
+                  <c:v>15.757935</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.880483</c:v>
+                  <c:v>15.753795</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.373379</c:v>
+                  <c:v>13.246691</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.553537</c:v>
+                  <c:v>10.427678</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.59149099999998</c:v>
+                  <c:v>8.47449600000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.65946899999998</c:v>
+                  <c:v>2.66050100000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.55732799999998</c:v>
+                  <c:v>2.55649900000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.47735299999998</c:v>
+                  <c:v>2.47735300000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.64313007644523e-14</c:v>
+                  <c:v>7.105427357601e-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1184,61 +1184,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>46.607266</c:v>
+                  <c:v>46.043026</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.604131</c:v>
+                  <c:v>46.039891</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.044772</c:v>
+                  <c:v>44.480532</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.489288</c:v>
+                  <c:v>41.925582</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.957521</c:v>
+                  <c:v>41.39636</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.020048</c:v>
+                  <c:v>36.493101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.178999</c:v>
+                  <c:v>17.058336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.124162</c:v>
+                  <c:v>14.037712</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.592395</c:v>
+                  <c:v>13.50849</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.115699</c:v>
+                  <c:v>13.032328</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.578867</c:v>
+                  <c:v>11.495496</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.575732</c:v>
+                  <c:v>11.492361</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.016373</c:v>
+                  <c:v>9.933002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.46088899999999</c:v>
+                  <c:v>7.378052</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.87298499999999</c:v>
+                  <c:v>5.79585</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.07363499999999</c:v>
+                  <c:v>2.074299</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.01778299999999</c:v>
+                  <c:v>2.01725</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.53683199999999</c:v>
+                  <c:v>1.536832</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-7.105427357601e-15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1347,61 +1347,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>69.921877</c:v>
+                  <c:v>68.637352</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69.917509</c:v>
+                  <c:v>68.632984</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68.063953</c:v>
+                  <c:v>66.779428</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64.956807</c:v>
+                  <c:v>63.67312</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.304051</c:v>
+                  <c:v>63.024363</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.626273</c:v>
+                  <c:v>56.400343</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.695785</c:v>
+                  <c:v>22.442234</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.64148</c:v>
+                  <c:v>18.441688</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.988724</c:v>
+                  <c:v>17.792931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.778391</c:v>
+                  <c:v>17.583436</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.956226</c:v>
+                  <c:v>15.761271</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.951858</c:v>
+                  <c:v>15.756903</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.098302</c:v>
+                  <c:v>13.903347</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.991156</c:v>
+                  <c:v>10.797039</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.81216799999999</c:v>
+                  <c:v>8.62701100000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.12335099999999</c:v>
+                  <c:v>2.12439400000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.03842799999999</c:v>
+                  <c:v>2.03759000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.82216499999999</c:v>
+                  <c:v>1.82216500000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.11022302462516e-14</c:v>
+                  <c:v>6.88338275267597e-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1510,61 +1510,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>91.150104</c:v>
+                  <c:v>89.766551</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.145964</c:v>
+                  <c:v>89.762411</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.63886</c:v>
+                  <c:v>87.255307</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85.819018</c:v>
+                  <c:v>84.436294</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85.266153</c:v>
+                  <c:v>83.887385</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>79.555903</c:v>
+                  <c:v>78.230315</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.21302</c:v>
+                  <c:v>22.028366</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.989196</c:v>
+                  <c:v>18.857723</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.436331</c:v>
+                  <c:v>18.308814</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.361976</c:v>
+                  <c:v>18.235288</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.884623</c:v>
+                  <c:v>15.757935</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.880483</c:v>
+                  <c:v>15.753795</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.373379</c:v>
+                  <c:v>13.246691</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.553537</c:v>
+                  <c:v>10.427678</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.59149099999998</c:v>
+                  <c:v>8.47449600000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.65946899999998</c:v>
+                  <c:v>2.66050100000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.55732799999998</c:v>
+                  <c:v>2.55649900000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.47735299999998</c:v>
+                  <c:v>2.47735300000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.64313007644523e-14</c:v>
+                  <c:v>7.105427357601e-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1673,61 +1673,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>63.493266</c:v>
+                  <c:v>62.583252</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.490131</c:v>
+                  <c:v>62.580117</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.930772</c:v>
+                  <c:v>61.020758</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.375288</c:v>
+                  <c:v>58.465808</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58.843521</c:v>
+                  <c:v>57.936586</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.906048</c:v>
+                  <c:v>53.033327</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.178999</c:v>
+                  <c:v>17.058336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.124162</c:v>
+                  <c:v>14.037712</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.592395</c:v>
+                  <c:v>13.50849</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.115699</c:v>
+                  <c:v>13.032328</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.578867</c:v>
+                  <c:v>11.495496</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.575732</c:v>
+                  <c:v>11.492361</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.016373</c:v>
+                  <c:v>9.933002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.46088899999999</c:v>
+                  <c:v>7.378052</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.87298499999999</c:v>
+                  <c:v>5.79585</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.07363499999999</c:v>
+                  <c:v>2.074299</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.01778299999999</c:v>
+                  <c:v>2.01725</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.53683199999999</c:v>
+                  <c:v>1.536832</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.06581410364015e-14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1836,61 +1836,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>99.649952</c:v>
+                  <c:v>97.53787</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99.645584</c:v>
+                  <c:v>97.533502</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97.792028</c:v>
+                  <c:v>95.679946</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94.684882</c:v>
+                  <c:v>92.573638</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94.032126</c:v>
+                  <c:v>91.924881</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.354348</c:v>
+                  <c:v>85.300861</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.695785</c:v>
+                  <c:v>22.442234</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.64148</c:v>
+                  <c:v>18.441688</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.988724</c:v>
+                  <c:v>17.792931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.778391</c:v>
+                  <c:v>17.583436</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.956226</c:v>
+                  <c:v>15.761271</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.951858</c:v>
+                  <c:v>15.756903</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.098302</c:v>
+                  <c:v>13.903347</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.991156</c:v>
+                  <c:v>10.797039</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.812168</c:v>
+                  <c:v>8.627011</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.123351</c:v>
+                  <c:v>2.124394</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.038428</c:v>
+                  <c:v>2.03759</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.822165</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.10862446895044e-15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2001,61 +2001,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>117.514648</c:v>
+                  <c:v>115.606528</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>117.510508</c:v>
+                  <c:v>115.602388</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115.003404</c:v>
+                  <c:v>113.095284</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>112.183562</c:v>
+                  <c:v>110.276271</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111.630697</c:v>
+                  <c:v>109.727362</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105.920447</c:v>
+                  <c:v>104.070292</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.21302</c:v>
+                  <c:v>22.028366</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.989196</c:v>
+                  <c:v>18.857723</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.436331</c:v>
+                  <c:v>18.308814</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.361976</c:v>
+                  <c:v>18.235288</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.884623</c:v>
+                  <c:v>15.757935</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.880483</c:v>
+                  <c:v>15.753795</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.373379</c:v>
+                  <c:v>13.246691</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.553537</c:v>
+                  <c:v>10.427678</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.59149099999998</c:v>
+                  <c:v>8.47449599999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.65946899999998</c:v>
+                  <c:v>2.66050099999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.55732799999998</c:v>
+                  <c:v>2.55649899999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.47735299999998</c:v>
+                  <c:v>2.47735299999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.64313007644523e-14</c:v>
+                  <c:v>-7.105427357601e-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2166,61 +2166,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>80.379265</c:v>
+                  <c:v>79.123477</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.37613</c:v>
+                  <c:v>79.120342</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.816771</c:v>
+                  <c:v>77.560983</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.261287</c:v>
+                  <c:v>75.006033</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.72952</c:v>
+                  <c:v>74.476811</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70.792047</c:v>
+                  <c:v>69.573552</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.178999</c:v>
+                  <c:v>17.058336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.124162</c:v>
+                  <c:v>14.037712</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.592395</c:v>
+                  <c:v>13.50849</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.115699</c:v>
+                  <c:v>13.032328</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.578867</c:v>
+                  <c:v>11.495496</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.575732</c:v>
+                  <c:v>11.492361</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.016373</c:v>
+                  <c:v>9.93300199999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.46088900000004</c:v>
+                  <c:v>7.37805199999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.87298500000004</c:v>
+                  <c:v>5.79584999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.07363500000004</c:v>
+                  <c:v>2.07429899999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.01778300000004</c:v>
+                  <c:v>2.01724999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.53683200000004</c:v>
+                  <c:v>1.53683199999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.90798504668055e-14</c:v>
+                  <c:v>-2.68673971959288e-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2331,61 +2331,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>129.378027</c:v>
+                  <c:v>126.438388</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>129.373659</c:v>
+                  <c:v>126.43402</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>127.520103</c:v>
+                  <c:v>124.580464</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>124.412957</c:v>
+                  <c:v>121.474156</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>123.760201</c:v>
+                  <c:v>120.825399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>117.082423</c:v>
+                  <c:v>114.201379</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.695785</c:v>
+                  <c:v>22.442234</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.64148</c:v>
+                  <c:v>18.441688</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.988724</c:v>
+                  <c:v>17.792931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.778391</c:v>
+                  <c:v>17.583436</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.956226</c:v>
+                  <c:v>15.761271</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.951858</c:v>
+                  <c:v>15.756903</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.098302</c:v>
+                  <c:v>13.903347</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.991156</c:v>
+                  <c:v>10.797039</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.812168</c:v>
+                  <c:v>8.627011</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.123351</c:v>
+                  <c:v>2.124394</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.038428</c:v>
+                  <c:v>2.03759</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.822165</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.10862446895044e-15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2866,58 +2866,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.999936096870969</c:v>
+                  <c:v>0.999935238201014</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.961237596773108</c:v>
+                  <c:v>0.960716744170949</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.917711817262983</c:v>
+                  <c:v>0.91661907430517</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.909178048318175</c:v>
+                  <c:v>0.908032520121718</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.821037265094259</c:v>
+                  <c:v>0.819539276114824</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.342869923482949</c:v>
+                  <c:v>0.344588553352029</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.293108464293586</c:v>
+                  <c:v>0.294990354168044</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.284574695348778</c:v>
+                  <c:v>0.286403799984592</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.283426985890065</c:v>
+                  <c:v>0.285253636691783</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.245187708495535</c:v>
+                  <c:v>0.246500535966458</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.245123805366504</c:v>
+                  <c:v>0.246435774167473</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.206425305268643</c:v>
+                  <c:v>0.207217280137408</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.162899525758518</c:v>
+                  <c:v>0.163119610271628</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.132614289357073</c:v>
+                  <c:v>0.132566088516396</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.0410503359081867</c:v>
+                  <c:v>0.0416180751119547</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0394737345791251</c:v>
+                  <c:v>0.0399911773781093</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0382392773945303</c:v>
+                  <c:v>0.0387531007253244</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>-2.53625974128376e-16</c:v>
+                  <c:v>1.1114982083118e-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3029,58 +3029,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.999932735809906</c:v>
+                  <c:v>0.999931911512506</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.966475313098177</c:v>
+                  <c:v>0.966064480644691</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.911645149921474</c:v>
+                  <c:v>0.910573992248033</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.900235619913856</c:v>
+                  <c:v>0.899079917119261</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.794297781809386</c:v>
+                  <c:v>0.792586938139122</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.368590575555322</c:v>
+                  <c:v>0.370486857227846</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.303046353330401</c:v>
+                  <c:v>0.30488248100809</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.291636823322784</c:v>
+                  <c:v>0.293388405879318</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.281408890193216</c:v>
+                  <c:v>0.283046731116239</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.248434804135475</c:v>
+                  <c:v>0.249668560011673</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.248367539945381</c:v>
+                  <c:v>0.249600471524178</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.214910117233652</c:v>
+                  <c:v>0.215733040656364</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.160079954056949</c:v>
+                  <c:v>0.160242552259706</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.126010073193308</c:v>
+                  <c:v>0.125878998482854</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.0444916678871486</c:v>
+                  <c:v>0.0450513178695076</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0432933139652515</c:v>
+                  <c:v>0.0438122811476379</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0329740860577403</c:v>
+                  <c:v>0.0333781711045664</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>-1.52453210999354e-16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3192,58 +3192,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.999937530281116</c:v>
+                  <c:v>0.9999363611813</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.973428573720926</c:v>
+                  <c:v>0.972931298398575</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.928991179684722</c:v>
+                  <c:v>0.927674482547054</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.919655675147279</c:v>
+                  <c:v>0.91822252991345</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.824152260672293</c:v>
+                  <c:v>0.821715018959356</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.324587753844194</c:v>
+                  <c:v>0.326968237352746</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.266604399078131</c:v>
+                  <c:v>0.268682975998258</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.257268894540688</c:v>
+                  <c:v>0.259231023364654</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.254260780213323</c:v>
+                  <c:v>0.256178822283237</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.228200767550905</c:v>
+                  <c:v>0.229631105232615</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.228138297832022</c:v>
+                  <c:v>0.229567466413914</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.201629341271831</c:v>
+                  <c:v>0.202562403631189</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.157191947235627</c:v>
+                  <c:v>0.157305587779669</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.126028767791803</c:v>
+                  <c:v>0.125689741061106</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.030367477120215</c:v>
+                  <c:v>0.0309509900673325</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0291529359259047</c:v>
+                  <c:v>0.0296863142389294</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0260600126624174</c:v>
+                  <c:v>0.0265477170506229</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>-1.58780495069541e-16</c:v>
+                  <c:v>1.00286251612329e-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3355,58 +3355,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.999954580413863</c:v>
+                  <c:v>0.99995388037132</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.972449356722621</c:v>
+                  <c:v>0.972024724443295</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.941513111164415</c:v>
+                  <c:v>0.940620900094513</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.93544767650512</c:v>
+                  <c:v>0.934506050031932</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.872801011834282</c:v>
+                  <c:v>0.87148625104244</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.243697143779452</c:v>
+                  <c:v>0.24539614984205</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.208328846229292</c:v>
+                  <c:v>0.210075164857342</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.202263411569997</c:v>
+                  <c:v>0.203960314794761</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.201447669220432</c:v>
+                  <c:v>0.203141234645408</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.174268841207246</c:v>
+                  <c:v>0.175543505063484</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.17422342162111</c:v>
+                  <c:v>0.175497385434804</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.146718197929867</c:v>
+                  <c:v>0.147568229506779</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.115781952371661</c:v>
+                  <c:v>0.116164405157997</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.094256513410012</c:v>
+                  <c:v>0.0944059441472805</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.0291768070829627</c:v>
+                  <c:v>0.0296379995706865</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0280562269023849</c:v>
+                  <c:v>0.0284794165702101</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0271788280131856</c:v>
+                  <c:v>0.0275977295819242</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>-1.80266396234198e-16</c:v>
+                  <c:v>7.91545099866987e-17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3518,58 +3518,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.999950624685144</c:v>
+                  <c:v>0.999949906725844</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.975391185578641</c:v>
+                  <c:v>0.975033352373571</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.935143074857734</c:v>
+                  <c:v>0.93420853234025</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.926767903229297</c:v>
+                  <c:v>0.925752244386406</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.849004176285403</c:v>
+                  <c:v>0.847404462139488</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.27056410990104</c:v>
+                  <c:v>0.272570303633311</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.222451338382877</c:v>
+                  <c:v>0.224304611080294</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.21407616675444</c:v>
+                  <c:v>0.215848323126449</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.206568346948793</c:v>
+                  <c:v>0.208239865835032</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.182363701372678</c:v>
+                  <c:v>0.183683264014468</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.182314326057821</c:v>
+                  <c:v>0.183633170740312</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.157754886951318</c:v>
+                  <c:v>0.158716616388039</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.117506776230411</c:v>
+                  <c:v>0.117891796354718</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.0924977618886385</c:v>
+                  <c:v>0.0926102401965306</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.032659132702356</c:v>
+                  <c:v>0.0331446342865021</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0317794803625315</c:v>
+                  <c:v>0.0322330645265925</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0242046455761149</c:v>
+                  <c:v>0.0245566018205638</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>-1.67862542090708e-16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3681,58 +3681,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.999956166561927</c:v>
+                  <c:v>0.999955217394023</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.981355495284132</c:v>
+                  <c:v>0.980951767759538</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.950174888192621</c:v>
+                  <c:v>0.949104568307674</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.94362439833388</c:v>
+                  <c:v>0.942453233805495</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.876612042924015</c:v>
+                  <c:v>0.874540944968349</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.227755102180079</c:v>
+                  <c:v>0.230087390671951</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.187069633510712</c:v>
+                  <c:v>0.189072080413485</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.180519143651971</c:v>
+                  <c:v>0.182420745911306</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.178408425123978</c:v>
+                  <c:v>0.180272913484783</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.160122766541824</c:v>
+                  <c:v>0.161591297821041</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.160078933103751</c:v>
+                  <c:v>0.161546515215065</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.141478261825957</c:v>
+                  <c:v>0.142543065580579</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.110297654734445</c:v>
+                  <c:v>0.110695866128715</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.0884312317581448</c:v>
+                  <c:v>0.0884478100659774</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.0213080985728925</c:v>
+                  <c:v>0.0217801967584488</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0204558854177873</c:v>
+                  <c:v>0.0208902449889463</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0182856585821537</c:v>
+                  <c:v>0.0186816156637417</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>3.11954437163245e-17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3846,58 +3846,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.99996477034931</c:v>
+                  <c:v>0.999964188873486</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.978630374657634</c:v>
+                  <c:v>0.978277662659327</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.954634710729849</c:v>
+                  <c:v>0.953893114063593</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.949930063186676</c:v>
+                  <c:v>0.949145034439578</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.901338248487967</c:v>
+                  <c:v>0.900211206066149</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.189023414340653</c:v>
+                  <c:v>0.190546039061047</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.161590034290874</c:v>
+                  <c:v>0.163119880219913</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.156885386747701</c:v>
+                  <c:v>0.158371800595897</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.156252657115562</c:v>
+                  <c:v>0.157735798449029</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.135171429862939</c:v>
+                  <c:v>0.136306619294025</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.135136200212249</c:v>
+                  <c:v>0.136270808167511</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.113801804520573</c:v>
+                  <c:v>0.114584281953351</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.0898061405927879</c:v>
+                  <c:v>0.090199733357618</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.073109958173044</c:v>
+                  <c:v>0.0733046493706652</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.0226309574615752</c:v>
+                  <c:v>0.0230134149517923</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0217617807100948</c:v>
+                  <c:v>0.0221137944736131</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0210812272526229</c:v>
+                  <c:v>0.0214291791550041</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>-1.39823426645947e-16</c:v>
+                  <c:v>-6.14621637767809e-17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4011,58 +4011,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.999960997403995</c:v>
+                  <c:v>0.999960378384282</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.980560981740751</c:v>
+                  <c:v>0.980252460341196</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.948768155568479</c:v>
+                  <c:v>0.947961791416219</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.942152431973594</c:v>
+                  <c:v>0.941273232974835</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.880725234300164</c:v>
+                  <c:v>0.879303522012815</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.213724260852597</c:v>
+                  <c:v>0.21559133454158</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.175718974290198</c:v>
+                  <c:v>0.177415256915466</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.169103250695313</c:v>
+                  <c:v>0.170726698474082</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.163172666483079</c:v>
+                  <c:v>0.164708737458542</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.144052909665198</c:v>
+                  <c:v>0.145285526317302</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.144013907069193</c:v>
+                  <c:v>0.145245904701584</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.124613891405949</c:v>
+                  <c:v>0.125537986658498</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.0928210652336773</c:v>
+                  <c:v>0.0932473177335214</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.0730659206699643</c:v>
+                  <c:v>0.0732506990308322</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.0257981333867638</c:v>
+                  <c:v>0.0262159738000388</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0251032775679155</c:v>
+                  <c:v>0.0254949615017547</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0191197568178813</c:v>
+                  <c:v>0.0194232111412391</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>4.86193180129297e-16</c:v>
+                  <c:v>-3.39562898581022e-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4176,58 +4176,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.999966238471081</c:v>
+                  <c:v>0.999965453529825</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.985639570775028</c:v>
+                  <c:v>0.985305696874275</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.9616235452408</c:v>
+                  <c:v>0.960737936646266</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.956578206282277</c:v>
+                  <c:v>0.955606923745342</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.904963738548896</c:v>
+                  <c:v>0.903217612992662</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.17542225311567</c:v>
+                  <c:v>0.177495413813722</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.144085363119659</c:v>
+                  <c:v>0.145855133806356</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.139040024161135</c:v>
+                  <c:v>0.140724120905433</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.137414299879531</c:v>
+                  <c:v>0.139067226956421</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.123330262255429</c:v>
+                  <c:v>0.124655741419291</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.123296500726511</c:v>
+                  <c:v>0.124621194949116</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.108969833030457</c:v>
+                  <c:v>0.109961438293566</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.0849538074962297</c:v>
+                  <c:v>0.0853936780655571</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.068111782227132</c:v>
+                  <c:v>0.0682309473923378</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.0164119908862113</c:v>
+                  <c:v>0.0168018118041809</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0157555965820997</c:v>
+                  <c:v>0.0161152797993597</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0140840376241014</c:v>
+                  <c:v>0.0144114855371298</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>2.40274530461841e-17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4699,61 +4699,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>64.78556</c:v>
+                  <c:v>63.926575</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.78142</c:v>
+                  <c:v>63.922435</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62.274316</c:v>
+                  <c:v>61.415331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.454474</c:v>
+                  <c:v>58.596318</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58.901609</c:v>
+                  <c:v>58.047409</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.191359</c:v>
+                  <c:v>52.390339</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.21302</c:v>
+                  <c:v>22.028366</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.989196</c:v>
+                  <c:v>18.857723</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.436331</c:v>
+                  <c:v>18.308814</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.361976</c:v>
+                  <c:v>18.235288</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.884623</c:v>
+                  <c:v>15.757935</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.880483</c:v>
+                  <c:v>15.753795</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.373379</c:v>
+                  <c:v>13.246691</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.553537</c:v>
+                  <c:v>10.427678</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.59149099999998</c:v>
+                  <c:v>8.47449600000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.65946899999998</c:v>
+                  <c:v>2.66050100000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.55732799999998</c:v>
+                  <c:v>2.55649900000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.47735299999998</c:v>
+                  <c:v>2.47735300000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.64313007644523e-14</c:v>
+                  <c:v>7.105427357601e-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4862,61 +4862,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>91.150104</c:v>
+                  <c:v>89.766551</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.145964</c:v>
+                  <c:v>89.762411</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.63886</c:v>
+                  <c:v>87.255307</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85.819018</c:v>
+                  <c:v>84.436294</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85.266153</c:v>
+                  <c:v>83.887385</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>79.555903</c:v>
+                  <c:v>78.230315</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.21302</c:v>
+                  <c:v>22.028366</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.989196</c:v>
+                  <c:v>18.857723</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.436331</c:v>
+                  <c:v>18.308814</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.361976</c:v>
+                  <c:v>18.235288</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.884623</c:v>
+                  <c:v>15.757935</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.880483</c:v>
+                  <c:v>15.753795</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.373379</c:v>
+                  <c:v>13.246691</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.553537</c:v>
+                  <c:v>10.427678</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.59149099999998</c:v>
+                  <c:v>8.47449600000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.65946899999998</c:v>
+                  <c:v>2.66050100000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.55732799999998</c:v>
+                  <c:v>2.55649900000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.47735299999998</c:v>
+                  <c:v>2.47735300000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.64313007644523e-14</c:v>
+                  <c:v>7.105427357601e-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5027,61 +5027,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>117.514648</c:v>
+                  <c:v>115.606528</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>117.510508</c:v>
+                  <c:v>115.602388</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115.003404</c:v>
+                  <c:v>113.095284</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>112.183562</c:v>
+                  <c:v>110.276271</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111.630697</c:v>
+                  <c:v>109.727362</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105.920447</c:v>
+                  <c:v>104.070292</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.21302</c:v>
+                  <c:v>22.028366</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.989196</c:v>
+                  <c:v>18.857723</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.436331</c:v>
+                  <c:v>18.308814</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.361976</c:v>
+                  <c:v>18.235288</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.884623</c:v>
+                  <c:v>15.757935</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.880483</c:v>
+                  <c:v>15.753795</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.373379</c:v>
+                  <c:v>13.246691</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.553537</c:v>
+                  <c:v>10.427678</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.59149099999998</c:v>
+                  <c:v>8.47449599999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.65946899999998</c:v>
+                  <c:v>2.66050099999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.55732799999998</c:v>
+                  <c:v>2.55649899999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.47735299999998</c:v>
+                  <c:v>2.47735299999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.64313007644523e-14</c:v>
+                  <c:v>-7.105427357601e-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5557,61 +5557,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>46.607266</c:v>
+                  <c:v>46.043026</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.604131</c:v>
+                  <c:v>46.039891</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.044772</c:v>
+                  <c:v>44.480532</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.489288</c:v>
+                  <c:v>41.925582</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.957521</c:v>
+                  <c:v>41.39636</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.020048</c:v>
+                  <c:v>36.493101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.178999</c:v>
+                  <c:v>17.058336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.124162</c:v>
+                  <c:v>14.037712</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.592395</c:v>
+                  <c:v>13.50849</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.115699</c:v>
+                  <c:v>13.032328</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.578867</c:v>
+                  <c:v>11.495496</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.575732</c:v>
+                  <c:v>11.492361</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.016373</c:v>
+                  <c:v>9.933002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.46088899999999</c:v>
+                  <c:v>7.378052</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.87298499999999</c:v>
+                  <c:v>5.79585</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.07363499999999</c:v>
+                  <c:v>2.074299</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.01778299999999</c:v>
+                  <c:v>2.01725</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.53683199999999</c:v>
+                  <c:v>1.536832</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-7.105427357601e-15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5720,61 +5720,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>63.493266</c:v>
+                  <c:v>62.583252</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.490131</c:v>
+                  <c:v>62.580117</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.930772</c:v>
+                  <c:v>61.020758</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.375288</c:v>
+                  <c:v>58.465808</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58.843521</c:v>
+                  <c:v>57.936586</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.906048</c:v>
+                  <c:v>53.033327</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.178999</c:v>
+                  <c:v>17.058336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.124162</c:v>
+                  <c:v>14.037712</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.592395</c:v>
+                  <c:v>13.50849</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.115699</c:v>
+                  <c:v>13.032328</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.578867</c:v>
+                  <c:v>11.495496</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.575732</c:v>
+                  <c:v>11.492361</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.016373</c:v>
+                  <c:v>9.933002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.46088899999999</c:v>
+                  <c:v>7.378052</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.87298499999999</c:v>
+                  <c:v>5.79585</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.07363499999999</c:v>
+                  <c:v>2.074299</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.01778299999999</c:v>
+                  <c:v>2.01725</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.53683199999999</c:v>
+                  <c:v>1.536832</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.06581410364015e-14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5885,61 +5885,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>80.379265</c:v>
+                  <c:v>79.123477</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.37613</c:v>
+                  <c:v>79.120342</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.816771</c:v>
+                  <c:v>77.560983</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.261287</c:v>
+                  <c:v>75.006033</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.72952</c:v>
+                  <c:v>74.476811</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70.792047</c:v>
+                  <c:v>69.573552</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.178999</c:v>
+                  <c:v>17.058336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.124162</c:v>
+                  <c:v>14.037712</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.592395</c:v>
+                  <c:v>13.50849</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.115699</c:v>
+                  <c:v>13.032328</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.578867</c:v>
+                  <c:v>11.495496</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.575732</c:v>
+                  <c:v>11.492361</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.016373</c:v>
+                  <c:v>9.93300199999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.46088900000004</c:v>
+                  <c:v>7.37805199999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.87298500000004</c:v>
+                  <c:v>5.79584999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.07363500000004</c:v>
+                  <c:v>2.07429899999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.01778300000004</c:v>
+                  <c:v>2.01724999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.53683200000004</c:v>
+                  <c:v>1.53683199999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.90798504668055e-14</c:v>
+                  <c:v>-2.68673971959288e-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6415,61 +6415,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>69.921877</c:v>
+                  <c:v>68.637352</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69.917509</c:v>
+                  <c:v>68.632984</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68.063953</c:v>
+                  <c:v>66.779428</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64.956807</c:v>
+                  <c:v>63.67312</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.304051</c:v>
+                  <c:v>63.024363</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.626273</c:v>
+                  <c:v>56.400343</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.695785</c:v>
+                  <c:v>22.442234</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.64148</c:v>
+                  <c:v>18.441688</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.988724</c:v>
+                  <c:v>17.792931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.778391</c:v>
+                  <c:v>17.583436</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.956226</c:v>
+                  <c:v>15.761271</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.951858</c:v>
+                  <c:v>15.756903</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.098302</c:v>
+                  <c:v>13.903347</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.991156</c:v>
+                  <c:v>10.797039</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.81216799999999</c:v>
+                  <c:v>8.62701100000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.12335099999999</c:v>
+                  <c:v>2.12439400000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.03842799999999</c:v>
+                  <c:v>2.03759000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.82216499999999</c:v>
+                  <c:v>1.82216500000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.11022302462516e-14</c:v>
+                  <c:v>6.88338275267597e-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6578,61 +6578,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>99.649952</c:v>
+                  <c:v>97.53787</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99.645584</c:v>
+                  <c:v>97.533502</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97.792028</c:v>
+                  <c:v>95.679946</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94.684882</c:v>
+                  <c:v>92.573638</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94.032126</c:v>
+                  <c:v>91.924881</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.354348</c:v>
+                  <c:v>85.300861</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.695785</c:v>
+                  <c:v>22.442234</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.64148</c:v>
+                  <c:v>18.441688</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.988724</c:v>
+                  <c:v>17.792931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.778391</c:v>
+                  <c:v>17.583436</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.956226</c:v>
+                  <c:v>15.761271</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.951858</c:v>
+                  <c:v>15.756903</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.098302</c:v>
+                  <c:v>13.903347</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.991156</c:v>
+                  <c:v>10.797039</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.812168</c:v>
+                  <c:v>8.627011</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.123351</c:v>
+                  <c:v>2.124394</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.038428</c:v>
+                  <c:v>2.03759</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.822165</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.10862446895044e-15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6743,61 +6743,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>129.378027</c:v>
+                  <c:v>126.438388</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>129.373659</c:v>
+                  <c:v>126.43402</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>127.520103</c:v>
+                  <c:v>124.580464</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>124.412957</c:v>
+                  <c:v>121.474156</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>123.760201</c:v>
+                  <c:v>120.825399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>117.082423</c:v>
+                  <c:v>114.201379</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.695785</c:v>
+                  <c:v>22.442234</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.64148</c:v>
+                  <c:v>18.441688</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.988724</c:v>
+                  <c:v>17.792931</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.778391</c:v>
+                  <c:v>17.583436</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.956226</c:v>
+                  <c:v>15.761271</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.951858</c:v>
+                  <c:v>15.756903</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.098302</c:v>
+                  <c:v>13.903347</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.991156</c:v>
+                  <c:v>10.797039</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.812168</c:v>
+                  <c:v>8.627011</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.123351</c:v>
+                  <c:v>2.124394</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.038428</c:v>
+                  <c:v>2.03759</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.822165</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.10862446895044e-15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7276,58 +7276,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.999936096870969</c:v>
+                  <c:v>0.999935238201014</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.961237596773108</c:v>
+                  <c:v>0.960716744170949</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.917711817262983</c:v>
+                  <c:v>0.91661907430517</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.909178048318175</c:v>
+                  <c:v>0.908032520121718</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.821037265094259</c:v>
+                  <c:v>0.819539276114824</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.342869923482949</c:v>
+                  <c:v>0.344588553352029</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.293108464293586</c:v>
+                  <c:v>0.294990354168044</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.284574695348778</c:v>
+                  <c:v>0.286403799984592</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.283426985890065</c:v>
+                  <c:v>0.285253636691783</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.245187708495535</c:v>
+                  <c:v>0.246500535966458</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.245123805366504</c:v>
+                  <c:v>0.246435774167473</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.206425305268643</c:v>
+                  <c:v>0.207217280137408</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.162899525758518</c:v>
+                  <c:v>0.163119610271628</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.132614289357073</c:v>
+                  <c:v>0.132566088516396</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.0410503359081867</c:v>
+                  <c:v>0.0416180751119547</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0394737345791251</c:v>
+                  <c:v>0.0399911773781093</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0382392773945303</c:v>
+                  <c:v>0.0387531007253244</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>-2.53625974128376e-16</c:v>
+                  <c:v>1.1114982083118e-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7439,58 +7439,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.999954580413863</c:v>
+                  <c:v>0.99995388037132</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.972449356722621</c:v>
+                  <c:v>0.972024724443295</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.941513111164415</c:v>
+                  <c:v>0.940620900094513</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.93544767650512</c:v>
+                  <c:v>0.934506050031932</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.872801011834282</c:v>
+                  <c:v>0.87148625104244</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.243697143779452</c:v>
+                  <c:v>0.24539614984205</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.208328846229292</c:v>
+                  <c:v>0.210075164857342</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.202263411569997</c:v>
+                  <c:v>0.203960314794761</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.201447669220432</c:v>
+                  <c:v>0.203141234645408</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.174268841207246</c:v>
+                  <c:v>0.175543505063484</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.17422342162111</c:v>
+                  <c:v>0.175497385434804</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.146718197929867</c:v>
+                  <c:v>0.147568229506779</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.115781952371661</c:v>
+                  <c:v>0.116164405157997</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.094256513410012</c:v>
+                  <c:v>0.0944059441472805</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.0291768070829627</c:v>
+                  <c:v>0.0296379995706865</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0280562269023849</c:v>
+                  <c:v>0.0284794165702101</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0271788280131856</c:v>
+                  <c:v>0.0275977295819242</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>-1.80266396234198e-16</c:v>
+                  <c:v>7.91545099866987e-17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7604,58 +7604,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.99996477034931</c:v>
+                  <c:v>0.999964188873486</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.978630374657634</c:v>
+                  <c:v>0.978277662659327</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.954634710729849</c:v>
+                  <c:v>0.953893114063593</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.949930063186676</c:v>
+                  <c:v>0.949145034439578</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.901338248487967</c:v>
+                  <c:v>0.900211206066149</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.189023414340653</c:v>
+                  <c:v>0.190546039061047</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.161590034290874</c:v>
+                  <c:v>0.163119880219913</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.156885386747701</c:v>
+                  <c:v>0.158371800595897</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.156252657115562</c:v>
+                  <c:v>0.157735798449029</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.135171429862939</c:v>
+                  <c:v>0.136306619294025</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.135136200212249</c:v>
+                  <c:v>0.136270808167511</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.113801804520573</c:v>
+                  <c:v>0.114584281953351</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.0898061405927879</c:v>
+                  <c:v>0.090199733357618</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.073109958173044</c:v>
+                  <c:v>0.0733046493706652</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.0226309574615752</c:v>
+                  <c:v>0.0230134149517923</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0217617807100948</c:v>
+                  <c:v>0.0221137944736131</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0210812272526229</c:v>
+                  <c:v>0.0214291791550041</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>-1.39823426645947e-16</c:v>
+                  <c:v>-6.14621637767809e-17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8128,58 +8128,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.999932735809906</c:v>
+                  <c:v>0.999931911512506</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.966475313098177</c:v>
+                  <c:v>0.966064480644691</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.911645149921474</c:v>
+                  <c:v>0.910573992248033</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.900235619913856</c:v>
+                  <c:v>0.899079917119261</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.794297781809386</c:v>
+                  <c:v>0.792586938139122</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.368590575555322</c:v>
+                  <c:v>0.370486857227846</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.303046353330401</c:v>
+                  <c:v>0.30488248100809</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.291636823322784</c:v>
+                  <c:v>0.293388405879318</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.281408890193216</c:v>
+                  <c:v>0.283046731116239</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.248434804135475</c:v>
+                  <c:v>0.249668560011673</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.248367539945381</c:v>
+                  <c:v>0.249600471524178</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.214910117233652</c:v>
+                  <c:v>0.215733040656364</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.160079954056949</c:v>
+                  <c:v>0.160242552259706</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.126010073193308</c:v>
+                  <c:v>0.125878998482854</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.0444916678871486</c:v>
+                  <c:v>0.0450513178695076</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0432933139652515</c:v>
+                  <c:v>0.0438122811476379</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0329740860577403</c:v>
+                  <c:v>0.0333781711045664</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>-1.52453210999354e-16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8291,58 +8291,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.999950624685144</c:v>
+                  <c:v>0.999949906725844</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.975391185578641</c:v>
+                  <c:v>0.975033352373571</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.935143074857734</c:v>
+                  <c:v>0.93420853234025</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.926767903229297</c:v>
+                  <c:v>0.925752244386406</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.849004176285403</c:v>
+                  <c:v>0.847404462139488</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.27056410990104</c:v>
+                  <c:v>0.272570303633311</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.222451338382877</c:v>
+                  <c:v>0.224304611080294</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.21407616675444</c:v>
+                  <c:v>0.215848323126449</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.206568346948793</c:v>
+                  <c:v>0.208239865835032</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.182363701372678</c:v>
+                  <c:v>0.183683264014468</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.182314326057821</c:v>
+                  <c:v>0.183633170740312</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.157754886951318</c:v>
+                  <c:v>0.158716616388039</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.117506776230411</c:v>
+                  <c:v>0.117891796354718</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.0924977618886385</c:v>
+                  <c:v>0.0926102401965306</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.032659132702356</c:v>
+                  <c:v>0.0331446342865021</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0317794803625315</c:v>
+                  <c:v>0.0322330645265925</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0242046455761149</c:v>
+                  <c:v>0.0245566018205638</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>-1.67862542090708e-16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8456,58 +8456,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.999960997403995</c:v>
+                  <c:v>0.999960378384282</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.980560981740751</c:v>
+                  <c:v>0.980252460341196</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.948768155568479</c:v>
+                  <c:v>0.947961791416219</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.942152431973594</c:v>
+                  <c:v>0.941273232974835</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.880725234300164</c:v>
+                  <c:v>0.879303522012815</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.213724260852597</c:v>
+                  <c:v>0.21559133454158</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.175718974290198</c:v>
+                  <c:v>0.177415256915466</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.169103250695313</c:v>
+                  <c:v>0.170726698474082</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.163172666483079</c:v>
+                  <c:v>0.164708737458542</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.144052909665198</c:v>
+                  <c:v>0.145285526317302</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.144013907069193</c:v>
+                  <c:v>0.145245904701584</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.124613891405949</c:v>
+                  <c:v>0.125537986658498</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.0928210652336773</c:v>
+                  <c:v>0.0932473177335214</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.0730659206699643</c:v>
+                  <c:v>0.0732506990308322</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.0257981333867638</c:v>
+                  <c:v>0.0262159738000388</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0251032775679155</c:v>
+                  <c:v>0.0254949615017547</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0191197568178813</c:v>
+                  <c:v>0.0194232111412391</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>4.86193180129297e-16</c:v>
+                  <c:v>-3.39562898581022e-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8980,58 +8980,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.999937530281116</c:v>
+                  <c:v>0.9999363611813</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.973428573720926</c:v>
+                  <c:v>0.972931298398575</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.928991179684722</c:v>
+                  <c:v>0.927674482547054</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.919655675147279</c:v>
+                  <c:v>0.91822252991345</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.824152260672293</c:v>
+                  <c:v>0.821715018959356</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.324587753844194</c:v>
+                  <c:v>0.326968237352746</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.266604399078131</c:v>
+                  <c:v>0.268682975998258</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.257268894540688</c:v>
+                  <c:v>0.259231023364654</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.254260780213323</c:v>
+                  <c:v>0.256178822283237</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.228200767550905</c:v>
+                  <c:v>0.229631105232615</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.228138297832022</c:v>
+                  <c:v>0.229567466413914</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.201629341271831</c:v>
+                  <c:v>0.202562403631189</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.157191947235627</c:v>
+                  <c:v>0.157305587779669</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.126028767791803</c:v>
+                  <c:v>0.125689741061106</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.030367477120215</c:v>
+                  <c:v>0.0309509900673325</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0291529359259047</c:v>
+                  <c:v>0.0296863142389294</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0260600126624174</c:v>
+                  <c:v>0.0265477170506229</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>-1.58780495069541e-16</c:v>
+                  <c:v>1.00286251612329e-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9143,58 +9143,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.999956166561927</c:v>
+                  <c:v>0.999955217394023</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.981355495284132</c:v>
+                  <c:v>0.980951767759538</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.950174888192621</c:v>
+                  <c:v>0.949104568307674</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.94362439833388</c:v>
+                  <c:v>0.942453233805495</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.876612042924015</c:v>
+                  <c:v>0.874540944968349</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.227755102180079</c:v>
+                  <c:v>0.230087390671951</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.187069633510712</c:v>
+                  <c:v>0.189072080413485</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.180519143651971</c:v>
+                  <c:v>0.182420745911306</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.178408425123978</c:v>
+                  <c:v>0.180272913484783</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.160122766541824</c:v>
+                  <c:v>0.161591297821041</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.160078933103751</c:v>
+                  <c:v>0.161546515215065</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.141478261825957</c:v>
+                  <c:v>0.142543065580579</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.110297654734445</c:v>
+                  <c:v>0.110695866128715</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.0884312317581448</c:v>
+                  <c:v>0.0884478100659774</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.0213080985728925</c:v>
+                  <c:v>0.0217801967584488</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0204558854177873</c:v>
+                  <c:v>0.0208902449889463</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0182856585821537</c:v>
+                  <c:v>0.0186816156637417</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>3.11954437163245e-17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9308,58 +9308,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.999966238471081</c:v>
+                  <c:v>0.999965453529825</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.985639570775028</c:v>
+                  <c:v>0.985305696874275</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.9616235452408</c:v>
+                  <c:v>0.960737936646266</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.956578206282277</c:v>
+                  <c:v>0.955606923745342</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.904963738548896</c:v>
+                  <c:v>0.903217612992662</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.17542225311567</c:v>
+                  <c:v>0.177495413813722</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.144085363119659</c:v>
+                  <c:v>0.145855133806356</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.139040024161135</c:v>
+                  <c:v>0.140724120905433</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.137414299879531</c:v>
+                  <c:v>0.139067226956421</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.123330262255429</c:v>
+                  <c:v>0.124655741419291</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.123296500726511</c:v>
+                  <c:v>0.124621194949116</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.108969833030457</c:v>
+                  <c:v>0.109961438293566</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.0849538074962297</c:v>
+                  <c:v>0.0853936780655571</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.068111782227132</c:v>
+                  <c:v>0.0682309473923378</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.0164119908862113</c:v>
+                  <c:v>0.0168018118041809</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0157555965820997</c:v>
+                  <c:v>0.0161152797993597</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0140840376241014</c:v>
+                  <c:v>0.0144114855371298</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>2.40274530461841e-17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14508,8 +14508,8 @@
   <sheetPr/>
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -14667,25 +14667,25 @@
         <v>1.26099</v>
       </c>
       <c r="E3" s="11">
-        <v>2.096034</v>
+        <v>2.095849</v>
       </c>
       <c r="F3" s="11">
-        <v>0.55039</v>
+        <v>0.548625</v>
       </c>
       <c r="G3" s="11">
-        <v>3.460097</v>
+        <v>3.448231</v>
       </c>
       <c r="H3" s="11">
-        <v>41.341488</v>
+        <v>40.956658</v>
       </c>
       <c r="I3" s="11">
-        <v>0.980656</v>
+        <v>0.968789</v>
       </c>
       <c r="J3" s="11">
-        <v>0.55039</v>
+        <v>0.548625</v>
       </c>
       <c r="K3" s="11">
-        <v>0.147982</v>
+        <v>0.148021</v>
       </c>
       <c r="L3" s="11">
         <v>1.231238</v>
@@ -14697,19 +14697,19 @@
         <v>1.26099</v>
       </c>
       <c r="O3" s="11">
-        <v>2.096034</v>
+        <v>2.095849</v>
       </c>
       <c r="P3" s="11">
-        <v>1.585685</v>
+        <v>1.583708</v>
       </c>
       <c r="Q3" s="11">
-        <v>8.297933</v>
+        <v>8.220691</v>
       </c>
       <c r="R3" s="11">
-        <v>0.180616</v>
+        <v>0.181031</v>
       </c>
       <c r="S3" s="11">
-        <v>0.146802</v>
+        <v>0.146841</v>
       </c>
       <c r="T3" s="12">
         <v>1.231238</v>
@@ -14727,25 +14727,25 @@
         <v>0.785311</v>
       </c>
       <c r="E4" s="11">
-        <v>1.797259</v>
+        <v>1.79714</v>
       </c>
       <c r="F4" s="11">
-        <v>0.530053</v>
+        <v>0.528918</v>
       </c>
       <c r="G4" s="11">
-        <v>2.927872</v>
+        <v>2.920245</v>
       </c>
       <c r="H4" s="11">
-        <v>26.022308</v>
+        <v>25.768693</v>
       </c>
       <c r="I4" s="11">
-        <v>1.050524</v>
+        <v>1.042898</v>
       </c>
       <c r="J4" s="11">
-        <v>0.530053</v>
+        <v>0.528918</v>
       </c>
       <c r="K4" s="11">
-        <v>0.066325</v>
+        <v>0.06635</v>
       </c>
       <c r="L4" s="11">
         <v>0.762784</v>
@@ -14757,19 +14757,19 @@
         <v>0.785311</v>
       </c>
       <c r="O4" s="11">
-        <v>1.797259</v>
+        <v>1.79714</v>
       </c>
       <c r="P4" s="11">
-        <v>1.25196</v>
+        <v>1.250689</v>
       </c>
       <c r="Q4" s="11">
-        <v>5.223116</v>
+        <v>5.172211</v>
       </c>
       <c r="R4" s="11">
-        <v>0.125976</v>
+        <v>0.126243</v>
       </c>
       <c r="S4" s="11">
-        <v>0.065431</v>
+        <v>0.065456</v>
       </c>
       <c r="T4" s="12">
         <v>0.762784</v>
@@ -14787,25 +14787,25 @@
         <v>0.934626</v>
       </c>
       <c r="E5" s="11">
-        <v>2.277495</v>
+        <v>2.277308</v>
       </c>
       <c r="F5" s="11">
-        <v>0.650071</v>
+        <v>0.648287</v>
       </c>
       <c r="G5" s="11">
-        <v>3.976706</v>
+        <v>3.964715</v>
       </c>
       <c r="H5" s="11">
-        <v>46.372197</v>
+        <v>45.7638</v>
       </c>
       <c r="I5" s="11">
-        <v>1.360603</v>
+        <v>1.348611</v>
       </c>
       <c r="J5" s="11">
-        <v>0.650071</v>
+        <v>0.648287</v>
       </c>
       <c r="K5" s="11">
-        <v>0.138609</v>
+        <v>0.138648</v>
       </c>
       <c r="L5" s="11">
         <v>0.903235</v>
@@ -14817,19 +14817,19 @@
         <v>0.934626</v>
       </c>
       <c r="O5" s="11">
-        <v>2.277495</v>
+        <v>2.277308</v>
       </c>
       <c r="P5" s="11">
-        <v>1.727401</v>
+        <v>1.725403</v>
       </c>
       <c r="Q5" s="11">
-        <v>9.307681</v>
+        <v>9.185566</v>
       </c>
       <c r="R5" s="11">
-        <v>0.179164</v>
+        <v>0.179584</v>
       </c>
       <c r="S5" s="11">
-        <v>0.137364</v>
+        <v>0.137403</v>
       </c>
       <c r="T5" s="12">
         <v>0.903235</v>
@@ -14870,25 +14870,25 @@
         <v>1.26099</v>
       </c>
       <c r="E7" s="11">
-        <v>2.096034</v>
+        <v>2.095849</v>
       </c>
       <c r="F7" s="11">
-        <v>0.55039</v>
+        <v>0.548625</v>
       </c>
       <c r="G7" s="11">
-        <v>3.460097</v>
+        <v>3.448231</v>
       </c>
       <c r="H7" s="11">
-        <v>68.013416</v>
+        <v>67.380308</v>
       </c>
       <c r="I7" s="11">
-        <v>0.980656</v>
+        <v>0.968789</v>
       </c>
       <c r="J7" s="11">
-        <v>0.55039</v>
+        <v>0.548625</v>
       </c>
       <c r="K7" s="11">
-        <v>0.147982</v>
+        <v>0.148021</v>
       </c>
       <c r="L7" s="11">
         <v>1.231238</v>
@@ -14900,19 +14900,19 @@
         <v>1.26099</v>
       </c>
       <c r="O7" s="11">
-        <v>2.096034</v>
+        <v>2.095849</v>
       </c>
       <c r="P7" s="11">
-        <v>1.585685</v>
+        <v>1.583708</v>
       </c>
       <c r="Q7" s="11">
-        <v>8.297933</v>
+        <v>8.220691</v>
       </c>
       <c r="R7" s="11">
-        <v>0.180616</v>
+        <v>0.181031</v>
       </c>
       <c r="S7" s="11">
-        <v>0.146802</v>
+        <v>0.146841</v>
       </c>
       <c r="T7" s="12">
         <v>1.231238</v>
@@ -14930,25 +14930,25 @@
         <v>0.785311</v>
       </c>
       <c r="E8" s="11">
-        <v>1.797259</v>
+        <v>1.79714</v>
       </c>
       <c r="F8" s="11">
-        <v>0.530053</v>
+        <v>0.528918</v>
       </c>
       <c r="G8" s="11">
-        <v>2.927872</v>
+        <v>2.920245</v>
       </c>
       <c r="H8" s="11">
-        <v>42.810893</v>
+        <v>42.393657</v>
       </c>
       <c r="I8" s="11">
-        <v>1.050524</v>
+        <v>1.042898</v>
       </c>
       <c r="J8" s="11">
-        <v>0.530053</v>
+        <v>0.528918</v>
       </c>
       <c r="K8" s="11">
-        <v>0.066325</v>
+        <v>0.06635</v>
       </c>
       <c r="L8" s="11">
         <v>0.762784</v>
@@ -14960,19 +14960,19 @@
         <v>0.785311</v>
       </c>
       <c r="O8" s="11">
-        <v>1.797259</v>
+        <v>1.79714</v>
       </c>
       <c r="P8" s="11">
-        <v>1.25196</v>
+        <v>1.250689</v>
       </c>
       <c r="Q8" s="11">
-        <v>5.223116</v>
+        <v>5.172211</v>
       </c>
       <c r="R8" s="11">
-        <v>0.125976</v>
+        <v>0.126243</v>
       </c>
       <c r="S8" s="11">
-        <v>0.065431</v>
+        <v>0.065456</v>
       </c>
       <c r="T8" s="12">
         <v>0.762784</v>
@@ -14990,25 +14990,25 @@
         <v>0.934626</v>
       </c>
       <c r="E9" s="11">
-        <v>2.277495</v>
+        <v>2.277308</v>
       </c>
       <c r="F9" s="11">
-        <v>0.650071</v>
+        <v>0.648287</v>
       </c>
       <c r="G9" s="11">
-        <v>3.976706</v>
+        <v>3.964715</v>
       </c>
       <c r="H9" s="11">
-        <v>76.289744</v>
+        <v>75.288832</v>
       </c>
       <c r="I9" s="11">
-        <v>1.360603</v>
+        <v>1.348611</v>
       </c>
       <c r="J9" s="11">
-        <v>0.650071</v>
+        <v>0.648287</v>
       </c>
       <c r="K9" s="11">
-        <v>0.138609</v>
+        <v>0.138648</v>
       </c>
       <c r="L9" s="11">
         <v>0.903235</v>
@@ -15020,19 +15020,19 @@
         <v>0.934626</v>
       </c>
       <c r="O9" s="11">
-        <v>2.277495</v>
+        <v>2.277308</v>
       </c>
       <c r="P9" s="11">
-        <v>1.727401</v>
+        <v>1.725403</v>
       </c>
       <c r="Q9" s="11">
-        <v>9.307681</v>
+        <v>9.185566</v>
       </c>
       <c r="R9" s="11">
-        <v>0.179164</v>
+        <v>0.179584</v>
       </c>
       <c r="S9" s="11">
-        <v>0.137364</v>
+        <v>0.137403</v>
       </c>
       <c r="T9" s="12">
         <v>0.903235</v>
@@ -15052,25 +15052,25 @@
         <v>1.26099</v>
       </c>
       <c r="E11" s="11">
-        <v>2.096034</v>
+        <v>2.095849</v>
       </c>
       <c r="F11" s="11">
-        <v>0.55039</v>
+        <v>0.548625</v>
       </c>
       <c r="G11" s="11">
-        <v>3.460097</v>
+        <v>3.448231</v>
       </c>
       <c r="H11" s="11">
-        <v>94.685344</v>
+        <v>93.803958</v>
       </c>
       <c r="I11" s="11">
-        <v>0.980656</v>
+        <v>0.968789</v>
       </c>
       <c r="J11" s="11">
-        <v>0.55039</v>
+        <v>0.548625</v>
       </c>
       <c r="K11" s="11">
-        <v>0.147982</v>
+        <v>0.148021</v>
       </c>
       <c r="L11" s="11">
         <v>1.231238</v>
@@ -15082,19 +15082,19 @@
         <v>1.26099</v>
       </c>
       <c r="O11" s="11">
-        <v>2.096034</v>
+        <v>2.095849</v>
       </c>
       <c r="P11" s="11">
-        <v>1.585685</v>
+        <v>1.583708</v>
       </c>
       <c r="Q11" s="11">
-        <v>8.297933</v>
+        <v>8.220691</v>
       </c>
       <c r="R11" s="11">
-        <v>0.180616</v>
+        <v>0.181031</v>
       </c>
       <c r="S11" s="11">
-        <v>0.146802</v>
+        <v>0.146841</v>
       </c>
       <c r="T11" s="12">
         <v>1.231238</v>
@@ -15112,25 +15112,25 @@
         <v>0.785311</v>
       </c>
       <c r="E12" s="11">
-        <v>1.797259</v>
+        <v>1.79714</v>
       </c>
       <c r="F12" s="11">
-        <v>0.530053</v>
+        <v>0.528918</v>
       </c>
       <c r="G12" s="11">
-        <v>2.927872</v>
+        <v>2.920245</v>
       </c>
       <c r="H12" s="11">
-        <v>59.599479</v>
+        <v>59.01862</v>
       </c>
       <c r="I12" s="11">
-        <v>1.050524</v>
+        <v>1.042898</v>
       </c>
       <c r="J12" s="11">
-        <v>0.530053</v>
+        <v>0.528918</v>
       </c>
       <c r="K12" s="11">
-        <v>0.066325</v>
+        <v>0.06635</v>
       </c>
       <c r="L12" s="11">
         <v>0.762784</v>
@@ -15142,19 +15142,19 @@
         <v>0.785311</v>
       </c>
       <c r="O12" s="11">
-        <v>1.797259</v>
+        <v>1.79714</v>
       </c>
       <c r="P12" s="11">
-        <v>1.25196</v>
+        <v>1.250689</v>
       </c>
       <c r="Q12" s="11">
-        <v>5.223116</v>
+        <v>5.172211</v>
       </c>
       <c r="R12" s="11">
-        <v>0.125976</v>
+        <v>0.126243</v>
       </c>
       <c r="S12" s="11">
-        <v>0.065431</v>
+        <v>0.065456</v>
       </c>
       <c r="T12" s="12">
         <v>0.762784</v>
@@ -15172,25 +15172,25 @@
         <v>0.934626</v>
       </c>
       <c r="E13" s="11">
-        <v>2.277495</v>
+        <v>2.277308</v>
       </c>
       <c r="F13" s="11">
-        <v>0.650071</v>
+        <v>0.648287</v>
       </c>
       <c r="G13" s="11">
-        <v>3.976706</v>
+        <v>3.964715</v>
       </c>
       <c r="H13" s="11">
-        <v>106.207291</v>
+        <v>104.813864</v>
       </c>
       <c r="I13" s="11">
-        <v>1.360603</v>
+        <v>1.348611</v>
       </c>
       <c r="J13" s="11">
-        <v>0.650071</v>
+        <v>0.648287</v>
       </c>
       <c r="K13" s="11">
-        <v>0.138609</v>
+        <v>0.138648</v>
       </c>
       <c r="L13" s="11">
         <v>0.903235</v>
@@ -15202,19 +15202,19 @@
         <v>0.934626</v>
       </c>
       <c r="O13" s="11">
-        <v>2.277495</v>
+        <v>2.277308</v>
       </c>
       <c r="P13" s="11">
-        <v>1.727401</v>
+        <v>1.725403</v>
       </c>
       <c r="Q13" s="11">
-        <v>9.307681</v>
+        <v>9.185566</v>
       </c>
       <c r="R13" s="11">
-        <v>0.179164</v>
+        <v>0.179584</v>
       </c>
       <c r="S13" s="11">
-        <v>0.137364</v>
+        <v>0.137403</v>
       </c>
       <c r="T13" s="12">
         <v>0.903235</v>
@@ -15233,8 +15233,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="10">
-        <f>SUM(C3:T3)</f>
-        <v>66.426843</v>
+        <v>65.935654</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -15242,8 +15241,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="10">
-        <f>SUM(C4:T4)</f>
-        <v>44.490596</v>
+        <v>44.167361</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -15251,8 +15249,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="10">
-        <f>SUM(C5:T5)</f>
-        <v>72.739315</v>
+        <v>71.979378</v>
       </c>
     </row>
     <row r="20" spans="3:3">
@@ -15274,8 +15271,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="10">
-        <f>SUM(C7:T7)</f>
-        <v>93.098771</v>
+        <v>92.359304</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -15283,8 +15279,7 @@
         <v>21</v>
       </c>
       <c r="C24" s="10">
-        <f>SUM(C8:T8)</f>
-        <v>61.279181</v>
+        <v>60.792325</v>
       </c>
     </row>
     <row r="25" spans="2:3">
@@ -15292,8 +15287,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="10">
-        <f>SUM(C9:T9)</f>
-        <v>102.656862</v>
+        <v>101.50441</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -15315,8 +15309,7 @@
         <v>20</v>
       </c>
       <c r="C29" s="10">
-        <f>SUM(C11:T11)</f>
-        <v>119.770699</v>
+        <v>118.782954</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -15324,8 +15317,7 @@
         <v>21</v>
       </c>
       <c r="C30" s="10">
-        <f>SUM(C12:T12)</f>
-        <v>78.067767</v>
+        <v>77.417288</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -15333,8 +15325,7 @@
         <v>22</v>
       </c>
       <c r="C31" s="10">
-        <f>SUM(C13:T13)</f>
-        <v>132.574409</v>
+        <v>131.029442</v>
       </c>
     </row>
     <row r="32" spans="3:3">
@@ -15359,8 +15350,8 @@
   <sheetPr/>
   <dimension ref="A1:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="27" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="27" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -15599,25 +15590,25 @@
         <v>2.507104</v>
       </c>
       <c r="F4" s="5">
-        <v>2.819842</v>
+        <v>2.819013</v>
       </c>
       <c r="G4" s="5">
-        <v>0.552865</v>
+        <v>0.548909</v>
       </c>
       <c r="H4" s="5">
-        <v>5.71025</v>
+        <v>5.65707</v>
       </c>
       <c r="I4" s="5">
-        <v>30.978339</v>
+        <v>30.361973</v>
       </c>
       <c r="J4" s="5">
-        <v>3.223824</v>
+        <v>3.170643</v>
       </c>
       <c r="K4" s="5">
-        <v>0.552865</v>
+        <v>0.548909</v>
       </c>
       <c r="L4" s="5">
-        <v>0.074355</v>
+        <v>0.073526</v>
       </c>
       <c r="M4" s="5">
         <v>2.477353</v>
@@ -15629,19 +15620,19 @@
         <v>2.507104</v>
       </c>
       <c r="P4" s="5">
-        <v>2.819842</v>
+        <v>2.819013</v>
       </c>
       <c r="Q4" s="5">
-        <v>1.962046</v>
+        <v>1.953182</v>
       </c>
       <c r="R4" s="5">
-        <v>5.932022</v>
+        <v>5.813995</v>
       </c>
       <c r="S4" s="5">
-        <v>0.102141</v>
+        <v>0.104002</v>
       </c>
       <c r="T4" s="5">
-        <v>0.079975</v>
+        <v>0.079146</v>
       </c>
       <c r="U4" s="5">
         <v>2.477353</v>
@@ -15651,79 +15642,79 @@
       <c r="A5" s="4"/>
       <c r="C5" s="5">
         <f>C50</f>
-        <v>64.78556</v>
+        <v>63.926575</v>
       </c>
       <c r="D5" s="5">
         <f>$C$50-D4</f>
-        <v>64.78142</v>
+        <v>63.922435</v>
       </c>
       <c r="E5" s="5">
         <f>D5-E4</f>
-        <v>62.274316</v>
+        <v>61.415331</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ref="F5:U5" si="1">E5-F4</f>
-        <v>59.454474</v>
+        <v>58.596318</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="1"/>
-        <v>58.901609</v>
+        <v>58.047409</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="1"/>
-        <v>53.191359</v>
+        <v>52.390339</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" si="1"/>
-        <v>22.21302</v>
+        <v>22.028366</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" si="1"/>
-        <v>18.989196</v>
+        <v>18.857723</v>
       </c>
       <c r="K5" s="5">
         <f t="shared" si="1"/>
-        <v>18.436331</v>
+        <v>18.308814</v>
       </c>
       <c r="L5" s="5">
         <f t="shared" si="1"/>
-        <v>18.361976</v>
+        <v>18.235288</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" si="1"/>
-        <v>15.884623</v>
+        <v>15.757935</v>
       </c>
       <c r="N5" s="5">
         <f t="shared" si="1"/>
-        <v>15.880483</v>
+        <v>15.753795</v>
       </c>
       <c r="O5" s="5">
         <f t="shared" si="1"/>
-        <v>13.373379</v>
+        <v>13.246691</v>
       </c>
       <c r="P5" s="5">
         <f t="shared" si="1"/>
-        <v>10.553537</v>
+        <v>10.427678</v>
       </c>
       <c r="Q5" s="5">
         <f t="shared" si="1"/>
-        <v>8.59149099999998</v>
+        <v>8.47449600000001</v>
       </c>
       <c r="R5" s="5">
         <f t="shared" si="1"/>
-        <v>2.65946899999998</v>
+        <v>2.66050100000001</v>
       </c>
       <c r="S5" s="5">
         <f t="shared" si="1"/>
-        <v>2.55732799999998</v>
+        <v>2.55649900000001</v>
       </c>
       <c r="T5" s="5">
         <f t="shared" si="1"/>
-        <v>2.47735299999998</v>
+        <v>2.47735300000001</v>
       </c>
       <c r="U5" s="5">
         <f t="shared" si="1"/>
-        <v>-1.64313007644523e-14</v>
+        <v>7.105427357601e-15</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:21">
@@ -15733,75 +15724,75 @@
       </c>
       <c r="D6" s="7">
         <f>D5/$C$50</f>
-        <v>0.999936096870969</v>
+        <v>0.999935238201014</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" ref="E6:U6" si="2">E5/$C$50</f>
-        <v>0.961237596773108</v>
+        <v>0.960716744170949</v>
       </c>
       <c r="F6" s="7">
         <f t="shared" si="2"/>
-        <v>0.917711817262983</v>
+        <v>0.91661907430517</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="2"/>
-        <v>0.909178048318175</v>
+        <v>0.908032520121718</v>
       </c>
       <c r="H6" s="7">
         <f t="shared" si="2"/>
-        <v>0.821037265094259</v>
+        <v>0.819539276114824</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="2"/>
-        <v>0.342869923482949</v>
+        <v>0.344588553352029</v>
       </c>
       <c r="J6" s="7">
         <f t="shared" si="2"/>
-        <v>0.293108464293586</v>
+        <v>0.294990354168044</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" si="2"/>
-        <v>0.284574695348778</v>
+        <v>0.286403799984592</v>
       </c>
       <c r="L6" s="7">
         <f t="shared" si="2"/>
-        <v>0.283426985890065</v>
+        <v>0.285253636691783</v>
       </c>
       <c r="M6" s="7">
         <f t="shared" si="2"/>
-        <v>0.245187708495535</v>
+        <v>0.246500535966458</v>
       </c>
       <c r="N6" s="7">
         <f t="shared" si="2"/>
-        <v>0.245123805366504</v>
+        <v>0.246435774167473</v>
       </c>
       <c r="O6" s="7">
         <f t="shared" si="2"/>
-        <v>0.206425305268643</v>
+        <v>0.207217280137408</v>
       </c>
       <c r="P6" s="7">
         <f t="shared" si="2"/>
-        <v>0.162899525758518</v>
+        <v>0.163119610271628</v>
       </c>
       <c r="Q6" s="7">
         <f t="shared" si="2"/>
-        <v>0.132614289357073</v>
+        <v>0.132566088516396</v>
       </c>
       <c r="R6" s="7">
         <f t="shared" si="2"/>
-        <v>0.0410503359081867</v>
+        <v>0.0416180751119547</v>
       </c>
       <c r="S6" s="7">
         <f t="shared" si="2"/>
-        <v>0.0394737345791251</v>
+        <v>0.0399911773781093</v>
       </c>
       <c r="T6" s="7">
         <f t="shared" si="2"/>
-        <v>0.0382392773945303</v>
+        <v>0.0387531007253244</v>
       </c>
       <c r="U6" s="7">
         <f t="shared" si="2"/>
-        <v>-2.53625974128376e-16</v>
+        <v>1.1114982083118e-16</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:21">
@@ -15837,25 +15828,25 @@
         <v>1.559359</v>
       </c>
       <c r="F8" s="5">
-        <v>2.555484</v>
+        <v>2.55495</v>
       </c>
       <c r="G8" s="5">
-        <v>0.531767</v>
+        <v>0.529222</v>
       </c>
       <c r="H8" s="5">
-        <v>4.937473</v>
+        <v>4.903259</v>
       </c>
       <c r="I8" s="5">
-        <v>19.841049</v>
+        <v>19.434765</v>
       </c>
       <c r="J8" s="5">
-        <v>3.054837</v>
+        <v>3.020624</v>
       </c>
       <c r="K8" s="5">
-        <v>0.531767</v>
+        <v>0.529222</v>
       </c>
       <c r="L8" s="5">
-        <v>0.476696</v>
+        <v>0.476162</v>
       </c>
       <c r="M8" s="5">
         <v>1.536832</v>
@@ -15867,19 +15858,19 @@
         <v>1.559359</v>
       </c>
       <c r="P8" s="5">
-        <v>2.555484</v>
+        <v>2.55495</v>
       </c>
       <c r="Q8" s="5">
-        <v>1.587904</v>
+        <v>1.582202</v>
       </c>
       <c r="R8" s="5">
-        <v>3.79935</v>
+        <v>3.721551</v>
       </c>
       <c r="S8" s="5">
-        <v>0.055852</v>
+        <v>0.057049</v>
       </c>
       <c r="T8" s="5">
-        <v>0.480951</v>
+        <v>0.480418</v>
       </c>
       <c r="U8" s="5">
         <v>1.536832</v>
@@ -15889,79 +15880,79 @@
       <c r="A9" s="4"/>
       <c r="C9" s="5">
         <f>C51</f>
-        <v>46.607266</v>
+        <v>46.043026</v>
       </c>
       <c r="D9" s="5">
         <f>$C$51-D8</f>
-        <v>46.604131</v>
+        <v>46.039891</v>
       </c>
       <c r="E9" s="5">
         <f>D9-E8</f>
-        <v>45.044772</v>
+        <v>44.480532</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ref="F9:U9" si="3">E9-F8</f>
-        <v>42.489288</v>
+        <v>41.925582</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="3"/>
-        <v>41.957521</v>
+        <v>41.39636</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="3"/>
-        <v>37.020048</v>
+        <v>36.493101</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="3"/>
-        <v>17.178999</v>
+        <v>17.058336</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" si="3"/>
-        <v>14.124162</v>
+        <v>14.037712</v>
       </c>
       <c r="K9" s="5">
         <f t="shared" si="3"/>
-        <v>13.592395</v>
+        <v>13.50849</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" si="3"/>
-        <v>13.115699</v>
+        <v>13.032328</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" si="3"/>
-        <v>11.578867</v>
+        <v>11.495496</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" si="3"/>
-        <v>11.575732</v>
+        <v>11.492361</v>
       </c>
       <c r="O9" s="5">
         <f t="shared" si="3"/>
-        <v>10.016373</v>
+        <v>9.933002</v>
       </c>
       <c r="P9" s="5">
         <f t="shared" si="3"/>
-        <v>7.46088899999999</v>
+        <v>7.378052</v>
       </c>
       <c r="Q9" s="5">
         <f t="shared" si="3"/>
-        <v>5.87298499999999</v>
+        <v>5.79585</v>
       </c>
       <c r="R9" s="5">
         <f t="shared" si="3"/>
-        <v>2.07363499999999</v>
+        <v>2.074299</v>
       </c>
       <c r="S9" s="5">
         <f t="shared" si="3"/>
-        <v>2.01778299999999</v>
+        <v>2.01725</v>
       </c>
       <c r="T9" s="5">
         <f t="shared" si="3"/>
-        <v>1.53683199999999</v>
+        <v>1.536832</v>
       </c>
       <c r="U9" s="5">
         <f t="shared" si="3"/>
-        <v>-7.105427357601e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:21">
@@ -15971,75 +15962,75 @@
       </c>
       <c r="D10" s="7">
         <f>D9/$C$51</f>
-        <v>0.999932735809906</v>
+        <v>0.999931911512506</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" ref="E10:U10" si="4">E9/$C$51</f>
-        <v>0.966475313098177</v>
+        <v>0.966064480644691</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="4"/>
-        <v>0.911645149921474</v>
+        <v>0.910573992248033</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="4"/>
-        <v>0.900235619913856</v>
+        <v>0.899079917119261</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="4"/>
-        <v>0.794297781809386</v>
+        <v>0.792586938139122</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="4"/>
-        <v>0.368590575555322</v>
+        <v>0.370486857227846</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" si="4"/>
-        <v>0.303046353330401</v>
+        <v>0.30488248100809</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="4"/>
-        <v>0.291636823322784</v>
+        <v>0.293388405879318</v>
       </c>
       <c r="L10" s="7">
         <f t="shared" si="4"/>
-        <v>0.281408890193216</v>
+        <v>0.283046731116239</v>
       </c>
       <c r="M10" s="7">
         <f t="shared" si="4"/>
-        <v>0.248434804135475</v>
+        <v>0.249668560011673</v>
       </c>
       <c r="N10" s="7">
         <f t="shared" si="4"/>
-        <v>0.248367539945381</v>
+        <v>0.249600471524178</v>
       </c>
       <c r="O10" s="7">
         <f t="shared" si="4"/>
-        <v>0.214910117233652</v>
+        <v>0.215733040656364</v>
       </c>
       <c r="P10" s="7">
         <f t="shared" si="4"/>
-        <v>0.160079954056949</v>
+        <v>0.160242552259706</v>
       </c>
       <c r="Q10" s="7">
         <f t="shared" si="4"/>
-        <v>0.126010073193308</v>
+        <v>0.125878998482854</v>
       </c>
       <c r="R10" s="7">
         <f t="shared" si="4"/>
-        <v>0.0444916678871486</v>
+        <v>0.0450513178695076</v>
       </c>
       <c r="S10" s="7">
         <f t="shared" si="4"/>
-        <v>0.0432933139652515</v>
+        <v>0.0438122811476379</v>
       </c>
       <c r="T10" s="7">
         <f t="shared" si="4"/>
-        <v>0.0329740860577403</v>
+        <v>0.0333781711045664</v>
       </c>
       <c r="U10" s="7">
         <f t="shared" si="4"/>
-        <v>-1.52453210999354e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:21">
@@ -16075,25 +16066,25 @@
         <v>1.853556</v>
       </c>
       <c r="F12" s="5">
-        <v>3.107146</v>
+        <v>3.106308</v>
       </c>
       <c r="G12" s="5">
-        <v>0.652756</v>
+        <v>0.648757</v>
       </c>
       <c r="H12" s="5">
-        <v>6.677778</v>
+        <v>6.62402</v>
       </c>
       <c r="I12" s="5">
-        <v>34.930488</v>
+        <v>33.958109</v>
       </c>
       <c r="J12" s="5">
-        <v>4.054305</v>
+        <v>4.000546</v>
       </c>
       <c r="K12" s="5">
-        <v>0.652756</v>
+        <v>0.648757</v>
       </c>
       <c r="L12" s="5">
-        <v>0.210333</v>
+        <v>0.209495</v>
       </c>
       <c r="M12" s="5">
         <v>1.822165</v>
@@ -16105,19 +16096,19 @@
         <v>1.853556</v>
       </c>
       <c r="P12" s="5">
-        <v>3.107146</v>
+        <v>3.106308</v>
       </c>
       <c r="Q12" s="5">
-        <v>2.178988</v>
+        <v>2.170028</v>
       </c>
       <c r="R12" s="5">
-        <v>6.688817</v>
+        <v>6.502617</v>
       </c>
       <c r="S12" s="5">
-        <v>0.084923</v>
+        <v>0.086804</v>
       </c>
       <c r="T12" s="5">
-        <v>0.216263</v>
+        <v>0.215425</v>
       </c>
       <c r="U12" s="5">
         <v>1.822165</v>
@@ -16128,79 +16119,79 @@
       <c r="B13" s="2"/>
       <c r="C13" s="5">
         <f>C52</f>
-        <v>69.921877</v>
+        <v>68.637352</v>
       </c>
       <c r="D13" s="5">
         <f>$C$52-D12</f>
-        <v>69.917509</v>
+        <v>68.632984</v>
       </c>
       <c r="E13" s="5">
         <f>D13-E12</f>
-        <v>68.063953</v>
+        <v>66.779428</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ref="F13:U13" si="5">E13-F12</f>
-        <v>64.956807</v>
+        <v>63.67312</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="5"/>
-        <v>64.304051</v>
+        <v>63.024363</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="5"/>
-        <v>57.626273</v>
+        <v>56.400343</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="5"/>
-        <v>22.695785</v>
+        <v>22.442234</v>
       </c>
       <c r="J13" s="5">
         <f t="shared" si="5"/>
-        <v>18.64148</v>
+        <v>18.441688</v>
       </c>
       <c r="K13" s="5">
         <f t="shared" si="5"/>
-        <v>17.988724</v>
+        <v>17.792931</v>
       </c>
       <c r="L13" s="5">
         <f t="shared" si="5"/>
-        <v>17.778391</v>
+        <v>17.583436</v>
       </c>
       <c r="M13" s="5">
         <f t="shared" si="5"/>
-        <v>15.956226</v>
+        <v>15.761271</v>
       </c>
       <c r="N13" s="5">
         <f t="shared" si="5"/>
-        <v>15.951858</v>
+        <v>15.756903</v>
       </c>
       <c r="O13" s="5">
         <f t="shared" si="5"/>
-        <v>14.098302</v>
+        <v>13.903347</v>
       </c>
       <c r="P13" s="5">
         <f t="shared" si="5"/>
-        <v>10.991156</v>
+        <v>10.797039</v>
       </c>
       <c r="Q13" s="5">
         <f t="shared" si="5"/>
-        <v>8.81216799999999</v>
+        <v>8.62701100000001</v>
       </c>
       <c r="R13" s="5">
         <f t="shared" si="5"/>
-        <v>2.12335099999999</v>
+        <v>2.12439400000001</v>
       </c>
       <c r="S13" s="5">
         <f t="shared" si="5"/>
-        <v>2.03842799999999</v>
+        <v>2.03759000000001</v>
       </c>
       <c r="T13" s="5">
         <f t="shared" si="5"/>
-        <v>1.82216499999999</v>
+        <v>1.82216500000001</v>
       </c>
       <c r="U13" s="5">
         <f t="shared" si="5"/>
-        <v>-1.11022302462516e-14</v>
+        <v>6.88338275267597e-15</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:21">
@@ -16211,75 +16202,75 @@
       </c>
       <c r="D14" s="7">
         <f>D13/$C$52</f>
-        <v>0.999937530281116</v>
+        <v>0.9999363611813</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" ref="E14:U14" si="6">E13/$C$52</f>
-        <v>0.973428573720926</v>
+        <v>0.972931298398575</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" si="6"/>
-        <v>0.928991179684722</v>
+        <v>0.927674482547054</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="6"/>
-        <v>0.919655675147279</v>
+        <v>0.91822252991345</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="6"/>
-        <v>0.824152260672293</v>
+        <v>0.821715018959356</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="6"/>
-        <v>0.324587753844194</v>
+        <v>0.326968237352746</v>
       </c>
       <c r="J14" s="7">
         <f t="shared" si="6"/>
-        <v>0.266604399078131</v>
+        <v>0.268682975998258</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="6"/>
-        <v>0.257268894540688</v>
+        <v>0.259231023364654</v>
       </c>
       <c r="L14" s="7">
         <f t="shared" si="6"/>
-        <v>0.254260780213323</v>
+        <v>0.256178822283237</v>
       </c>
       <c r="M14" s="7">
         <f t="shared" si="6"/>
-        <v>0.228200767550905</v>
+        <v>0.229631105232615</v>
       </c>
       <c r="N14" s="7">
         <f t="shared" si="6"/>
-        <v>0.228138297832022</v>
+        <v>0.229567466413914</v>
       </c>
       <c r="O14" s="7">
         <f t="shared" si="6"/>
-        <v>0.201629341271831</v>
+        <v>0.202562403631189</v>
       </c>
       <c r="P14" s="7">
         <f t="shared" si="6"/>
-        <v>0.157191947235627</v>
+        <v>0.157305587779669</v>
       </c>
       <c r="Q14" s="7">
         <f t="shared" si="6"/>
-        <v>0.126028767791803</v>
+        <v>0.125689741061106</v>
       </c>
       <c r="R14" s="7">
         <f t="shared" si="6"/>
-        <v>0.030367477120215</v>
+        <v>0.0309509900673325</v>
       </c>
       <c r="S14" s="7">
         <f t="shared" si="6"/>
-        <v>0.0291529359259047</v>
+        <v>0.0296863142389294</v>
       </c>
       <c r="T14" s="7">
         <f t="shared" si="6"/>
-        <v>0.0260600126624174</v>
+        <v>0.0265477170506229</v>
       </c>
       <c r="U14" s="7">
         <f t="shared" si="6"/>
-        <v>-1.58780495069541e-16</v>
+        <v>1.00286251612329e-16</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="2:21">
@@ -16402,25 +16393,25 @@
         <v>2.507104</v>
       </c>
       <c r="F18" s="5">
-        <v>2.819842</v>
+        <v>2.819013</v>
       </c>
       <c r="G18" s="5">
-        <v>0.552865</v>
+        <v>0.548909</v>
       </c>
       <c r="H18" s="5">
-        <v>5.71025</v>
+        <v>5.65707</v>
       </c>
       <c r="I18" s="5">
-        <v>57.342883</v>
+        <v>56.201949</v>
       </c>
       <c r="J18" s="5">
-        <v>3.223824</v>
+        <v>3.170643</v>
       </c>
       <c r="K18" s="5">
-        <v>0.552865</v>
+        <v>0.548909</v>
       </c>
       <c r="L18" s="5">
-        <v>0.074355</v>
+        <v>0.073526</v>
       </c>
       <c r="M18" s="5">
         <v>2.477353</v>
@@ -16432,19 +16423,19 @@
         <v>2.507104</v>
       </c>
       <c r="P18" s="5">
-        <v>2.819842</v>
+        <v>2.819013</v>
       </c>
       <c r="Q18" s="5">
-        <v>1.962046</v>
+        <v>1.953182</v>
       </c>
       <c r="R18" s="5">
-        <v>5.932022</v>
+        <v>5.813995</v>
       </c>
       <c r="S18" s="5">
-        <v>0.102141</v>
+        <v>0.104002</v>
       </c>
       <c r="T18" s="5">
-        <v>0.079975</v>
+        <v>0.079146</v>
       </c>
       <c r="U18" s="5">
         <v>2.477353</v>
@@ -16454,79 +16445,79 @@
       <c r="A19" s="4"/>
       <c r="C19" s="8">
         <f>C56</f>
-        <v>91.150104</v>
+        <v>89.766551</v>
       </c>
       <c r="D19" s="5">
         <f>$C$56-D18</f>
-        <v>91.145964</v>
+        <v>89.762411</v>
       </c>
       <c r="E19" s="5">
         <f>D19-E18</f>
-        <v>88.63886</v>
+        <v>87.255307</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ref="F19:U19" si="7">E19-F18</f>
-        <v>85.819018</v>
+        <v>84.436294</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="7"/>
-        <v>85.266153</v>
+        <v>83.887385</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="7"/>
-        <v>79.555903</v>
+        <v>78.230315</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="7"/>
-        <v>22.21302</v>
+        <v>22.028366</v>
       </c>
       <c r="J19" s="5">
         <f t="shared" si="7"/>
-        <v>18.989196</v>
+        <v>18.857723</v>
       </c>
       <c r="K19" s="5">
         <f t="shared" si="7"/>
-        <v>18.436331</v>
+        <v>18.308814</v>
       </c>
       <c r="L19" s="5">
         <f t="shared" si="7"/>
-        <v>18.361976</v>
+        <v>18.235288</v>
       </c>
       <c r="M19" s="5">
         <f t="shared" si="7"/>
-        <v>15.884623</v>
+        <v>15.757935</v>
       </c>
       <c r="N19" s="5">
         <f t="shared" si="7"/>
-        <v>15.880483</v>
+        <v>15.753795</v>
       </c>
       <c r="O19" s="5">
         <f t="shared" si="7"/>
-        <v>13.373379</v>
+        <v>13.246691</v>
       </c>
       <c r="P19" s="5">
         <f t="shared" si="7"/>
-        <v>10.553537</v>
+        <v>10.427678</v>
       </c>
       <c r="Q19" s="5">
         <f t="shared" si="7"/>
-        <v>8.59149099999998</v>
+        <v>8.47449600000001</v>
       </c>
       <c r="R19" s="5">
         <f t="shared" si="7"/>
-        <v>2.65946899999998</v>
+        <v>2.66050100000001</v>
       </c>
       <c r="S19" s="5">
         <f t="shared" si="7"/>
-        <v>2.55732799999998</v>
+        <v>2.55649900000001</v>
       </c>
       <c r="T19" s="5">
         <f t="shared" si="7"/>
-        <v>2.47735299999998</v>
+        <v>2.47735300000001</v>
       </c>
       <c r="U19" s="5">
         <f t="shared" si="7"/>
-        <v>-1.64313007644523e-14</v>
+        <v>7.105427357601e-15</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:21">
@@ -16536,75 +16527,75 @@
       </c>
       <c r="D20" s="7">
         <f>D19/$C$56</f>
-        <v>0.999954580413863</v>
+        <v>0.99995388037132</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" ref="E20:U20" si="8">E19/$C$56</f>
-        <v>0.972449356722621</v>
+        <v>0.972024724443295</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" si="8"/>
-        <v>0.941513111164415</v>
+        <v>0.940620900094513</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="8"/>
-        <v>0.93544767650512</v>
+        <v>0.934506050031932</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="8"/>
-        <v>0.872801011834282</v>
+        <v>0.87148625104244</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="8"/>
-        <v>0.243697143779452</v>
+        <v>0.24539614984205</v>
       </c>
       <c r="J20" s="7">
         <f t="shared" si="8"/>
-        <v>0.208328846229292</v>
+        <v>0.210075164857342</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="8"/>
-        <v>0.202263411569997</v>
+        <v>0.203960314794761</v>
       </c>
       <c r="L20" s="7">
         <f t="shared" si="8"/>
-        <v>0.201447669220432</v>
+        <v>0.203141234645408</v>
       </c>
       <c r="M20" s="7">
         <f t="shared" si="8"/>
-        <v>0.174268841207246</v>
+        <v>0.175543505063484</v>
       </c>
       <c r="N20" s="7">
         <f t="shared" si="8"/>
-        <v>0.17422342162111</v>
+        <v>0.175497385434804</v>
       </c>
       <c r="O20" s="7">
         <f t="shared" si="8"/>
-        <v>0.146718197929867</v>
+        <v>0.147568229506779</v>
       </c>
       <c r="P20" s="7">
         <f t="shared" si="8"/>
-        <v>0.115781952371661</v>
+        <v>0.116164405157997</v>
       </c>
       <c r="Q20" s="7">
         <f t="shared" si="8"/>
-        <v>0.094256513410012</v>
+        <v>0.0944059441472805</v>
       </c>
       <c r="R20" s="7">
         <f t="shared" si="8"/>
-        <v>0.0291768070829627</v>
+        <v>0.0296379995706865</v>
       </c>
       <c r="S20" s="7">
         <f t="shared" si="8"/>
-        <v>0.0280562269023849</v>
+        <v>0.0284794165702101</v>
       </c>
       <c r="T20" s="7">
         <f t="shared" si="8"/>
-        <v>0.0271788280131856</v>
+        <v>0.0275977295819242</v>
       </c>
       <c r="U20" s="7">
         <f t="shared" si="8"/>
-        <v>-1.80266396234198e-16</v>
+        <v>7.91545099866987e-17</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:21">
@@ -16640,25 +16631,25 @@
         <v>1.559359</v>
       </c>
       <c r="F22" s="5">
-        <v>2.555484</v>
+        <v>2.55495</v>
       </c>
       <c r="G22" s="5">
-        <v>0.531767</v>
+        <v>0.529222</v>
       </c>
       <c r="H22" s="5">
-        <v>4.937473</v>
+        <v>4.903259</v>
       </c>
       <c r="I22" s="5">
-        <v>36.727049</v>
+        <v>35.974991</v>
       </c>
       <c r="J22" s="5">
-        <v>3.054837</v>
+        <v>3.020624</v>
       </c>
       <c r="K22" s="5">
-        <v>0.531767</v>
+        <v>0.529222</v>
       </c>
       <c r="L22" s="5">
-        <v>0.476696</v>
+        <v>0.476162</v>
       </c>
       <c r="M22" s="5">
         <v>1.536832</v>
@@ -16670,19 +16661,19 @@
         <v>1.559359</v>
       </c>
       <c r="P22" s="5">
-        <v>2.555484</v>
+        <v>2.55495</v>
       </c>
       <c r="Q22" s="5">
-        <v>1.587904</v>
+        <v>1.582202</v>
       </c>
       <c r="R22" s="5">
-        <v>3.79935</v>
+        <v>3.721551</v>
       </c>
       <c r="S22" s="5">
-        <v>0.055852</v>
+        <v>0.057049</v>
       </c>
       <c r="T22" s="5">
-        <v>0.480951</v>
+        <v>0.480418</v>
       </c>
       <c r="U22" s="5">
         <v>1.536832</v>
@@ -16692,79 +16683,79 @@
       <c r="A23" s="4"/>
       <c r="C23" s="8">
         <f>C57</f>
-        <v>63.493266</v>
+        <v>62.583252</v>
       </c>
       <c r="D23" s="5">
         <f>$C$57-D22</f>
-        <v>63.490131</v>
+        <v>62.580117</v>
       </c>
       <c r="E23" s="5">
         <f>D23-E22</f>
-        <v>61.930772</v>
+        <v>61.020758</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ref="F23:U23" si="9">E23-F22</f>
-        <v>59.375288</v>
+        <v>58.465808</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="9"/>
-        <v>58.843521</v>
+        <v>57.936586</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" si="9"/>
-        <v>53.906048</v>
+        <v>53.033327</v>
       </c>
       <c r="I23" s="5">
         <f t="shared" si="9"/>
-        <v>17.178999</v>
+        <v>17.058336</v>
       </c>
       <c r="J23" s="5">
         <f t="shared" si="9"/>
-        <v>14.124162</v>
+        <v>14.037712</v>
       </c>
       <c r="K23" s="5">
         <f t="shared" si="9"/>
-        <v>13.592395</v>
+        <v>13.50849</v>
       </c>
       <c r="L23" s="5">
         <f t="shared" si="9"/>
-        <v>13.115699</v>
+        <v>13.032328</v>
       </c>
       <c r="M23" s="5">
         <f t="shared" si="9"/>
-        <v>11.578867</v>
+        <v>11.495496</v>
       </c>
       <c r="N23" s="5">
         <f t="shared" si="9"/>
-        <v>11.575732</v>
+        <v>11.492361</v>
       </c>
       <c r="O23" s="5">
         <f t="shared" si="9"/>
-        <v>10.016373</v>
+        <v>9.933002</v>
       </c>
       <c r="P23" s="5">
         <f t="shared" si="9"/>
-        <v>7.46088899999999</v>
+        <v>7.378052</v>
       </c>
       <c r="Q23" s="5">
         <f t="shared" si="9"/>
-        <v>5.87298499999999</v>
+        <v>5.79585</v>
       </c>
       <c r="R23" s="5">
         <f t="shared" si="9"/>
-        <v>2.07363499999999</v>
+        <v>2.074299</v>
       </c>
       <c r="S23" s="5">
         <f t="shared" si="9"/>
-        <v>2.01778299999999</v>
+        <v>2.01725</v>
       </c>
       <c r="T23" s="5">
         <f t="shared" si="9"/>
-        <v>1.53683199999999</v>
+        <v>1.536832</v>
       </c>
       <c r="U23" s="5">
         <f t="shared" si="9"/>
-        <v>-1.06581410364015e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:21">
@@ -16774,75 +16765,75 @@
       </c>
       <c r="D24" s="7">
         <f>D23/$C$57</f>
-        <v>0.999950624685144</v>
+        <v>0.999949906725844</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" ref="E24:U24" si="10">E23/$C$57</f>
-        <v>0.975391185578641</v>
+        <v>0.975033352373571</v>
       </c>
       <c r="F24" s="7">
         <f t="shared" si="10"/>
-        <v>0.935143074857734</v>
+        <v>0.93420853234025</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="10"/>
-        <v>0.926767903229297</v>
+        <v>0.925752244386406</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="10"/>
-        <v>0.849004176285403</v>
+        <v>0.847404462139488</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="10"/>
-        <v>0.27056410990104</v>
+        <v>0.272570303633311</v>
       </c>
       <c r="J24" s="7">
         <f t="shared" si="10"/>
-        <v>0.222451338382877</v>
+        <v>0.224304611080294</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="10"/>
-        <v>0.21407616675444</v>
+        <v>0.215848323126449</v>
       </c>
       <c r="L24" s="7">
         <f t="shared" si="10"/>
-        <v>0.206568346948793</v>
+        <v>0.208239865835032</v>
       </c>
       <c r="M24" s="7">
         <f t="shared" si="10"/>
-        <v>0.182363701372678</v>
+        <v>0.183683264014468</v>
       </c>
       <c r="N24" s="7">
         <f t="shared" si="10"/>
-        <v>0.182314326057821</v>
+        <v>0.183633170740312</v>
       </c>
       <c r="O24" s="7">
         <f t="shared" si="10"/>
-        <v>0.157754886951318</v>
+        <v>0.158716616388039</v>
       </c>
       <c r="P24" s="7">
         <f t="shared" si="10"/>
-        <v>0.117506776230411</v>
+        <v>0.117891796354718</v>
       </c>
       <c r="Q24" s="7">
         <f t="shared" si="10"/>
-        <v>0.0924977618886385</v>
+        <v>0.0926102401965306</v>
       </c>
       <c r="R24" s="7">
         <f t="shared" si="10"/>
-        <v>0.032659132702356</v>
+        <v>0.0331446342865021</v>
       </c>
       <c r="S24" s="7">
         <f t="shared" si="10"/>
-        <v>0.0317794803625315</v>
+        <v>0.0322330645265925</v>
       </c>
       <c r="T24" s="7">
         <f t="shared" si="10"/>
-        <v>0.0242046455761149</v>
+        <v>0.0245566018205638</v>
       </c>
       <c r="U24" s="7">
         <f t="shared" si="10"/>
-        <v>-1.67862542090708e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:21">
@@ -16878,25 +16869,25 @@
         <v>1.853556</v>
       </c>
       <c r="F26" s="5">
-        <v>3.107146</v>
+        <v>3.106308</v>
       </c>
       <c r="G26" s="5">
-        <v>0.652756</v>
+        <v>0.648757</v>
       </c>
       <c r="H26" s="5">
-        <v>6.677778</v>
+        <v>6.62402</v>
       </c>
       <c r="I26" s="5">
-        <v>64.658563</v>
+        <v>62.858627</v>
       </c>
       <c r="J26" s="5">
-        <v>4.054305</v>
+        <v>4.000546</v>
       </c>
       <c r="K26" s="5">
-        <v>0.652756</v>
+        <v>0.648757</v>
       </c>
       <c r="L26" s="5">
-        <v>0.210333</v>
+        <v>0.209495</v>
       </c>
       <c r="M26" s="5">
         <v>1.822165</v>
@@ -16908,19 +16899,19 @@
         <v>1.853556</v>
       </c>
       <c r="P26" s="5">
-        <v>3.107146</v>
+        <v>3.106308</v>
       </c>
       <c r="Q26" s="5">
-        <v>2.178988</v>
+        <v>2.170028</v>
       </c>
       <c r="R26" s="5">
-        <v>6.688817</v>
+        <v>6.502617</v>
       </c>
       <c r="S26" s="5">
-        <v>0.084923</v>
+        <v>0.086804</v>
       </c>
       <c r="T26" s="5">
-        <v>0.216263</v>
+        <v>0.215425</v>
       </c>
       <c r="U26" s="5">
         <v>1.822165</v>
@@ -16931,71 +16922,71 @@
       <c r="B27" s="2"/>
       <c r="C27" s="8">
         <f>C58</f>
-        <v>99.649952</v>
+        <v>97.53787</v>
       </c>
       <c r="D27" s="5">
         <f>$C$58-D26</f>
-        <v>99.645584</v>
+        <v>97.533502</v>
       </c>
       <c r="E27" s="5">
         <f>D27-E26</f>
-        <v>97.792028</v>
+        <v>95.679946</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ref="F27:U27" si="11">E27-F26</f>
-        <v>94.684882</v>
+        <v>92.573638</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="11"/>
-        <v>94.032126</v>
+        <v>91.924881</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" si="11"/>
-        <v>87.354348</v>
+        <v>85.300861</v>
       </c>
       <c r="I27" s="5">
         <f t="shared" si="11"/>
-        <v>22.695785</v>
+        <v>22.442234</v>
       </c>
       <c r="J27" s="5">
         <f t="shared" si="11"/>
-        <v>18.64148</v>
+        <v>18.441688</v>
       </c>
       <c r="K27" s="5">
         <f t="shared" si="11"/>
-        <v>17.988724</v>
+        <v>17.792931</v>
       </c>
       <c r="L27" s="5">
         <f t="shared" si="11"/>
-        <v>17.778391</v>
+        <v>17.583436</v>
       </c>
       <c r="M27" s="5">
         <f t="shared" si="11"/>
-        <v>15.956226</v>
+        <v>15.761271</v>
       </c>
       <c r="N27" s="5">
         <f t="shared" si="11"/>
-        <v>15.951858</v>
+        <v>15.756903</v>
       </c>
       <c r="O27" s="5">
         <f t="shared" si="11"/>
-        <v>14.098302</v>
+        <v>13.903347</v>
       </c>
       <c r="P27" s="5">
         <f t="shared" si="11"/>
-        <v>10.991156</v>
+        <v>10.797039</v>
       </c>
       <c r="Q27" s="5">
         <f t="shared" si="11"/>
-        <v>8.812168</v>
+        <v>8.627011</v>
       </c>
       <c r="R27" s="5">
         <f t="shared" si="11"/>
-        <v>2.123351</v>
+        <v>2.124394</v>
       </c>
       <c r="S27" s="5">
         <f t="shared" si="11"/>
-        <v>2.038428</v>
+        <v>2.03759</v>
       </c>
       <c r="T27" s="5">
         <f t="shared" si="11"/>
@@ -17003,7 +16994,7 @@
       </c>
       <c r="U27" s="5">
         <f t="shared" si="11"/>
-        <v>3.10862446895044e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:21">
@@ -17014,75 +17005,75 @@
       </c>
       <c r="D28" s="7">
         <f>D27/$C$58</f>
-        <v>0.999956166561927</v>
+        <v>0.999955217394023</v>
       </c>
       <c r="E28" s="7">
         <f t="shared" ref="E28:U28" si="12">E27/$C$58</f>
-        <v>0.981355495284132</v>
+        <v>0.980951767759538</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="12"/>
-        <v>0.950174888192621</v>
+        <v>0.949104568307674</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="12"/>
-        <v>0.94362439833388</v>
+        <v>0.942453233805495</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="12"/>
-        <v>0.876612042924015</v>
+        <v>0.874540944968349</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="12"/>
-        <v>0.227755102180079</v>
+        <v>0.230087390671951</v>
       </c>
       <c r="J28" s="7">
         <f t="shared" si="12"/>
-        <v>0.187069633510712</v>
+        <v>0.189072080413485</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="12"/>
-        <v>0.180519143651971</v>
+        <v>0.182420745911306</v>
       </c>
       <c r="L28" s="7">
         <f t="shared" si="12"/>
-        <v>0.178408425123978</v>
+        <v>0.180272913484783</v>
       </c>
       <c r="M28" s="7">
         <f t="shared" si="12"/>
-        <v>0.160122766541824</v>
+        <v>0.161591297821041</v>
       </c>
       <c r="N28" s="7">
         <f t="shared" si="12"/>
-        <v>0.160078933103751</v>
+        <v>0.161546515215065</v>
       </c>
       <c r="O28" s="7">
         <f t="shared" si="12"/>
-        <v>0.141478261825957</v>
+        <v>0.142543065580579</v>
       </c>
       <c r="P28" s="7">
         <f t="shared" si="12"/>
-        <v>0.110297654734445</v>
+        <v>0.110695866128715</v>
       </c>
       <c r="Q28" s="7">
         <f t="shared" si="12"/>
-        <v>0.0884312317581448</v>
+        <v>0.0884478100659774</v>
       </c>
       <c r="R28" s="7">
         <f t="shared" si="12"/>
-        <v>0.0213080985728925</v>
+        <v>0.0217801967584488</v>
       </c>
       <c r="S28" s="7">
         <f t="shared" si="12"/>
-        <v>0.0204558854177873</v>
+        <v>0.0208902449889463</v>
       </c>
       <c r="T28" s="7">
         <f t="shared" si="12"/>
-        <v>0.0182856585821537</v>
+        <v>0.0186816156637417</v>
       </c>
       <c r="U28" s="7">
         <f t="shared" si="12"/>
-        <v>3.11954437163245e-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:21">
@@ -17203,25 +17194,25 @@
         <v>2.507104</v>
       </c>
       <c r="F32" s="5">
-        <v>2.819842</v>
+        <v>2.819013</v>
       </c>
       <c r="G32" s="5">
-        <v>0.552865</v>
+        <v>0.548909</v>
       </c>
       <c r="H32" s="5">
-        <v>5.71025</v>
+        <v>5.65707</v>
       </c>
       <c r="I32" s="5">
-        <v>83.707427</v>
+        <v>82.041926</v>
       </c>
       <c r="J32" s="5">
-        <v>3.223824</v>
+        <v>3.170643</v>
       </c>
       <c r="K32" s="5">
-        <v>0.552865</v>
+        <v>0.548909</v>
       </c>
       <c r="L32" s="5">
-        <v>0.074355</v>
+        <v>0.073526</v>
       </c>
       <c r="M32" s="5">
         <v>2.477353</v>
@@ -17233,19 +17224,19 @@
         <v>2.507104</v>
       </c>
       <c r="P32" s="5">
-        <v>2.819842</v>
+        <v>2.819013</v>
       </c>
       <c r="Q32" s="5">
-        <v>1.962046</v>
+        <v>1.953182</v>
       </c>
       <c r="R32" s="5">
-        <v>5.932022</v>
+        <v>5.813995</v>
       </c>
       <c r="S32" s="5">
-        <v>0.102141</v>
+        <v>0.104002</v>
       </c>
       <c r="T32" s="5">
-        <v>0.079975</v>
+        <v>0.079146</v>
       </c>
       <c r="U32" s="5">
         <v>2.477353</v>
@@ -17255,79 +17246,79 @@
       <c r="A33" s="4"/>
       <c r="C33" s="8">
         <f>C62</f>
-        <v>117.514648</v>
+        <v>115.606528</v>
       </c>
       <c r="D33" s="5">
         <f>$C$62-D32</f>
-        <v>117.510508</v>
+        <v>115.602388</v>
       </c>
       <c r="E33" s="5">
         <f>D33-E32</f>
-        <v>115.003404</v>
+        <v>113.095284</v>
       </c>
       <c r="F33" s="5">
         <f t="shared" ref="F33:U33" si="13">E33-F32</f>
-        <v>112.183562</v>
+        <v>110.276271</v>
       </c>
       <c r="G33" s="5">
         <f t="shared" si="13"/>
-        <v>111.630697</v>
+        <v>109.727362</v>
       </c>
       <c r="H33" s="5">
         <f t="shared" si="13"/>
-        <v>105.920447</v>
+        <v>104.070292</v>
       </c>
       <c r="I33" s="5">
         <f t="shared" si="13"/>
-        <v>22.21302</v>
+        <v>22.028366</v>
       </c>
       <c r="J33" s="5">
         <f t="shared" si="13"/>
-        <v>18.989196</v>
+        <v>18.857723</v>
       </c>
       <c r="K33" s="5">
         <f t="shared" si="13"/>
-        <v>18.436331</v>
+        <v>18.308814</v>
       </c>
       <c r="L33" s="5">
         <f t="shared" si="13"/>
-        <v>18.361976</v>
+        <v>18.235288</v>
       </c>
       <c r="M33" s="5">
         <f t="shared" si="13"/>
-        <v>15.884623</v>
+        <v>15.757935</v>
       </c>
       <c r="N33" s="5">
         <f t="shared" si="13"/>
-        <v>15.880483</v>
+        <v>15.753795</v>
       </c>
       <c r="O33" s="5">
         <f t="shared" si="13"/>
-        <v>13.373379</v>
+        <v>13.246691</v>
       </c>
       <c r="P33" s="5">
         <f t="shared" si="13"/>
-        <v>10.553537</v>
+        <v>10.427678</v>
       </c>
       <c r="Q33" s="5">
         <f t="shared" si="13"/>
-        <v>8.59149099999998</v>
+        <v>8.47449599999999</v>
       </c>
       <c r="R33" s="5">
         <f t="shared" si="13"/>
-        <v>2.65946899999998</v>
+        <v>2.66050099999999</v>
       </c>
       <c r="S33" s="5">
         <f t="shared" si="13"/>
-        <v>2.55732799999998</v>
+        <v>2.55649899999999</v>
       </c>
       <c r="T33" s="5">
         <f t="shared" si="13"/>
-        <v>2.47735299999998</v>
+        <v>2.47735299999999</v>
       </c>
       <c r="U33" s="5">
         <f t="shared" si="13"/>
-        <v>-1.64313007644523e-14</v>
+        <v>-7.105427357601e-15</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:21">
@@ -17337,75 +17328,75 @@
       </c>
       <c r="D34" s="7">
         <f>D33/$C$62</f>
-        <v>0.99996477034931</v>
+        <v>0.999964188873486</v>
       </c>
       <c r="E34" s="7">
         <f t="shared" ref="E34:U34" si="14">E33/$C$62</f>
-        <v>0.978630374657634</v>
+        <v>0.978277662659327</v>
       </c>
       <c r="F34" s="7">
         <f t="shared" si="14"/>
-        <v>0.954634710729849</v>
+        <v>0.953893114063593</v>
       </c>
       <c r="G34" s="7">
         <f t="shared" si="14"/>
-        <v>0.949930063186676</v>
+        <v>0.949145034439578</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" si="14"/>
-        <v>0.901338248487967</v>
+        <v>0.900211206066149</v>
       </c>
       <c r="I34" s="7">
         <f t="shared" si="14"/>
-        <v>0.189023414340653</v>
+        <v>0.190546039061047</v>
       </c>
       <c r="J34" s="7">
         <f t="shared" si="14"/>
-        <v>0.161590034290874</v>
+        <v>0.163119880219913</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="14"/>
-        <v>0.156885386747701</v>
+        <v>0.158371800595897</v>
       </c>
       <c r="L34" s="7">
         <f t="shared" si="14"/>
-        <v>0.156252657115562</v>
+        <v>0.157735798449029</v>
       </c>
       <c r="M34" s="7">
         <f t="shared" si="14"/>
-        <v>0.135171429862939</v>
+        <v>0.136306619294025</v>
       </c>
       <c r="N34" s="7">
         <f t="shared" si="14"/>
-        <v>0.135136200212249</v>
+        <v>0.136270808167511</v>
       </c>
       <c r="O34" s="7">
         <f t="shared" si="14"/>
-        <v>0.113801804520573</v>
+        <v>0.114584281953351</v>
       </c>
       <c r="P34" s="7">
         <f t="shared" si="14"/>
-        <v>0.0898061405927879</v>
+        <v>0.090199733357618</v>
       </c>
       <c r="Q34" s="7">
         <f t="shared" si="14"/>
-        <v>0.073109958173044</v>
+        <v>0.0733046493706652</v>
       </c>
       <c r="R34" s="7">
         <f t="shared" si="14"/>
-        <v>0.0226309574615752</v>
+        <v>0.0230134149517923</v>
       </c>
       <c r="S34" s="7">
         <f t="shared" si="14"/>
-        <v>0.0217617807100948</v>
+        <v>0.0221137944736131</v>
       </c>
       <c r="T34" s="7">
         <f t="shared" si="14"/>
-        <v>0.0210812272526229</v>
+        <v>0.0214291791550041</v>
       </c>
       <c r="U34" s="7">
         <f t="shared" si="14"/>
-        <v>-1.39823426645947e-16</v>
+        <v>-6.14621637767809e-17</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:21">
@@ -17442,25 +17433,25 @@
         <v>1.559359</v>
       </c>
       <c r="F36" s="5">
-        <v>2.555484</v>
+        <v>2.55495</v>
       </c>
       <c r="G36" s="5">
-        <v>0.531767</v>
+        <v>0.529222</v>
       </c>
       <c r="H36" s="5">
-        <v>4.937473</v>
+        <v>4.903259</v>
       </c>
       <c r="I36" s="5">
-        <v>53.613048</v>
+        <v>52.515216</v>
       </c>
       <c r="J36" s="5">
-        <v>3.054837</v>
+        <v>3.020624</v>
       </c>
       <c r="K36" s="5">
-        <v>0.531767</v>
+        <v>0.529222</v>
       </c>
       <c r="L36" s="5">
-        <v>0.476696</v>
+        <v>0.476162</v>
       </c>
       <c r="M36" s="5">
         <v>1.536832</v>
@@ -17472,19 +17463,19 @@
         <v>1.559359</v>
       </c>
       <c r="P36" s="5">
-        <v>2.555484</v>
+        <v>2.55495</v>
       </c>
       <c r="Q36" s="5">
-        <v>1.587904</v>
+        <v>1.582202</v>
       </c>
       <c r="R36" s="5">
-        <v>3.79935</v>
+        <v>3.721551</v>
       </c>
       <c r="S36" s="5">
-        <v>0.055852</v>
+        <v>0.057049</v>
       </c>
       <c r="T36" s="5">
-        <v>0.480951</v>
+        <v>0.480418</v>
       </c>
       <c r="U36" s="5">
         <v>1.536832</v>
@@ -17494,79 +17485,79 @@
       <c r="A37" s="4"/>
       <c r="C37" s="8">
         <f>C63</f>
-        <v>80.379265</v>
+        <v>79.123477</v>
       </c>
       <c r="D37" s="5">
         <f>$C$63-D36</f>
-        <v>80.37613</v>
+        <v>79.120342</v>
       </c>
       <c r="E37" s="5">
         <f>D37-E36</f>
-        <v>78.816771</v>
+        <v>77.560983</v>
       </c>
       <c r="F37" s="5">
         <f t="shared" ref="F37:U37" si="15">E37-F36</f>
-        <v>76.261287</v>
+        <v>75.006033</v>
       </c>
       <c r="G37" s="5">
         <f t="shared" si="15"/>
-        <v>75.72952</v>
+        <v>74.476811</v>
       </c>
       <c r="H37" s="5">
         <f t="shared" si="15"/>
-        <v>70.792047</v>
+        <v>69.573552</v>
       </c>
       <c r="I37" s="5">
         <f t="shared" si="15"/>
-        <v>17.178999</v>
+        <v>17.058336</v>
       </c>
       <c r="J37" s="5">
         <f t="shared" si="15"/>
-        <v>14.124162</v>
+        <v>14.037712</v>
       </c>
       <c r="K37" s="5">
         <f t="shared" si="15"/>
-        <v>13.592395</v>
+        <v>13.50849</v>
       </c>
       <c r="L37" s="5">
         <f t="shared" si="15"/>
-        <v>13.115699</v>
+        <v>13.032328</v>
       </c>
       <c r="M37" s="5">
         <f t="shared" si="15"/>
-        <v>11.578867</v>
+        <v>11.495496</v>
       </c>
       <c r="N37" s="5">
         <f t="shared" si="15"/>
-        <v>11.575732</v>
+        <v>11.492361</v>
       </c>
       <c r="O37" s="5">
         <f t="shared" si="15"/>
-        <v>10.016373</v>
+        <v>9.93300199999997</v>
       </c>
       <c r="P37" s="5">
         <f t="shared" si="15"/>
-        <v>7.46088900000004</v>
+        <v>7.37805199999997</v>
       </c>
       <c r="Q37" s="5">
         <f t="shared" si="15"/>
-        <v>5.87298500000004</v>
+        <v>5.79584999999997</v>
       </c>
       <c r="R37" s="5">
         <f t="shared" si="15"/>
-        <v>2.07363500000004</v>
+        <v>2.07429899999997</v>
       </c>
       <c r="S37" s="5">
         <f t="shared" si="15"/>
-        <v>2.01778300000004</v>
+        <v>2.01724999999997</v>
       </c>
       <c r="T37" s="5">
         <f t="shared" si="15"/>
-        <v>1.53683200000004</v>
+        <v>1.53683199999997</v>
       </c>
       <c r="U37" s="5">
         <f t="shared" si="15"/>
-        <v>3.90798504668055e-14</v>
+        <v>-2.68673971959288e-14</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:21">
@@ -17576,75 +17567,75 @@
       </c>
       <c r="D38" s="7">
         <f>D37/$C$63</f>
-        <v>0.999960997403995</v>
+        <v>0.999960378384282</v>
       </c>
       <c r="E38" s="7">
         <f t="shared" ref="E38:U38" si="16">E37/$C$63</f>
-        <v>0.980560981740751</v>
+        <v>0.980252460341196</v>
       </c>
       <c r="F38" s="7">
         <f t="shared" si="16"/>
-        <v>0.948768155568479</v>
+        <v>0.947961791416219</v>
       </c>
       <c r="G38" s="7">
         <f t="shared" si="16"/>
-        <v>0.942152431973594</v>
+        <v>0.941273232974835</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="16"/>
-        <v>0.880725234300164</v>
+        <v>0.879303522012815</v>
       </c>
       <c r="I38" s="7">
         <f t="shared" si="16"/>
-        <v>0.213724260852597</v>
+        <v>0.21559133454158</v>
       </c>
       <c r="J38" s="7">
         <f t="shared" si="16"/>
-        <v>0.175718974290198</v>
+        <v>0.177415256915466</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="16"/>
-        <v>0.169103250695313</v>
+        <v>0.170726698474082</v>
       </c>
       <c r="L38" s="7">
         <f t="shared" si="16"/>
-        <v>0.163172666483079</v>
+        <v>0.164708737458542</v>
       </c>
       <c r="M38" s="7">
         <f t="shared" si="16"/>
-        <v>0.144052909665198</v>
+        <v>0.145285526317302</v>
       </c>
       <c r="N38" s="7">
         <f t="shared" si="16"/>
-        <v>0.144013907069193</v>
+        <v>0.145245904701584</v>
       </c>
       <c r="O38" s="7">
         <f t="shared" si="16"/>
-        <v>0.124613891405949</v>
+        <v>0.125537986658498</v>
       </c>
       <c r="P38" s="7">
         <f t="shared" si="16"/>
-        <v>0.0928210652336773</v>
+        <v>0.0932473177335214</v>
       </c>
       <c r="Q38" s="7">
         <f t="shared" si="16"/>
-        <v>0.0730659206699643</v>
+        <v>0.0732506990308322</v>
       </c>
       <c r="R38" s="7">
         <f t="shared" si="16"/>
-        <v>0.0257981333867638</v>
+        <v>0.0262159738000388</v>
       </c>
       <c r="S38" s="7">
         <f t="shared" si="16"/>
-        <v>0.0251032775679155</v>
+        <v>0.0254949615017547</v>
       </c>
       <c r="T38" s="7">
         <f t="shared" si="16"/>
-        <v>0.0191197568178813</v>
+        <v>0.0194232111412391</v>
       </c>
       <c r="U38" s="7">
         <f t="shared" si="16"/>
-        <v>4.86193180129297e-16</v>
+        <v>-3.39562898581022e-16</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:21">
@@ -17681,25 +17672,25 @@
         <v>1.853556</v>
       </c>
       <c r="F40" s="5">
-        <v>3.107146</v>
+        <v>3.106308</v>
       </c>
       <c r="G40" s="5">
-        <v>0.652756</v>
+        <v>0.648757</v>
       </c>
       <c r="H40" s="5">
-        <v>6.677778</v>
+        <v>6.62402</v>
       </c>
       <c r="I40" s="5">
-        <v>94.386638</v>
+        <v>91.759145</v>
       </c>
       <c r="J40" s="5">
-        <v>4.054305</v>
+        <v>4.000546</v>
       </c>
       <c r="K40" s="5">
-        <v>0.652756</v>
+        <v>0.648757</v>
       </c>
       <c r="L40" s="5">
-        <v>0.210333</v>
+        <v>0.209495</v>
       </c>
       <c r="M40" s="5">
         <v>1.822165</v>
@@ -17711,19 +17702,19 @@
         <v>1.853556</v>
       </c>
       <c r="P40" s="5">
-        <v>3.107146</v>
+        <v>3.106308</v>
       </c>
       <c r="Q40" s="5">
-        <v>2.178988</v>
+        <v>2.170028</v>
       </c>
       <c r="R40" s="5">
-        <v>6.688817</v>
+        <v>6.502617</v>
       </c>
       <c r="S40" s="5">
-        <v>0.084923</v>
+        <v>0.086804</v>
       </c>
       <c r="T40" s="5">
-        <v>0.216263</v>
+        <v>0.215425</v>
       </c>
       <c r="U40" s="5">
         <v>1.822165</v>
@@ -17734,71 +17725,71 @@
       <c r="B41" s="2"/>
       <c r="C41" s="8">
         <f>C64</f>
-        <v>129.378027</v>
+        <v>126.438388</v>
       </c>
       <c r="D41" s="5">
         <f>$C$64-D40</f>
-        <v>129.373659</v>
+        <v>126.43402</v>
       </c>
       <c r="E41" s="5">
         <f>D41-E40</f>
-        <v>127.520103</v>
+        <v>124.580464</v>
       </c>
       <c r="F41" s="5">
         <f t="shared" ref="F41:U41" si="17">E41-F40</f>
-        <v>124.412957</v>
+        <v>121.474156</v>
       </c>
       <c r="G41" s="5">
         <f t="shared" si="17"/>
-        <v>123.760201</v>
+        <v>120.825399</v>
       </c>
       <c r="H41" s="5">
         <f t="shared" si="17"/>
-        <v>117.082423</v>
+        <v>114.201379</v>
       </c>
       <c r="I41" s="5">
         <f t="shared" si="17"/>
-        <v>22.695785</v>
+        <v>22.442234</v>
       </c>
       <c r="J41" s="5">
         <f t="shared" si="17"/>
-        <v>18.64148</v>
+        <v>18.441688</v>
       </c>
       <c r="K41" s="5">
         <f t="shared" si="17"/>
-        <v>17.988724</v>
+        <v>17.792931</v>
       </c>
       <c r="L41" s="5">
         <f t="shared" si="17"/>
-        <v>17.778391</v>
+        <v>17.583436</v>
       </c>
       <c r="M41" s="5">
         <f t="shared" si="17"/>
-        <v>15.956226</v>
+        <v>15.761271</v>
       </c>
       <c r="N41" s="5">
         <f t="shared" si="17"/>
-        <v>15.951858</v>
+        <v>15.756903</v>
       </c>
       <c r="O41" s="5">
         <f t="shared" si="17"/>
-        <v>14.098302</v>
+        <v>13.903347</v>
       </c>
       <c r="P41" s="5">
         <f t="shared" si="17"/>
-        <v>10.991156</v>
+        <v>10.797039</v>
       </c>
       <c r="Q41" s="5">
         <f t="shared" si="17"/>
-        <v>8.812168</v>
+        <v>8.627011</v>
       </c>
       <c r="R41" s="5">
         <f t="shared" si="17"/>
-        <v>2.123351</v>
+        <v>2.124394</v>
       </c>
       <c r="S41" s="5">
         <f t="shared" si="17"/>
-        <v>2.038428</v>
+        <v>2.03759</v>
       </c>
       <c r="T41" s="5">
         <f t="shared" si="17"/>
@@ -17806,7 +17797,7 @@
       </c>
       <c r="U41" s="5">
         <f t="shared" si="17"/>
-        <v>3.10862446895044e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:21">
@@ -17817,75 +17808,75 @@
       </c>
       <c r="D42" s="7">
         <f>D41/$C$64</f>
-        <v>0.999966238471081</v>
+        <v>0.999965453529825</v>
       </c>
       <c r="E42" s="7">
         <f t="shared" ref="E42:U42" si="18">E41/$C$64</f>
-        <v>0.985639570775028</v>
+        <v>0.985305696874275</v>
       </c>
       <c r="F42" s="7">
         <f t="shared" si="18"/>
-        <v>0.9616235452408</v>
+        <v>0.960737936646266</v>
       </c>
       <c r="G42" s="7">
         <f t="shared" si="18"/>
-        <v>0.956578206282277</v>
+        <v>0.955606923745342</v>
       </c>
       <c r="H42" s="7">
         <f t="shared" si="18"/>
-        <v>0.904963738548896</v>
+        <v>0.903217612992662</v>
       </c>
       <c r="I42" s="7">
         <f t="shared" si="18"/>
-        <v>0.17542225311567</v>
+        <v>0.177495413813722</v>
       </c>
       <c r="J42" s="7">
         <f t="shared" si="18"/>
-        <v>0.144085363119659</v>
+        <v>0.145855133806356</v>
       </c>
       <c r="K42" s="7">
         <f t="shared" si="18"/>
-        <v>0.139040024161135</v>
+        <v>0.140724120905433</v>
       </c>
       <c r="L42" s="7">
         <f t="shared" si="18"/>
-        <v>0.137414299879531</v>
+        <v>0.139067226956421</v>
       </c>
       <c r="M42" s="7">
         <f t="shared" si="18"/>
-        <v>0.123330262255429</v>
+        <v>0.124655741419291</v>
       </c>
       <c r="N42" s="7">
         <f t="shared" si="18"/>
-        <v>0.123296500726511</v>
+        <v>0.124621194949116</v>
       </c>
       <c r="O42" s="7">
         <f t="shared" si="18"/>
-        <v>0.108969833030457</v>
+        <v>0.109961438293566</v>
       </c>
       <c r="P42" s="7">
         <f t="shared" si="18"/>
-        <v>0.0849538074962297</v>
+        <v>0.0853936780655571</v>
       </c>
       <c r="Q42" s="7">
         <f t="shared" si="18"/>
-        <v>0.068111782227132</v>
+        <v>0.0682309473923378</v>
       </c>
       <c r="R42" s="7">
         <f t="shared" si="18"/>
-        <v>0.0164119908862113</v>
+        <v>0.0168018118041809</v>
       </c>
       <c r="S42" s="7">
         <f t="shared" si="18"/>
-        <v>0.0157555965820997</v>
+        <v>0.0161152797993597</v>
       </c>
       <c r="T42" s="7">
         <f t="shared" si="18"/>
-        <v>0.0140840376241014</v>
+        <v>0.0144114855371298</v>
       </c>
       <c r="U42" s="7">
         <f t="shared" si="18"/>
-        <v>2.40274530461841e-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:21">
@@ -17923,7 +17914,7 @@
         <v>20</v>
       </c>
       <c r="C50" s="9">
-        <v>64.78556</v>
+        <v>63.926575</v>
       </c>
     </row>
     <row r="51" spans="2:3">
@@ -17931,7 +17922,7 @@
         <v>21</v>
       </c>
       <c r="C51" s="8">
-        <v>46.607266</v>
+        <v>46.043026</v>
       </c>
     </row>
     <row r="52" spans="2:3">
@@ -17939,7 +17930,7 @@
         <v>22</v>
       </c>
       <c r="C52" s="8">
-        <v>69.921877</v>
+        <v>68.637352</v>
       </c>
     </row>
     <row r="53" spans="3:3">
@@ -17961,7 +17952,7 @@
         <v>20</v>
       </c>
       <c r="C56" s="8">
-        <v>91.150104</v>
+        <v>89.766551</v>
       </c>
     </row>
     <row r="57" spans="2:3">
@@ -17969,7 +17960,7 @@
         <v>21</v>
       </c>
       <c r="C57" s="8">
-        <v>63.493266</v>
+        <v>62.583252</v>
       </c>
     </row>
     <row r="58" spans="2:3">
@@ -17977,7 +17968,7 @@
         <v>22</v>
       </c>
       <c r="C58" s="8">
-        <v>99.649952</v>
+        <v>97.53787</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -17999,7 +17990,7 @@
         <v>20</v>
       </c>
       <c r="C62" s="8">
-        <v>117.514648</v>
+        <v>115.606528</v>
       </c>
     </row>
     <row r="63" spans="2:3">
@@ -18007,7 +17998,7 @@
         <v>21</v>
       </c>
       <c r="C63" s="8">
-        <v>80.379265</v>
+        <v>79.123477</v>
       </c>
     </row>
     <row r="64" spans="2:3">
@@ -18015,7 +18006,7 @@
         <v>22</v>
       </c>
       <c r="C64" s="8">
-        <v>129.378027</v>
+        <v>126.438388</v>
       </c>
     </row>
     <row r="65" spans="4:4">

--- a/analysis/cfg-case-study/result-summary/energy-analysis/energy_SOC_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/energy-analysis/energy_SOC_1500_3000_ft.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12240" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1500 ft" sheetId="1" r:id="rId1"/>
@@ -1021,61 +1021,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>63.926575</c:v>
+                  <c:v>63.933537</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.922435</c:v>
+                  <c:v>63.929397</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.415331</c:v>
+                  <c:v>61.274119</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.596318</c:v>
+                  <c:v>58.455106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58.047409</c:v>
+                  <c:v>57.906197</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.390339</c:v>
+                  <c:v>52.249127</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.028366</c:v>
+                  <c:v>21.887154</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.857723</c:v>
+                  <c:v>18.716511</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.308814</c:v>
+                  <c:v>18.167602</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.235288</c:v>
+                  <c:v>18.094076</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.757935</c:v>
+                  <c:v>15.761416</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.753795</c:v>
+                  <c:v>15.757276</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.246691</c:v>
+                  <c:v>13.101998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.427678</c:v>
+                  <c:v>10.282985</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.47449600000001</c:v>
+                  <c:v>8.329803</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.66050100000001</c:v>
+                  <c:v>2.515808</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.55649900000001</c:v>
+                  <c:v>2.411806</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.47735300000001</c:v>
+                  <c:v>2.33266</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.105427357601e-15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1184,61 +1184,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>46.043026</c:v>
+                  <c:v>46.04735</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.039891</c:v>
+                  <c:v>46.044215</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44.480532</c:v>
+                  <c:v>44.394838</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.925582</c:v>
+                  <c:v>41.839888</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.39636</c:v>
+                  <c:v>41.310666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.493101</c:v>
+                  <c:v>36.407407</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.058336</c:v>
+                  <c:v>16.972642</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.037712</c:v>
+                  <c:v>13.952018</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.50849</c:v>
+                  <c:v>13.422796</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.032328</c:v>
+                  <c:v>12.946634</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.495496</c:v>
+                  <c:v>11.497658</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.492361</c:v>
+                  <c:v>11.494523</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.933002</c:v>
+                  <c:v>9.84514600000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.378052</c:v>
+                  <c:v>7.29019600000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.79585</c:v>
+                  <c:v>5.70799400000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.074299</c:v>
+                  <c:v>1.98644300000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.01725</c:v>
+                  <c:v>1.92939400000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.536832</c:v>
+                  <c:v>1.44897600000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>6.66133814775094e-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1347,61 +1347,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>68.637352</c:v>
+                  <c:v>68.642486</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.632984</c:v>
+                  <c:v>68.638118</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66.779428</c:v>
+                  <c:v>66.680019</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63.67312</c:v>
+                  <c:v>63.573711</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.024363</c:v>
+                  <c:v>62.924954</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56.400343</c:v>
+                  <c:v>56.300934</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.442234</c:v>
+                  <c:v>22.342825</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.441688</c:v>
+                  <c:v>18.342279</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.792931</c:v>
+                  <c:v>17.693522</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.583436</c:v>
+                  <c:v>17.484027</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.761271</c:v>
+                  <c:v>15.763838</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.756903</c:v>
+                  <c:v>15.75947</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.903347</c:v>
+                  <c:v>13.801371</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.797039</c:v>
+                  <c:v>10.695063</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.62701100000001</c:v>
+                  <c:v>8.52503499999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.12439400000001</c:v>
+                  <c:v>2.02241799999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.03759000000001</c:v>
+                  <c:v>1.93561399999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.82216500000001</c:v>
+                  <c:v>1.72018899999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.88338275267597e-15</c:v>
+                  <c:v>-1.68753899743024e-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1510,61 +1510,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>89.766551</c:v>
+                  <c:v>89.773513</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.762411</c:v>
+                  <c:v>89.769373</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87.255307</c:v>
+                  <c:v>87.114095</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84.436294</c:v>
+                  <c:v>84.295082</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83.887385</c:v>
+                  <c:v>83.746173</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>78.230315</c:v>
+                  <c:v>78.089103</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.028366</c:v>
+                  <c:v>21.887154</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.857723</c:v>
+                  <c:v>18.716511</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.308814</c:v>
+                  <c:v>18.167602</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.235288</c:v>
+                  <c:v>18.094076</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.757935</c:v>
+                  <c:v>15.761416</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.753795</c:v>
+                  <c:v>15.757276</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.246691</c:v>
+                  <c:v>13.101998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.427678</c:v>
+                  <c:v>10.282985</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.47449600000001</c:v>
+                  <c:v>8.329803</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.66050100000001</c:v>
+                  <c:v>2.515808</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.55649900000001</c:v>
+                  <c:v>2.411806</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.47735300000001</c:v>
+                  <c:v>2.33266</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.105427357601e-15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1673,61 +1673,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>62.583252</c:v>
+                  <c:v>62.587576</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.580117</c:v>
+                  <c:v>62.584441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.020758</c:v>
+                  <c:v>60.935064</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.465808</c:v>
+                  <c:v>58.380114</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.936586</c:v>
+                  <c:v>57.850892</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.033327</c:v>
+                  <c:v>52.947633</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.058336</c:v>
+                  <c:v>16.972642</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.037712</c:v>
+                  <c:v>13.952018</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.50849</c:v>
+                  <c:v>13.422796</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.032328</c:v>
+                  <c:v>12.946634</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.495496</c:v>
+                  <c:v>11.497658</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.492361</c:v>
+                  <c:v>11.494523</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.933002</c:v>
+                  <c:v>9.84514600000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.378052</c:v>
+                  <c:v>7.29019600000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.79585</c:v>
+                  <c:v>5.70799400000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.074299</c:v>
+                  <c:v>1.98644300000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.01725</c:v>
+                  <c:v>1.92939400000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.536832</c:v>
+                  <c:v>1.44897600000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>6.66133814775094e-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1836,61 +1836,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>97.53787</c:v>
+                  <c:v>97.543004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.533502</c:v>
+                  <c:v>97.538636</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95.679946</c:v>
+                  <c:v>95.580537</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.573638</c:v>
+                  <c:v>92.474229</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.924881</c:v>
+                  <c:v>91.825472</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85.300861</c:v>
+                  <c:v>85.201452</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.442234</c:v>
+                  <c:v>22.342825</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.441688</c:v>
+                  <c:v>18.342279</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.792931</c:v>
+                  <c:v>17.693522</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.583436</c:v>
+                  <c:v>17.484027</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.761271</c:v>
+                  <c:v>15.763838</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.756903</c:v>
+                  <c:v>15.75947</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.903347</c:v>
+                  <c:v>13.801371</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.797039</c:v>
+                  <c:v>10.695063</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.627011</c:v>
+                  <c:v>8.525035</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.124394</c:v>
+                  <c:v>2.022418</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.03759</c:v>
+                  <c:v>1.935614</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.822165</c:v>
+                  <c:v>1.720189</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>4.44089209850063e-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2001,61 +2001,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>115.606528</c:v>
+                  <c:v>115.61349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115.602388</c:v>
+                  <c:v>115.60935</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113.095284</c:v>
+                  <c:v>112.954072</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110.276271</c:v>
+                  <c:v>110.135059</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>109.727362</c:v>
+                  <c:v>109.58615</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>104.070292</c:v>
+                  <c:v>103.92908</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.028366</c:v>
+                  <c:v>21.887154</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.857723</c:v>
+                  <c:v>18.716511</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.308814</c:v>
+                  <c:v>18.167602</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.235288</c:v>
+                  <c:v>18.094076</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.757935</c:v>
+                  <c:v>15.761416</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.753795</c:v>
+                  <c:v>15.757276</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.246691</c:v>
+                  <c:v>13.101998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.427678</c:v>
+                  <c:v>10.282985</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.47449599999999</c:v>
+                  <c:v>8.329803</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.66050099999999</c:v>
+                  <c:v>2.515808</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.55649899999999</c:v>
+                  <c:v>2.411806</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.47735299999999</c:v>
+                  <c:v>2.33266</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-7.105427357601e-15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2166,61 +2166,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>79.123477</c:v>
+                  <c:v>79.127801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79.120342</c:v>
+                  <c:v>79.124666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.560983</c:v>
+                  <c:v>77.475289</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.006033</c:v>
+                  <c:v>74.920339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74.476811</c:v>
+                  <c:v>74.391117</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69.573552</c:v>
+                  <c:v>69.487858</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.058336</c:v>
+                  <c:v>16.972642</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.037712</c:v>
+                  <c:v>13.952018</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.50849</c:v>
+                  <c:v>13.422796</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.032328</c:v>
+                  <c:v>12.946634</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.495496</c:v>
+                  <c:v>11.497658</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.492361</c:v>
+                  <c:v>11.494523</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.93300199999997</c:v>
+                  <c:v>9.845146</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.37805199999997</c:v>
+                  <c:v>7.290196</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.79584999999997</c:v>
+                  <c:v>5.707994</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.07429899999997</c:v>
+                  <c:v>1.986443</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.01724999999997</c:v>
+                  <c:v>1.929394</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.53683199999997</c:v>
+                  <c:v>1.448976</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-2.68673971959288e-14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2331,61 +2331,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>126.438388</c:v>
+                  <c:v>126.443522</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>126.43402</c:v>
+                  <c:v>126.439154</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>124.580464</c:v>
+                  <c:v>124.481055</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>121.474156</c:v>
+                  <c:v>121.374747</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>120.825399</c:v>
+                  <c:v>120.72599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>114.201379</c:v>
+                  <c:v>114.10197</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.442234</c:v>
+                  <c:v>22.342825</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.441688</c:v>
+                  <c:v>18.342279</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.792931</c:v>
+                  <c:v>17.693522</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.583436</c:v>
+                  <c:v>17.484027</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.761271</c:v>
+                  <c:v>15.763838</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.756903</c:v>
+                  <c:v>15.75947</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.903347</c:v>
+                  <c:v>13.801371</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.797039</c:v>
+                  <c:v>10.695063</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.627011</c:v>
+                  <c:v>8.525035</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.124394</c:v>
+                  <c:v>2.022418</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.03759</c:v>
+                  <c:v>1.935614</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.822165</c:v>
+                  <c:v>1.720189</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>4.44089209850063e-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2866,58 +2866,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.999935238201014</c:v>
+                  <c:v>0.999935245253207</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.960716744170949</c:v>
+                  <c:v>0.958403396327033</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.91661907430517</c:v>
+                  <c:v>0.914310528447691</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.908032520121718</c:v>
+                  <c:v>0.905724909291347</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.819539276114824</c:v>
+                  <c:v>0.817241301697417</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.344588553352029</c:v>
+                  <c:v>0.342342298377767</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.294990354168044</c:v>
+                  <c:v>0.292749500156702</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.286403799984592</c:v>
+                  <c:v>0.284163881000358</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.285253636691783</c:v>
+                  <c:v>0.283013842953816</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.246500535966458</c:v>
+                  <c:v>0.246528140622034</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.246435774167473</c:v>
+                  <c:v>0.246463385875241</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.207217280137408</c:v>
+                  <c:v>0.204931536949066</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.163119610271628</c:v>
+                  <c:v>0.160838669069725</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.132566088516396</c:v>
+                  <c:v>0.130288474419928</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.0416180751119547</c:v>
+                  <c:v>0.0393503647389319</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0399911773781093</c:v>
+                  <c:v>0.0377236441650334</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0387531007253244</c:v>
+                  <c:v>0.0364857023317824</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>1.1114982083118e-16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3029,58 +3029,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.999931911512506</c:v>
+                  <c:v>0.999931917906242</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.966064480644691</c:v>
+                  <c:v>0.96411276653271</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.910573992248033</c:v>
+                  <c:v>0.908627488878296</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.899079917119261</c:v>
+                  <c:v>0.897134493081578</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.792586938139122</c:v>
+                  <c:v>0.790651514147937</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.370486857227846</c:v>
+                  <c:v>0.36859106984441</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.30488248100809</c:v>
+                  <c:v>0.302992854094753</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.293388405879318</c:v>
+                  <c:v>0.291499858298035</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.283046731116239</c:v>
+                  <c:v>0.281159154652765</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.249668560011673</c:v>
+                  <c:v>0.249692066970195</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.249600471524178</c:v>
+                  <c:v>0.249623984876437</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.215733040656364</c:v>
+                  <c:v>0.213804833502905</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.160242552259706</c:v>
+                  <c:v>0.158319555848491</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.125878998482854</c:v>
+                  <c:v>0.12395922892414</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.0450513178695076</c:v>
+                  <c:v>0.0431391383000326</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0438122811476379</c:v>
+                  <c:v>0.0419002179278505</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0333781711045664</c:v>
+                  <c:v>0.0314670876825704</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>0</c:v>
+                  <c:v>1.44662790535198e-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3192,58 +3192,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.9999363611813</c:v>
+                  <c:v>0.999936365941059</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.972931298398575</c:v>
+                  <c:v>0.971410315762748</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.927674482547054</c:v>
+                  <c:v>0.926156884819119</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.91822252991345</c:v>
+                  <c:v>0.916705639128513</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.821715018959356</c:v>
+                  <c:v>0.820205346292382</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.326968237352746</c:v>
+                  <c:v>0.325495568444301</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.268682975998258</c:v>
+                  <c:v>0.267214666438508</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.259231023364654</c:v>
+                  <c:v>0.257763420747902</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.256178822283237</c:v>
+                  <c:v>0.254711447950763</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.229631105232615</c:v>
+                  <c:v>0.229651327022159</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.229567466413914</c:v>
+                  <c:v>0.229587692963218</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.202562403631189</c:v>
+                  <c:v>0.201061642784907</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.157305587779669</c:v>
+                  <c:v>0.155808211841278</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.125689741061106</c:v>
+                  <c:v>0.124194729777124</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.0309509900673325</c:v>
+                  <c:v>0.0294630646098683</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0296863142389294</c:v>
+                  <c:v>0.0281984833707798</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0265477170506229</c:v>
+                  <c:v>0.0250601209286037</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>1.00286251612329e-16</c:v>
+                  <c:v>-2.45844679551705e-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3355,58 +3355,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.99995388037132</c:v>
+                  <c:v>0.99995388394793</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.972024724443295</c:v>
+                  <c:v>0.970376362569213</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.940620900094513</c:v>
+                  <c:v>0.938974973609421</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.934506050031932</c:v>
+                  <c:v>0.932860597757826</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.87148625104244</c:v>
+                  <c:v>0.86984568599872</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.24539614984205</c:v>
+                  <c:v>0.243804138532487</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.210075164857342</c:v>
+                  <c:v>0.208485892715371</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.203960314794761</c:v>
+                  <c:v>0.202371516863777</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.203141234645408</c:v>
+                  <c:v>0.201552500234674</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.175543505063484</c:v>
+                  <c:v>0.175568666896215</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.175497385434804</c:v>
+                  <c:v>0.175522550844145</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.147568229506779</c:v>
+                  <c:v>0.145945029465428</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.116164405157997</c:v>
+                  <c:v>0.114543640505636</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.0944059441472805</c:v>
+                  <c:v>0.0927868668790983</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.0296379995706865</c:v>
+                  <c:v>0.0280239451028278</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0284794165702101</c:v>
+                  <c:v>0.0268654519512899</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0275977295819242</c:v>
+                  <c:v>0.0259838333384592</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>7.91545099866987e-17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3518,58 +3518,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.999949906725844</c:v>
+                  <c:v>0.999949910186648</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.975033352373571</c:v>
+                  <c:v>0.973596804579874</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.93420853234025</c:v>
+                  <c:v>0.932774805018811</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.925752244386406</c:v>
+                  <c:v>0.924319101286172</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.847404462139488</c:v>
+                  <c:v>0.845976731867679</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.272570303633311</c:v>
+                  <c:v>0.271182287040482</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.224304611080294</c:v>
+                  <c:v>0.222919929028726</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.215848323126449</c:v>
+                  <c:v>0.214464225296088</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.208239865835032</c:v>
+                  <c:v>0.206856293651635</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.183683264014468</c:v>
+                  <c:v>0.183705117450147</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.183633170740312</c:v>
+                  <c:v>0.183655027636795</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.158716616388039</c:v>
+                  <c:v>0.157301922030021</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.117891796354718</c:v>
+                  <c:v>0.116479922468958</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.0926102401965306</c:v>
+                  <c:v>0.0912001129425432</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.0331446342865021</c:v>
+                  <c:v>0.0317386153443617</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0322330645265925</c:v>
+                  <c:v>0.0308271085622489</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0245566018205638</c:v>
+                  <c:v>0.0231511762014878</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>0</c:v>
+                  <c:v>1.06432275756309e-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3681,58 +3681,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.999955217394023</c:v>
+                  <c:v>0.999955219751075</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.980951767759538</c:v>
+                  <c:v>0.979881007150446</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.949104568307674</c:v>
+                  <c:v>0.948035483918457</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.942453233805495</c:v>
+                  <c:v>0.941384499497268</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.874540944968349</c:v>
+                  <c:v>0.873475785100898</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.230087390671951</c:v>
+                  <c:v>0.229056150454419</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.189072080413485</c:v>
+                  <c:v>0.188042998962796</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.182420745911306</c:v>
+                  <c:v>0.181392014541607</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.180272913484783</c:v>
+                  <c:v>0.179244295162368</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.161591297821041</c:v>
+                  <c:v>0.161609109352425</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.161546515215065</c:v>
+                  <c:v>0.1615643291035</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.142543065580579</c:v>
+                  <c:v>0.141490116502871</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.110695866128715</c:v>
+                  <c:v>0.109644593270882</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.0884478100659774</c:v>
+                  <c:v>0.0873977081944288</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.0217801967584488</c:v>
+                  <c:v>0.0207336038164255</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0208902449889463</c:v>
+                  <c:v>0.0198436988879285</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0186816156637417</c:v>
+                  <c:v>0.0176351858099429</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>0</c:v>
+                  <c:v>4.5527530590514e-17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3846,58 +3846,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.999964188873486</c:v>
+                  <c:v>0.999964191029957</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.978277662659327</c:v>
+                  <c:v>0.976997338286389</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.953893114063593</c:v>
+                  <c:v>0.952614258076631</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.949145034439578</c:v>
+                  <c:v>0.947866464371934</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.900211206066149</c:v>
+                  <c:v>0.898935582690221</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.190546039061047</c:v>
+                  <c:v>0.189313150221484</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.163119880219913</c:v>
+                  <c:v>0.161888642925665</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.158371800595897</c:v>
+                  <c:v>0.157140849220969</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.157735798449029</c:v>
+                  <c:v>0.156504885372806</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.136306619294025</c:v>
+                  <c:v>0.136328520140686</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.136270808167511</c:v>
+                  <c:v>0.136292711170643</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.114584281953351</c:v>
+                  <c:v>0.113325858427075</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.090199733357618</c:v>
+                  <c:v>0.088942778217317</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.0733046493706652</c:v>
+                  <c:v>0.0720487116166115</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.0230134149517923</c:v>
+                  <c:v>0.0217605056295766</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0221137944736131</c:v>
+                  <c:v>0.0208609393246411</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0214291791550041</c:v>
+                  <c:v>0.0201763652321195</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>-6.14621637767809e-17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4011,58 +4011,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.999960378384282</c:v>
+                  <c:v>0.999960380549435</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.980252460341196</c:v>
+                  <c:v>0.979115911486028</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.947961791416219</c:v>
+                  <c:v>0.946827007109676</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.941273232974835</c:v>
+                  <c:v>0.94013881416975</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.879303522012815</c:v>
+                  <c:v>0.878172489590605</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.21559133454158</c:v>
+                  <c:v>0.21449657118615</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.177415256915466</c:v>
+                  <c:v>0.17632257972138</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.170726698474082</c:v>
+                  <c:v>0.169634386781455</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.164708737458542</c:v>
+                  <c:v>0.163616754622057</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.145285526317302</c:v>
+                  <c:v>0.145304909964577</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.145245904701584</c:v>
+                  <c:v>0.145265290514013</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.125537986658498</c:v>
+                  <c:v>0.124420821450605</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.0932473177335214</c:v>
+                  <c:v>0.0921319170742531</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.0732506990308322</c:v>
+                  <c:v>0.0721363911022878</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.0262159738000388</c:v>
+                  <c:v>0.0251042361205008</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0254949615017547</c:v>
+                  <c:v>0.0243832632224924</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0194232111412391</c:v>
+                  <c:v>0.0183118446574801</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>-3.39562898581022e-16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4176,58 +4176,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.999965453529825</c:v>
+                  <c:v>0.999965454932519</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.985305696874275</c:v>
+                  <c:v>0.984479497494541</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.960737936646266</c:v>
+                  <c:v>0.959912734793958</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.955606923745342</c:v>
+                  <c:v>0.954781930228106</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.903217612992662</c:v>
+                  <c:v>0.902394746644276</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.177495413813722</c:v>
+                  <c:v>0.176702014042285</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.145855133806356</c:v>
+                  <c:v>0.145063018728631</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.140724120905433</c:v>
+                  <c:v>0.139932214162779</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.139067226956421</c:v>
+                  <c:v>0.138275387488811</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.124655741419291</c:v>
+                  <c:v>0.12467098156282</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.124621194949116</c:v>
+                  <c:v>0.124636436495339</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.109961438293566</c:v>
+                  <c:v>0.109150479057361</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.0853936780655571</c:v>
+                  <c:v>0.0845837163567779</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.0682309473923378</c:v>
+                  <c:v>0.0674216825437685</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.0168018118041809</c:v>
+                  <c:v>0.0159946351383664</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0161152797993597</c:v>
+                  <c:v>0.0153081310088784</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0144114855371298</c:v>
+                  <c:v>0.0136044059259912</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>0</c:v>
+                  <c:v>3.51215469820639e-17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4699,61 +4699,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>63.926575</c:v>
+                  <c:v>63.933537</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.922435</c:v>
+                  <c:v>63.929397</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.415331</c:v>
+                  <c:v>61.274119</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.596318</c:v>
+                  <c:v>58.455106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58.047409</c:v>
+                  <c:v>57.906197</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.390339</c:v>
+                  <c:v>52.249127</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.028366</c:v>
+                  <c:v>21.887154</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.857723</c:v>
+                  <c:v>18.716511</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.308814</c:v>
+                  <c:v>18.167602</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.235288</c:v>
+                  <c:v>18.094076</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.757935</c:v>
+                  <c:v>15.761416</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.753795</c:v>
+                  <c:v>15.757276</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.246691</c:v>
+                  <c:v>13.101998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.427678</c:v>
+                  <c:v>10.282985</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.47449600000001</c:v>
+                  <c:v>8.329803</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.66050100000001</c:v>
+                  <c:v>2.515808</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.55649900000001</c:v>
+                  <c:v>2.411806</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.47735300000001</c:v>
+                  <c:v>2.33266</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.105427357601e-15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4862,61 +4862,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>89.766551</c:v>
+                  <c:v>89.773513</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.762411</c:v>
+                  <c:v>89.769373</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87.255307</c:v>
+                  <c:v>87.114095</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84.436294</c:v>
+                  <c:v>84.295082</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83.887385</c:v>
+                  <c:v>83.746173</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>78.230315</c:v>
+                  <c:v>78.089103</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.028366</c:v>
+                  <c:v>21.887154</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.857723</c:v>
+                  <c:v>18.716511</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.308814</c:v>
+                  <c:v>18.167602</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.235288</c:v>
+                  <c:v>18.094076</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.757935</c:v>
+                  <c:v>15.761416</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.753795</c:v>
+                  <c:v>15.757276</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.246691</c:v>
+                  <c:v>13.101998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.427678</c:v>
+                  <c:v>10.282985</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.47449600000001</c:v>
+                  <c:v>8.329803</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.66050100000001</c:v>
+                  <c:v>2.515808</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.55649900000001</c:v>
+                  <c:v>2.411806</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.47735300000001</c:v>
+                  <c:v>2.33266</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.105427357601e-15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5027,61 +5027,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>115.606528</c:v>
+                  <c:v>115.61349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115.602388</c:v>
+                  <c:v>115.60935</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113.095284</c:v>
+                  <c:v>112.954072</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110.276271</c:v>
+                  <c:v>110.135059</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>109.727362</c:v>
+                  <c:v>109.58615</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>104.070292</c:v>
+                  <c:v>103.92908</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.028366</c:v>
+                  <c:v>21.887154</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.857723</c:v>
+                  <c:v>18.716511</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.308814</c:v>
+                  <c:v>18.167602</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.235288</c:v>
+                  <c:v>18.094076</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.757935</c:v>
+                  <c:v>15.761416</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.753795</c:v>
+                  <c:v>15.757276</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.246691</c:v>
+                  <c:v>13.101998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.427678</c:v>
+                  <c:v>10.282985</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.47449599999999</c:v>
+                  <c:v>8.329803</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.66050099999999</c:v>
+                  <c:v>2.515808</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.55649899999999</c:v>
+                  <c:v>2.411806</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.47735299999999</c:v>
+                  <c:v>2.33266</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-7.105427357601e-15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5557,61 +5557,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>46.043026</c:v>
+                  <c:v>46.04735</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.039891</c:v>
+                  <c:v>46.044215</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44.480532</c:v>
+                  <c:v>44.394838</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.925582</c:v>
+                  <c:v>41.839888</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.39636</c:v>
+                  <c:v>41.310666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.493101</c:v>
+                  <c:v>36.407407</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.058336</c:v>
+                  <c:v>16.972642</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.037712</c:v>
+                  <c:v>13.952018</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.50849</c:v>
+                  <c:v>13.422796</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.032328</c:v>
+                  <c:v>12.946634</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.495496</c:v>
+                  <c:v>11.497658</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.492361</c:v>
+                  <c:v>11.494523</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.933002</c:v>
+                  <c:v>9.84514600000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.378052</c:v>
+                  <c:v>7.29019600000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.79585</c:v>
+                  <c:v>5.70799400000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.074299</c:v>
+                  <c:v>1.98644300000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.01725</c:v>
+                  <c:v>1.92939400000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.536832</c:v>
+                  <c:v>1.44897600000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>6.66133814775094e-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5720,61 +5720,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>62.583252</c:v>
+                  <c:v>62.587576</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.580117</c:v>
+                  <c:v>62.584441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.020758</c:v>
+                  <c:v>60.935064</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.465808</c:v>
+                  <c:v>58.380114</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.936586</c:v>
+                  <c:v>57.850892</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.033327</c:v>
+                  <c:v>52.947633</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.058336</c:v>
+                  <c:v>16.972642</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.037712</c:v>
+                  <c:v>13.952018</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.50849</c:v>
+                  <c:v>13.422796</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.032328</c:v>
+                  <c:v>12.946634</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.495496</c:v>
+                  <c:v>11.497658</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.492361</c:v>
+                  <c:v>11.494523</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.933002</c:v>
+                  <c:v>9.84514600000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.378052</c:v>
+                  <c:v>7.29019600000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.79585</c:v>
+                  <c:v>5.70799400000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.074299</c:v>
+                  <c:v>1.98644300000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.01725</c:v>
+                  <c:v>1.92939400000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.536832</c:v>
+                  <c:v>1.44897600000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>6.66133814775094e-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5885,61 +5885,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>79.123477</c:v>
+                  <c:v>79.127801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79.120342</c:v>
+                  <c:v>79.124666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.560983</c:v>
+                  <c:v>77.475289</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.006033</c:v>
+                  <c:v>74.920339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74.476811</c:v>
+                  <c:v>74.391117</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69.573552</c:v>
+                  <c:v>69.487858</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.058336</c:v>
+                  <c:v>16.972642</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.037712</c:v>
+                  <c:v>13.952018</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.50849</c:v>
+                  <c:v>13.422796</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.032328</c:v>
+                  <c:v>12.946634</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.495496</c:v>
+                  <c:v>11.497658</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.492361</c:v>
+                  <c:v>11.494523</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.93300199999997</c:v>
+                  <c:v>9.845146</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.37805199999997</c:v>
+                  <c:v>7.290196</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.79584999999997</c:v>
+                  <c:v>5.707994</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.07429899999997</c:v>
+                  <c:v>1.986443</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.01724999999997</c:v>
+                  <c:v>1.929394</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.53683199999997</c:v>
+                  <c:v>1.448976</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-2.68673971959288e-14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6415,61 +6415,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>68.637352</c:v>
+                  <c:v>68.642486</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.632984</c:v>
+                  <c:v>68.638118</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66.779428</c:v>
+                  <c:v>66.680019</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63.67312</c:v>
+                  <c:v>63.573711</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.024363</c:v>
+                  <c:v>62.924954</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56.400343</c:v>
+                  <c:v>56.300934</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.442234</c:v>
+                  <c:v>22.342825</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.441688</c:v>
+                  <c:v>18.342279</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.792931</c:v>
+                  <c:v>17.693522</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.583436</c:v>
+                  <c:v>17.484027</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.761271</c:v>
+                  <c:v>15.763838</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.756903</c:v>
+                  <c:v>15.75947</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.903347</c:v>
+                  <c:v>13.801371</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.797039</c:v>
+                  <c:v>10.695063</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.62701100000001</c:v>
+                  <c:v>8.52503499999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.12439400000001</c:v>
+                  <c:v>2.02241799999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.03759000000001</c:v>
+                  <c:v>1.93561399999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.82216500000001</c:v>
+                  <c:v>1.72018899999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.88338275267597e-15</c:v>
+                  <c:v>-1.68753899743024e-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6578,61 +6578,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>97.53787</c:v>
+                  <c:v>97.543004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.533502</c:v>
+                  <c:v>97.538636</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95.679946</c:v>
+                  <c:v>95.580537</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.573638</c:v>
+                  <c:v>92.474229</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.924881</c:v>
+                  <c:v>91.825472</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85.300861</c:v>
+                  <c:v>85.201452</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.442234</c:v>
+                  <c:v>22.342825</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.441688</c:v>
+                  <c:v>18.342279</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.792931</c:v>
+                  <c:v>17.693522</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.583436</c:v>
+                  <c:v>17.484027</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.761271</c:v>
+                  <c:v>15.763838</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.756903</c:v>
+                  <c:v>15.75947</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.903347</c:v>
+                  <c:v>13.801371</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.797039</c:v>
+                  <c:v>10.695063</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.627011</c:v>
+                  <c:v>8.525035</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.124394</c:v>
+                  <c:v>2.022418</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.03759</c:v>
+                  <c:v>1.935614</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.822165</c:v>
+                  <c:v>1.720189</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>4.44089209850063e-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6743,61 +6743,61 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>126.438388</c:v>
+                  <c:v>126.443522</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>126.43402</c:v>
+                  <c:v>126.439154</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>124.580464</c:v>
+                  <c:v>124.481055</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>121.474156</c:v>
+                  <c:v>121.374747</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>120.825399</c:v>
+                  <c:v>120.72599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>114.201379</c:v>
+                  <c:v>114.10197</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.442234</c:v>
+                  <c:v>22.342825</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.441688</c:v>
+                  <c:v>18.342279</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.792931</c:v>
+                  <c:v>17.693522</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.583436</c:v>
+                  <c:v>17.484027</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.761271</c:v>
+                  <c:v>15.763838</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.756903</c:v>
+                  <c:v>15.75947</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.903347</c:v>
+                  <c:v>13.801371</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.797039</c:v>
+                  <c:v>10.695063</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.627011</c:v>
+                  <c:v>8.525035</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.124394</c:v>
+                  <c:v>2.022418</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.03759</c:v>
+                  <c:v>1.935614</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.822165</c:v>
+                  <c:v>1.720189</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>4.44089209850063e-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7276,58 +7276,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.999935238201014</c:v>
+                  <c:v>0.999935245253207</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.960716744170949</c:v>
+                  <c:v>0.958403396327033</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.91661907430517</c:v>
+                  <c:v>0.914310528447691</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.908032520121718</c:v>
+                  <c:v>0.905724909291347</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.819539276114824</c:v>
+                  <c:v>0.817241301697417</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.344588553352029</c:v>
+                  <c:v>0.342342298377767</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.294990354168044</c:v>
+                  <c:v>0.292749500156702</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.286403799984592</c:v>
+                  <c:v>0.284163881000358</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.285253636691783</c:v>
+                  <c:v>0.283013842953816</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.246500535966458</c:v>
+                  <c:v>0.246528140622034</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.246435774167473</c:v>
+                  <c:v>0.246463385875241</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.207217280137408</c:v>
+                  <c:v>0.204931536949066</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.163119610271628</c:v>
+                  <c:v>0.160838669069725</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.132566088516396</c:v>
+                  <c:v>0.130288474419928</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.0416180751119547</c:v>
+                  <c:v>0.0393503647389319</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0399911773781093</c:v>
+                  <c:v>0.0377236441650334</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0387531007253244</c:v>
+                  <c:v>0.0364857023317824</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>1.1114982083118e-16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7439,58 +7439,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.99995388037132</c:v>
+                  <c:v>0.99995388394793</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.972024724443295</c:v>
+                  <c:v>0.970376362569213</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.940620900094513</c:v>
+                  <c:v>0.938974973609421</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.934506050031932</c:v>
+                  <c:v>0.932860597757826</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.87148625104244</c:v>
+                  <c:v>0.86984568599872</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.24539614984205</c:v>
+                  <c:v>0.243804138532487</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.210075164857342</c:v>
+                  <c:v>0.208485892715371</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.203960314794761</c:v>
+                  <c:v>0.202371516863777</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.203141234645408</c:v>
+                  <c:v>0.201552500234674</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.175543505063484</c:v>
+                  <c:v>0.175568666896215</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.175497385434804</c:v>
+                  <c:v>0.175522550844145</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.147568229506779</c:v>
+                  <c:v>0.145945029465428</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.116164405157997</c:v>
+                  <c:v>0.114543640505636</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.0944059441472805</c:v>
+                  <c:v>0.0927868668790983</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.0296379995706865</c:v>
+                  <c:v>0.0280239451028278</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0284794165702101</c:v>
+                  <c:v>0.0268654519512899</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0275977295819242</c:v>
+                  <c:v>0.0259838333384592</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>7.91545099866987e-17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7604,58 +7604,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.999964188873486</c:v>
+                  <c:v>0.999964191029957</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.978277662659327</c:v>
+                  <c:v>0.976997338286389</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.953893114063593</c:v>
+                  <c:v>0.952614258076631</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.949145034439578</c:v>
+                  <c:v>0.947866464371934</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.900211206066149</c:v>
+                  <c:v>0.898935582690221</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.190546039061047</c:v>
+                  <c:v>0.189313150221484</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.163119880219913</c:v>
+                  <c:v>0.161888642925665</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.158371800595897</c:v>
+                  <c:v>0.157140849220969</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.157735798449029</c:v>
+                  <c:v>0.156504885372806</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.136306619294025</c:v>
+                  <c:v>0.136328520140686</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.136270808167511</c:v>
+                  <c:v>0.136292711170643</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.114584281953351</c:v>
+                  <c:v>0.113325858427075</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.090199733357618</c:v>
+                  <c:v>0.088942778217317</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.0733046493706652</c:v>
+                  <c:v>0.0720487116166115</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.0230134149517923</c:v>
+                  <c:v>0.0217605056295766</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0221137944736131</c:v>
+                  <c:v>0.0208609393246411</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0214291791550041</c:v>
+                  <c:v>0.0201763652321195</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>-6.14621637767809e-17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8128,58 +8128,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.999931911512506</c:v>
+                  <c:v>0.999931917906242</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.966064480644691</c:v>
+                  <c:v>0.96411276653271</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.910573992248033</c:v>
+                  <c:v>0.908627488878296</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.899079917119261</c:v>
+                  <c:v>0.897134493081578</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.792586938139122</c:v>
+                  <c:v>0.790651514147937</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.370486857227846</c:v>
+                  <c:v>0.36859106984441</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.30488248100809</c:v>
+                  <c:v>0.302992854094753</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.293388405879318</c:v>
+                  <c:v>0.291499858298035</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.283046731116239</c:v>
+                  <c:v>0.281159154652765</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.249668560011673</c:v>
+                  <c:v>0.249692066970195</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.249600471524178</c:v>
+                  <c:v>0.249623984876437</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.215733040656364</c:v>
+                  <c:v>0.213804833502905</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.160242552259706</c:v>
+                  <c:v>0.158319555848491</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.125878998482854</c:v>
+                  <c:v>0.12395922892414</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.0450513178695076</c:v>
+                  <c:v>0.0431391383000326</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0438122811476379</c:v>
+                  <c:v>0.0419002179278505</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0333781711045664</c:v>
+                  <c:v>0.0314670876825704</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>0</c:v>
+                  <c:v>1.44662790535198e-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8291,58 +8291,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.999949906725844</c:v>
+                  <c:v>0.999949910186648</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.975033352373571</c:v>
+                  <c:v>0.973596804579874</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.93420853234025</c:v>
+                  <c:v>0.932774805018811</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.925752244386406</c:v>
+                  <c:v>0.924319101286172</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.847404462139488</c:v>
+                  <c:v>0.845976731867679</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.272570303633311</c:v>
+                  <c:v>0.271182287040482</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.224304611080294</c:v>
+                  <c:v>0.222919929028726</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.215848323126449</c:v>
+                  <c:v>0.214464225296088</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.208239865835032</c:v>
+                  <c:v>0.206856293651635</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.183683264014468</c:v>
+                  <c:v>0.183705117450147</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.183633170740312</c:v>
+                  <c:v>0.183655027636795</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.158716616388039</c:v>
+                  <c:v>0.157301922030021</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.117891796354718</c:v>
+                  <c:v>0.116479922468958</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.0926102401965306</c:v>
+                  <c:v>0.0912001129425432</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.0331446342865021</c:v>
+                  <c:v>0.0317386153443617</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0322330645265925</c:v>
+                  <c:v>0.0308271085622489</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0245566018205638</c:v>
+                  <c:v>0.0231511762014878</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>0</c:v>
+                  <c:v>1.06432275756309e-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8456,58 +8456,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.999960378384282</c:v>
+                  <c:v>0.999960380549435</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.980252460341196</c:v>
+                  <c:v>0.979115911486028</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.947961791416219</c:v>
+                  <c:v>0.946827007109676</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.941273232974835</c:v>
+                  <c:v>0.94013881416975</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.879303522012815</c:v>
+                  <c:v>0.878172489590605</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.21559133454158</c:v>
+                  <c:v>0.21449657118615</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.177415256915466</c:v>
+                  <c:v>0.17632257972138</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.170726698474082</c:v>
+                  <c:v>0.169634386781455</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.164708737458542</c:v>
+                  <c:v>0.163616754622057</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.145285526317302</c:v>
+                  <c:v>0.145304909964577</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.145245904701584</c:v>
+                  <c:v>0.145265290514013</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.125537986658498</c:v>
+                  <c:v>0.124420821450605</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.0932473177335214</c:v>
+                  <c:v>0.0921319170742531</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.0732506990308322</c:v>
+                  <c:v>0.0721363911022878</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.0262159738000388</c:v>
+                  <c:v>0.0251042361205008</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0254949615017547</c:v>
+                  <c:v>0.0243832632224924</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0194232111412391</c:v>
+                  <c:v>0.0183118446574801</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>-3.39562898581022e-16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8980,58 +8980,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.9999363611813</c:v>
+                  <c:v>0.999936365941059</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.972931298398575</c:v>
+                  <c:v>0.971410315762748</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.927674482547054</c:v>
+                  <c:v>0.926156884819119</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.91822252991345</c:v>
+                  <c:v>0.916705639128513</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.821715018959356</c:v>
+                  <c:v>0.820205346292382</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.326968237352746</c:v>
+                  <c:v>0.325495568444301</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.268682975998258</c:v>
+                  <c:v>0.267214666438508</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.259231023364654</c:v>
+                  <c:v>0.257763420747902</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.256178822283237</c:v>
+                  <c:v>0.254711447950763</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.229631105232615</c:v>
+                  <c:v>0.229651327022159</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.229567466413914</c:v>
+                  <c:v>0.229587692963218</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.202562403631189</c:v>
+                  <c:v>0.201061642784907</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.157305587779669</c:v>
+                  <c:v>0.155808211841278</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.125689741061106</c:v>
+                  <c:v>0.124194729777124</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.0309509900673325</c:v>
+                  <c:v>0.0294630646098683</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0296863142389294</c:v>
+                  <c:v>0.0281984833707798</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0265477170506229</c:v>
+                  <c:v>0.0250601209286037</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>1.00286251612329e-16</c:v>
+                  <c:v>-2.45844679551705e-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9143,58 +9143,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.999955217394023</c:v>
+                  <c:v>0.999955219751075</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.980951767759538</c:v>
+                  <c:v>0.979881007150446</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.949104568307674</c:v>
+                  <c:v>0.948035483918457</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.942453233805495</c:v>
+                  <c:v>0.941384499497268</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.874540944968349</c:v>
+                  <c:v>0.873475785100898</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.230087390671951</c:v>
+                  <c:v>0.229056150454419</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.189072080413485</c:v>
+                  <c:v>0.188042998962796</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.182420745911306</c:v>
+                  <c:v>0.181392014541607</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.180272913484783</c:v>
+                  <c:v>0.179244295162368</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.161591297821041</c:v>
+                  <c:v>0.161609109352425</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.161546515215065</c:v>
+                  <c:v>0.1615643291035</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.142543065580579</c:v>
+                  <c:v>0.141490116502871</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.110695866128715</c:v>
+                  <c:v>0.109644593270882</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.0884478100659774</c:v>
+                  <c:v>0.0873977081944288</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.0217801967584488</c:v>
+                  <c:v>0.0207336038164255</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0208902449889463</c:v>
+                  <c:v>0.0198436988879285</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0186816156637417</c:v>
+                  <c:v>0.0176351858099429</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>0</c:v>
+                  <c:v>4.5527530590514e-17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9308,58 +9308,58 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="0.00%">
-                  <c:v>0.999965453529825</c:v>
+                  <c:v>0.999965454932519</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="0.00%">
-                  <c:v>0.985305696874275</c:v>
+                  <c:v>0.984479497494541</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0.00%">
-                  <c:v>0.960737936646266</c:v>
+                  <c:v>0.959912734793958</c:v>
                 </c:pt>
                 <c:pt idx="4" c:formatCode="0.00%">
-                  <c:v>0.955606923745342</c:v>
+                  <c:v>0.954781930228106</c:v>
                 </c:pt>
                 <c:pt idx="5" c:formatCode="0.00%">
-                  <c:v>0.903217612992662</c:v>
+                  <c:v>0.902394746644276</c:v>
                 </c:pt>
                 <c:pt idx="6" c:formatCode="0.00%">
-                  <c:v>0.177495413813722</c:v>
+                  <c:v>0.176702014042285</c:v>
                 </c:pt>
                 <c:pt idx="7" c:formatCode="0.00%">
-                  <c:v>0.145855133806356</c:v>
+                  <c:v>0.145063018728631</c:v>
                 </c:pt>
                 <c:pt idx="8" c:formatCode="0.00%">
-                  <c:v>0.140724120905433</c:v>
+                  <c:v>0.139932214162779</c:v>
                 </c:pt>
                 <c:pt idx="9" c:formatCode="0.00%">
-                  <c:v>0.139067226956421</c:v>
+                  <c:v>0.138275387488811</c:v>
                 </c:pt>
                 <c:pt idx="10" c:formatCode="0.00%">
-                  <c:v>0.124655741419291</c:v>
+                  <c:v>0.12467098156282</c:v>
                 </c:pt>
                 <c:pt idx="11" c:formatCode="0.00%">
-                  <c:v>0.124621194949116</c:v>
+                  <c:v>0.124636436495339</c:v>
                 </c:pt>
                 <c:pt idx="12" c:formatCode="0.00%">
-                  <c:v>0.109961438293566</c:v>
+                  <c:v>0.109150479057361</c:v>
                 </c:pt>
                 <c:pt idx="13" c:formatCode="0.00%">
-                  <c:v>0.0853936780655571</c:v>
+                  <c:v>0.0845837163567779</c:v>
                 </c:pt>
                 <c:pt idx="14" c:formatCode="0.00%">
-                  <c:v>0.0682309473923378</c:v>
+                  <c:v>0.0674216825437685</c:v>
                 </c:pt>
                 <c:pt idx="15" c:formatCode="0.00%">
-                  <c:v>0.0168018118041809</c:v>
+                  <c:v>0.0159946351383664</c:v>
                 </c:pt>
                 <c:pt idx="16" c:formatCode="0.00%">
-                  <c:v>0.0161152797993597</c:v>
+                  <c:v>0.0153081310088784</c:v>
                 </c:pt>
                 <c:pt idx="17" c:formatCode="0.00%">
-                  <c:v>0.0144114855371298</c:v>
+                  <c:v>0.0136044059259912</c:v>
                 </c:pt>
                 <c:pt idx="18" c:formatCode="0.00%">
-                  <c:v>0</c:v>
+                  <c:v>3.51215469820639e-17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14508,8 +14508,8 @@
   <sheetPr/>
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -14664,7 +14664,7 @@
         <v>0.00414</v>
       </c>
       <c r="D3" s="11">
-        <v>1.26099</v>
+        <v>1.410868</v>
       </c>
       <c r="E3" s="11">
         <v>2.095849</v>
@@ -14688,13 +14688,13 @@
         <v>0.148021</v>
       </c>
       <c r="L3" s="11">
-        <v>1.231238</v>
+        <v>1.088325</v>
       </c>
       <c r="M3" s="11">
         <v>0.00414</v>
       </c>
       <c r="N3" s="11">
-        <v>1.26099</v>
+        <v>1.410868</v>
       </c>
       <c r="O3" s="11">
         <v>2.095849</v>
@@ -14712,7 +14712,7 @@
         <v>0.146841</v>
       </c>
       <c r="T3" s="12">
-        <v>1.231238</v>
+        <v>1.088325</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:20">
@@ -14724,7 +14724,7 @@
         <v>0.003135</v>
       </c>
       <c r="D4" s="11">
-        <v>0.785311</v>
+        <v>0.876388</v>
       </c>
       <c r="E4" s="11">
         <v>1.79714</v>
@@ -14748,13 +14748,13 @@
         <v>0.06635</v>
       </c>
       <c r="L4" s="11">
-        <v>0.762784</v>
+        <v>0.676034</v>
       </c>
       <c r="M4" s="11">
         <v>0.003135</v>
       </c>
       <c r="N4" s="11">
-        <v>0.785311</v>
+        <v>0.876388</v>
       </c>
       <c r="O4" s="11">
         <v>1.79714</v>
@@ -14772,7 +14772,7 @@
         <v>0.065456</v>
       </c>
       <c r="T4" s="12">
-        <v>0.762784</v>
+        <v>0.676034</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:20">
@@ -14784,7 +14784,7 @@
         <v>0.004368</v>
       </c>
       <c r="D5" s="11">
-        <v>0.934626</v>
+        <v>1.040426</v>
       </c>
       <c r="E5" s="11">
         <v>2.277308</v>
@@ -14808,13 +14808,13 @@
         <v>0.138648</v>
       </c>
       <c r="L5" s="11">
-        <v>0.903235</v>
+        <v>0.802571</v>
       </c>
       <c r="M5" s="11">
         <v>0.004368</v>
       </c>
       <c r="N5" s="11">
-        <v>0.934626</v>
+        <v>1.040426</v>
       </c>
       <c r="O5" s="11">
         <v>2.277308</v>
@@ -14832,7 +14832,7 @@
         <v>0.137403</v>
       </c>
       <c r="T5" s="12">
-        <v>0.903235</v>
+        <v>0.802571</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="2:20">
@@ -14867,7 +14867,7 @@
         <v>0.00414</v>
       </c>
       <c r="D7" s="11">
-        <v>1.26099</v>
+        <v>1.410868</v>
       </c>
       <c r="E7" s="11">
         <v>2.095849</v>
@@ -14891,13 +14891,13 @@
         <v>0.148021</v>
       </c>
       <c r="L7" s="11">
-        <v>1.231238</v>
+        <v>1.088325</v>
       </c>
       <c r="M7" s="11">
         <v>0.00414</v>
       </c>
       <c r="N7" s="11">
-        <v>1.26099</v>
+        <v>1.410868</v>
       </c>
       <c r="O7" s="11">
         <v>2.095849</v>
@@ -14915,7 +14915,7 @@
         <v>0.146841</v>
       </c>
       <c r="T7" s="12">
-        <v>1.231238</v>
+        <v>1.088325</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:20">
@@ -14927,7 +14927,7 @@
         <v>0.003135</v>
       </c>
       <c r="D8" s="11">
-        <v>0.785311</v>
+        <v>0.876388</v>
       </c>
       <c r="E8" s="11">
         <v>1.79714</v>
@@ -14951,13 +14951,13 @@
         <v>0.06635</v>
       </c>
       <c r="L8" s="11">
-        <v>0.762784</v>
+        <v>0.676034</v>
       </c>
       <c r="M8" s="11">
         <v>0.003135</v>
       </c>
       <c r="N8" s="11">
-        <v>0.785311</v>
+        <v>0.876388</v>
       </c>
       <c r="O8" s="11">
         <v>1.79714</v>
@@ -14975,7 +14975,7 @@
         <v>0.065456</v>
       </c>
       <c r="T8" s="12">
-        <v>0.762784</v>
+        <v>0.676034</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:20">
@@ -14987,7 +14987,7 @@
         <v>0.004368</v>
       </c>
       <c r="D9" s="11">
-        <v>0.934626</v>
+        <v>1.040426</v>
       </c>
       <c r="E9" s="11">
         <v>2.277308</v>
@@ -15011,13 +15011,13 @@
         <v>0.138648</v>
       </c>
       <c r="L9" s="11">
-        <v>0.903235</v>
+        <v>0.802571</v>
       </c>
       <c r="M9" s="11">
         <v>0.004368</v>
       </c>
       <c r="N9" s="11">
-        <v>0.934626</v>
+        <v>1.040426</v>
       </c>
       <c r="O9" s="11">
         <v>2.277308</v>
@@ -15035,7 +15035,7 @@
         <v>0.137403</v>
       </c>
       <c r="T9" s="12">
-        <v>0.903235</v>
+        <v>0.802571</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:20">
@@ -15049,7 +15049,7 @@
         <v>0.00414</v>
       </c>
       <c r="D11" s="11">
-        <v>1.26099</v>
+        <v>1.410868</v>
       </c>
       <c r="E11" s="11">
         <v>2.095849</v>
@@ -15073,13 +15073,13 @@
         <v>0.148021</v>
       </c>
       <c r="L11" s="11">
-        <v>1.231238</v>
+        <v>1.088325</v>
       </c>
       <c r="M11" s="11">
         <v>0.00414</v>
       </c>
       <c r="N11" s="11">
-        <v>1.26099</v>
+        <v>1.410868</v>
       </c>
       <c r="O11" s="11">
         <v>2.095849</v>
@@ -15097,7 +15097,7 @@
         <v>0.146841</v>
       </c>
       <c r="T11" s="12">
-        <v>1.231238</v>
+        <v>1.088325</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:20">
@@ -15109,7 +15109,7 @@
         <v>0.003135</v>
       </c>
       <c r="D12" s="11">
-        <v>0.785311</v>
+        <v>0.876388</v>
       </c>
       <c r="E12" s="11">
         <v>1.79714</v>
@@ -15133,13 +15133,13 @@
         <v>0.06635</v>
       </c>
       <c r="L12" s="11">
-        <v>0.762784</v>
+        <v>0.676034</v>
       </c>
       <c r="M12" s="11">
         <v>0.003135</v>
       </c>
       <c r="N12" s="11">
-        <v>0.785311</v>
+        <v>0.876388</v>
       </c>
       <c r="O12" s="11">
         <v>1.79714</v>
@@ -15157,7 +15157,7 @@
         <v>0.065456</v>
       </c>
       <c r="T12" s="12">
-        <v>0.762784</v>
+        <v>0.676034</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:20">
@@ -15169,7 +15169,7 @@
         <v>0.004368</v>
       </c>
       <c r="D13" s="11">
-        <v>0.934626</v>
+        <v>1.040426</v>
       </c>
       <c r="E13" s="11">
         <v>2.277308</v>
@@ -15193,13 +15193,13 @@
         <v>0.138648</v>
       </c>
       <c r="L13" s="11">
-        <v>0.903235</v>
+        <v>0.802571</v>
       </c>
       <c r="M13" s="11">
         <v>0.004368</v>
       </c>
       <c r="N13" s="11">
-        <v>0.934626</v>
+        <v>1.040426</v>
       </c>
       <c r="O13" s="11">
         <v>2.277308</v>
@@ -15217,7 +15217,7 @@
         <v>0.137403</v>
       </c>
       <c r="T13" s="12">
-        <v>0.903235</v>
+        <v>0.802571</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -15233,7 +15233,8 @@
         <v>20</v>
       </c>
       <c r="C17" s="10">
-        <v>65.935654</v>
+        <f>SUM(C3:T3)</f>
+        <v>65.949584</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -15241,7 +15242,8 @@
         <v>21</v>
       </c>
       <c r="C18" s="10">
-        <v>44.167361</v>
+        <f>SUM(C4:T4)</f>
+        <v>44.176015</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -15249,7 +15251,8 @@
         <v>22</v>
       </c>
       <c r="C19" s="10">
-        <v>71.979378</v>
+        <f>SUM(C5:T5)</f>
+        <v>71.98965</v>
       </c>
     </row>
     <row r="20" spans="3:3">
@@ -15271,7 +15274,8 @@
         <v>20</v>
       </c>
       <c r="C23" s="10">
-        <v>92.359304</v>
+        <f>SUM(C7:T7)</f>
+        <v>92.373234</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -15279,7 +15283,8 @@
         <v>21</v>
       </c>
       <c r="C24" s="10">
-        <v>60.792325</v>
+        <f>SUM(C8:T8)</f>
+        <v>60.800979</v>
       </c>
     </row>
     <row r="25" spans="2:3">
@@ -15287,7 +15292,8 @@
         <v>22</v>
       </c>
       <c r="C25" s="10">
-        <v>101.50441</v>
+        <f>SUM(C9:T9)</f>
+        <v>101.514682</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -15309,7 +15315,8 @@
         <v>20</v>
       </c>
       <c r="C29" s="10">
-        <v>118.782954</v>
+        <f>SUM(C11:T11)</f>
+        <v>118.796884</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -15317,7 +15324,8 @@
         <v>21</v>
       </c>
       <c r="C30" s="10">
-        <v>77.417288</v>
+        <f>SUM(C12:T12)</f>
+        <v>77.425942</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -15325,7 +15333,8 @@
         <v>22</v>
       </c>
       <c r="C31" s="10">
-        <v>131.029442</v>
+        <f>SUM(C13:T13)</f>
+        <v>131.039714</v>
       </c>
     </row>
     <row r="32" spans="3:3">
@@ -15350,8 +15359,8 @@
   <sheetPr/>
   <dimension ref="A1:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="27" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="27" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -15587,7 +15596,7 @@
         <v>0.00414</v>
       </c>
       <c r="E4" s="5">
-        <v>2.507104</v>
+        <v>2.655278</v>
       </c>
       <c r="F4" s="5">
         <v>2.819013</v>
@@ -15611,13 +15620,13 @@
         <v>0.073526</v>
       </c>
       <c r="M4" s="5">
-        <v>2.477353</v>
+        <v>2.33266</v>
       </c>
       <c r="N4" s="5">
         <v>0.00414</v>
       </c>
       <c r="O4" s="5">
-        <v>2.507104</v>
+        <v>2.655278</v>
       </c>
       <c r="P4" s="5">
         <v>2.819013</v>
@@ -15635,86 +15644,86 @@
         <v>0.079146</v>
       </c>
       <c r="U4" s="5">
-        <v>2.477353</v>
+        <v>2.33266</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:21">
       <c r="A5" s="4"/>
       <c r="C5" s="5">
         <f>C50</f>
-        <v>63.926575</v>
+        <v>63.933537</v>
       </c>
       <c r="D5" s="5">
         <f>$C$50-D4</f>
-        <v>63.922435</v>
+        <v>63.929397</v>
       </c>
       <c r="E5" s="5">
         <f>D5-E4</f>
-        <v>61.415331</v>
+        <v>61.274119</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ref="F5:U5" si="1">E5-F4</f>
-        <v>58.596318</v>
+        <v>58.455106</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="1"/>
-        <v>58.047409</v>
+        <v>57.906197</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="1"/>
-        <v>52.390339</v>
+        <v>52.249127</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" si="1"/>
-        <v>22.028366</v>
+        <v>21.887154</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" si="1"/>
-        <v>18.857723</v>
+        <v>18.716511</v>
       </c>
       <c r="K5" s="5">
         <f t="shared" si="1"/>
-        <v>18.308814</v>
+        <v>18.167602</v>
       </c>
       <c r="L5" s="5">
         <f t="shared" si="1"/>
-        <v>18.235288</v>
+        <v>18.094076</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" si="1"/>
-        <v>15.757935</v>
+        <v>15.761416</v>
       </c>
       <c r="N5" s="5">
         <f t="shared" si="1"/>
-        <v>15.753795</v>
+        <v>15.757276</v>
       </c>
       <c r="O5" s="5">
         <f t="shared" si="1"/>
-        <v>13.246691</v>
+        <v>13.101998</v>
       </c>
       <c r="P5" s="5">
         <f t="shared" si="1"/>
-        <v>10.427678</v>
+        <v>10.282985</v>
       </c>
       <c r="Q5" s="5">
         <f t="shared" si="1"/>
-        <v>8.47449600000001</v>
+        <v>8.329803</v>
       </c>
       <c r="R5" s="5">
         <f t="shared" si="1"/>
-        <v>2.66050100000001</v>
+        <v>2.515808</v>
       </c>
       <c r="S5" s="5">
         <f t="shared" si="1"/>
-        <v>2.55649900000001</v>
+        <v>2.411806</v>
       </c>
       <c r="T5" s="5">
         <f t="shared" si="1"/>
-        <v>2.47735300000001</v>
+        <v>2.33266</v>
       </c>
       <c r="U5" s="5">
         <f t="shared" si="1"/>
-        <v>7.105427357601e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:21">
@@ -15724,75 +15733,75 @@
       </c>
       <c r="D6" s="7">
         <f>D5/$C$50</f>
-        <v>0.999935238201014</v>
+        <v>0.999935245253207</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" ref="E6:U6" si="2">E5/$C$50</f>
-        <v>0.960716744170949</v>
+        <v>0.958403396327033</v>
       </c>
       <c r="F6" s="7">
         <f t="shared" si="2"/>
-        <v>0.91661907430517</v>
+        <v>0.914310528447691</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="2"/>
-        <v>0.908032520121718</v>
+        <v>0.905724909291347</v>
       </c>
       <c r="H6" s="7">
         <f t="shared" si="2"/>
-        <v>0.819539276114824</v>
+        <v>0.817241301697417</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="2"/>
-        <v>0.344588553352029</v>
+        <v>0.342342298377767</v>
       </c>
       <c r="J6" s="7">
         <f t="shared" si="2"/>
-        <v>0.294990354168044</v>
+        <v>0.292749500156702</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" si="2"/>
-        <v>0.286403799984592</v>
+        <v>0.284163881000358</v>
       </c>
       <c r="L6" s="7">
         <f t="shared" si="2"/>
-        <v>0.285253636691783</v>
+        <v>0.283013842953816</v>
       </c>
       <c r="M6" s="7">
         <f t="shared" si="2"/>
-        <v>0.246500535966458</v>
+        <v>0.246528140622034</v>
       </c>
       <c r="N6" s="7">
         <f t="shared" si="2"/>
-        <v>0.246435774167473</v>
+        <v>0.246463385875241</v>
       </c>
       <c r="O6" s="7">
         <f t="shared" si="2"/>
-        <v>0.207217280137408</v>
+        <v>0.204931536949066</v>
       </c>
       <c r="P6" s="7">
         <f t="shared" si="2"/>
-        <v>0.163119610271628</v>
+        <v>0.160838669069725</v>
       </c>
       <c r="Q6" s="7">
         <f t="shared" si="2"/>
-        <v>0.132566088516396</v>
+        <v>0.130288474419928</v>
       </c>
       <c r="R6" s="7">
         <f t="shared" si="2"/>
-        <v>0.0416180751119547</v>
+        <v>0.0393503647389319</v>
       </c>
       <c r="S6" s="7">
         <f t="shared" si="2"/>
-        <v>0.0399911773781093</v>
+        <v>0.0377236441650334</v>
       </c>
       <c r="T6" s="7">
         <f t="shared" si="2"/>
-        <v>0.0387531007253244</v>
+        <v>0.0364857023317824</v>
       </c>
       <c r="U6" s="7">
         <f t="shared" si="2"/>
-        <v>1.1114982083118e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:21">
@@ -15825,7 +15834,7 @@
         <v>0.003135</v>
       </c>
       <c r="E8" s="5">
-        <v>1.559359</v>
+        <v>1.649377</v>
       </c>
       <c r="F8" s="5">
         <v>2.55495</v>
@@ -15849,13 +15858,13 @@
         <v>0.476162</v>
       </c>
       <c r="M8" s="5">
-        <v>1.536832</v>
+        <v>1.448976</v>
       </c>
       <c r="N8" s="5">
         <v>0.003135</v>
       </c>
       <c r="O8" s="5">
-        <v>1.559359</v>
+        <v>1.649377</v>
       </c>
       <c r="P8" s="5">
         <v>2.55495</v>
@@ -15873,86 +15882,86 @@
         <v>0.480418</v>
       </c>
       <c r="U8" s="5">
-        <v>1.536832</v>
+        <v>1.448976</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:21">
       <c r="A9" s="4"/>
       <c r="C9" s="5">
         <f>C51</f>
-        <v>46.043026</v>
+        <v>46.04735</v>
       </c>
       <c r="D9" s="5">
         <f>$C$51-D8</f>
-        <v>46.039891</v>
+        <v>46.044215</v>
       </c>
       <c r="E9" s="5">
         <f>D9-E8</f>
-        <v>44.480532</v>
+        <v>44.394838</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ref="F9:U9" si="3">E9-F8</f>
-        <v>41.925582</v>
+        <v>41.839888</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="3"/>
-        <v>41.39636</v>
+        <v>41.310666</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="3"/>
-        <v>36.493101</v>
+        <v>36.407407</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="3"/>
-        <v>17.058336</v>
+        <v>16.972642</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" si="3"/>
-        <v>14.037712</v>
+        <v>13.952018</v>
       </c>
       <c r="K9" s="5">
         <f t="shared" si="3"/>
-        <v>13.50849</v>
+        <v>13.422796</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" si="3"/>
-        <v>13.032328</v>
+        <v>12.946634</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" si="3"/>
-        <v>11.495496</v>
+        <v>11.497658</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" si="3"/>
-        <v>11.492361</v>
+        <v>11.494523</v>
       </c>
       <c r="O9" s="5">
         <f t="shared" si="3"/>
-        <v>9.933002</v>
+        <v>9.84514600000001</v>
       </c>
       <c r="P9" s="5">
         <f t="shared" si="3"/>
-        <v>7.378052</v>
+        <v>7.29019600000001</v>
       </c>
       <c r="Q9" s="5">
         <f t="shared" si="3"/>
-        <v>5.79585</v>
+        <v>5.70799400000001</v>
       </c>
       <c r="R9" s="5">
         <f t="shared" si="3"/>
-        <v>2.074299</v>
+        <v>1.98644300000001</v>
       </c>
       <c r="S9" s="5">
         <f t="shared" si="3"/>
-        <v>2.01725</v>
+        <v>1.92939400000001</v>
       </c>
       <c r="T9" s="5">
         <f t="shared" si="3"/>
-        <v>1.536832</v>
+        <v>1.44897600000001</v>
       </c>
       <c r="U9" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.66133814775094e-15</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:21">
@@ -15962,75 +15971,75 @@
       </c>
       <c r="D10" s="7">
         <f>D9/$C$51</f>
-        <v>0.999931911512506</v>
+        <v>0.999931917906242</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" ref="E10:U10" si="4">E9/$C$51</f>
-        <v>0.966064480644691</v>
+        <v>0.96411276653271</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="4"/>
-        <v>0.910573992248033</v>
+        <v>0.908627488878296</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="4"/>
-        <v>0.899079917119261</v>
+        <v>0.897134493081578</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="4"/>
-        <v>0.792586938139122</v>
+        <v>0.790651514147937</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="4"/>
-        <v>0.370486857227846</v>
+        <v>0.36859106984441</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" si="4"/>
-        <v>0.30488248100809</v>
+        <v>0.302992854094753</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="4"/>
-        <v>0.293388405879318</v>
+        <v>0.291499858298035</v>
       </c>
       <c r="L10" s="7">
         <f t="shared" si="4"/>
-        <v>0.283046731116239</v>
+        <v>0.281159154652765</v>
       </c>
       <c r="M10" s="7">
         <f t="shared" si="4"/>
-        <v>0.249668560011673</v>
+        <v>0.249692066970195</v>
       </c>
       <c r="N10" s="7">
         <f t="shared" si="4"/>
-        <v>0.249600471524178</v>
+        <v>0.249623984876437</v>
       </c>
       <c r="O10" s="7">
         <f t="shared" si="4"/>
-        <v>0.215733040656364</v>
+        <v>0.213804833502905</v>
       </c>
       <c r="P10" s="7">
         <f t="shared" si="4"/>
-        <v>0.160242552259706</v>
+        <v>0.158319555848491</v>
       </c>
       <c r="Q10" s="7">
         <f t="shared" si="4"/>
-        <v>0.125878998482854</v>
+        <v>0.12395922892414</v>
       </c>
       <c r="R10" s="7">
         <f t="shared" si="4"/>
-        <v>0.0450513178695076</v>
+        <v>0.0431391383000326</v>
       </c>
       <c r="S10" s="7">
         <f t="shared" si="4"/>
-        <v>0.0438122811476379</v>
+        <v>0.0419002179278505</v>
       </c>
       <c r="T10" s="7">
         <f t="shared" si="4"/>
-        <v>0.0333781711045664</v>
+        <v>0.0314670876825704</v>
       </c>
       <c r="U10" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.44662790535198e-16</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:21">
@@ -16063,7 +16072,7 @@
         <v>0.004368</v>
       </c>
       <c r="E12" s="5">
-        <v>1.853556</v>
+        <v>1.958099</v>
       </c>
       <c r="F12" s="5">
         <v>3.106308</v>
@@ -16087,13 +16096,13 @@
         <v>0.209495</v>
       </c>
       <c r="M12" s="5">
-        <v>1.822165</v>
+        <v>1.720189</v>
       </c>
       <c r="N12" s="5">
         <v>0.004368</v>
       </c>
       <c r="O12" s="5">
-        <v>1.853556</v>
+        <v>1.958099</v>
       </c>
       <c r="P12" s="5">
         <v>3.106308</v>
@@ -16111,7 +16120,7 @@
         <v>0.215425</v>
       </c>
       <c r="U12" s="5">
-        <v>1.822165</v>
+        <v>1.720189</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:21">
@@ -16119,79 +16128,79 @@
       <c r="B13" s="2"/>
       <c r="C13" s="5">
         <f>C52</f>
-        <v>68.637352</v>
+        <v>68.642486</v>
       </c>
       <c r="D13" s="5">
         <f>$C$52-D12</f>
-        <v>68.632984</v>
+        <v>68.638118</v>
       </c>
       <c r="E13" s="5">
         <f>D13-E12</f>
-        <v>66.779428</v>
+        <v>66.680019</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ref="F13:U13" si="5">E13-F12</f>
-        <v>63.67312</v>
+        <v>63.573711</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="5"/>
-        <v>63.024363</v>
+        <v>62.924954</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="5"/>
-        <v>56.400343</v>
+        <v>56.300934</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="5"/>
-        <v>22.442234</v>
+        <v>22.342825</v>
       </c>
       <c r="J13" s="5">
         <f t="shared" si="5"/>
-        <v>18.441688</v>
+        <v>18.342279</v>
       </c>
       <c r="K13" s="5">
         <f t="shared" si="5"/>
-        <v>17.792931</v>
+        <v>17.693522</v>
       </c>
       <c r="L13" s="5">
         <f t="shared" si="5"/>
-        <v>17.583436</v>
+        <v>17.484027</v>
       </c>
       <c r="M13" s="5">
         <f t="shared" si="5"/>
-        <v>15.761271</v>
+        <v>15.763838</v>
       </c>
       <c r="N13" s="5">
         <f t="shared" si="5"/>
-        <v>15.756903</v>
+        <v>15.75947</v>
       </c>
       <c r="O13" s="5">
         <f t="shared" si="5"/>
-        <v>13.903347</v>
+        <v>13.801371</v>
       </c>
       <c r="P13" s="5">
         <f t="shared" si="5"/>
-        <v>10.797039</v>
+        <v>10.695063</v>
       </c>
       <c r="Q13" s="5">
         <f t="shared" si="5"/>
-        <v>8.62701100000001</v>
+        <v>8.52503499999998</v>
       </c>
       <c r="R13" s="5">
         <f t="shared" si="5"/>
-        <v>2.12439400000001</v>
+        <v>2.02241799999998</v>
       </c>
       <c r="S13" s="5">
         <f t="shared" si="5"/>
-        <v>2.03759000000001</v>
+        <v>1.93561399999998</v>
       </c>
       <c r="T13" s="5">
         <f t="shared" si="5"/>
-        <v>1.82216500000001</v>
+        <v>1.72018899999998</v>
       </c>
       <c r="U13" s="5">
         <f t="shared" si="5"/>
-        <v>6.88338275267597e-15</v>
+        <v>-1.68753899743024e-14</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:21">
@@ -16202,75 +16211,75 @@
       </c>
       <c r="D14" s="7">
         <f>D13/$C$52</f>
-        <v>0.9999363611813</v>
+        <v>0.999936365941059</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" ref="E14:U14" si="6">E13/$C$52</f>
-        <v>0.972931298398575</v>
+        <v>0.971410315762748</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" si="6"/>
-        <v>0.927674482547054</v>
+        <v>0.926156884819119</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="6"/>
-        <v>0.91822252991345</v>
+        <v>0.916705639128513</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="6"/>
-        <v>0.821715018959356</v>
+        <v>0.820205346292382</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="6"/>
-        <v>0.326968237352746</v>
+        <v>0.325495568444301</v>
       </c>
       <c r="J14" s="7">
         <f t="shared" si="6"/>
-        <v>0.268682975998258</v>
+        <v>0.267214666438508</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="6"/>
-        <v>0.259231023364654</v>
+        <v>0.257763420747902</v>
       </c>
       <c r="L14" s="7">
         <f t="shared" si="6"/>
-        <v>0.256178822283237</v>
+        <v>0.254711447950763</v>
       </c>
       <c r="M14" s="7">
         <f t="shared" si="6"/>
-        <v>0.229631105232615</v>
+        <v>0.229651327022159</v>
       </c>
       <c r="N14" s="7">
         <f t="shared" si="6"/>
-        <v>0.229567466413914</v>
+        <v>0.229587692963218</v>
       </c>
       <c r="O14" s="7">
         <f t="shared" si="6"/>
-        <v>0.202562403631189</v>
+        <v>0.201061642784907</v>
       </c>
       <c r="P14" s="7">
         <f t="shared" si="6"/>
-        <v>0.157305587779669</v>
+        <v>0.155808211841278</v>
       </c>
       <c r="Q14" s="7">
         <f t="shared" si="6"/>
-        <v>0.125689741061106</v>
+        <v>0.124194729777124</v>
       </c>
       <c r="R14" s="7">
         <f t="shared" si="6"/>
-        <v>0.0309509900673325</v>
+        <v>0.0294630646098683</v>
       </c>
       <c r="S14" s="7">
         <f t="shared" si="6"/>
-        <v>0.0296863142389294</v>
+        <v>0.0281984833707798</v>
       </c>
       <c r="T14" s="7">
         <f t="shared" si="6"/>
-        <v>0.0265477170506229</v>
+        <v>0.0250601209286037</v>
       </c>
       <c r="U14" s="7">
         <f t="shared" si="6"/>
-        <v>1.00286251612329e-16</v>
+        <v>-2.45844679551705e-16</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="2:21">
@@ -16390,7 +16399,7 @@
         <v>0.00414</v>
       </c>
       <c r="E18" s="5">
-        <v>2.507104</v>
+        <v>2.655278</v>
       </c>
       <c r="F18" s="5">
         <v>2.819013</v>
@@ -16414,13 +16423,13 @@
         <v>0.073526</v>
       </c>
       <c r="M18" s="5">
-        <v>2.477353</v>
+        <v>2.33266</v>
       </c>
       <c r="N18" s="5">
         <v>0.00414</v>
       </c>
       <c r="O18" s="5">
-        <v>2.507104</v>
+        <v>2.655278</v>
       </c>
       <c r="P18" s="5">
         <v>2.819013</v>
@@ -16438,86 +16447,86 @@
         <v>0.079146</v>
       </c>
       <c r="U18" s="5">
-        <v>2.477353</v>
+        <v>2.33266</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:21">
       <c r="A19" s="4"/>
       <c r="C19" s="8">
         <f>C56</f>
-        <v>89.766551</v>
+        <v>89.773513</v>
       </c>
       <c r="D19" s="5">
         <f>$C$56-D18</f>
-        <v>89.762411</v>
+        <v>89.769373</v>
       </c>
       <c r="E19" s="5">
         <f>D19-E18</f>
-        <v>87.255307</v>
+        <v>87.114095</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ref="F19:U19" si="7">E19-F18</f>
-        <v>84.436294</v>
+        <v>84.295082</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="7"/>
-        <v>83.887385</v>
+        <v>83.746173</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="7"/>
-        <v>78.230315</v>
+        <v>78.089103</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="7"/>
-        <v>22.028366</v>
+        <v>21.887154</v>
       </c>
       <c r="J19" s="5">
         <f t="shared" si="7"/>
-        <v>18.857723</v>
+        <v>18.716511</v>
       </c>
       <c r="K19" s="5">
         <f t="shared" si="7"/>
-        <v>18.308814</v>
+        <v>18.167602</v>
       </c>
       <c r="L19" s="5">
         <f t="shared" si="7"/>
-        <v>18.235288</v>
+        <v>18.094076</v>
       </c>
       <c r="M19" s="5">
         <f t="shared" si="7"/>
-        <v>15.757935</v>
+        <v>15.761416</v>
       </c>
       <c r="N19" s="5">
         <f t="shared" si="7"/>
-        <v>15.753795</v>
+        <v>15.757276</v>
       </c>
       <c r="O19" s="5">
         <f t="shared" si="7"/>
-        <v>13.246691</v>
+        <v>13.101998</v>
       </c>
       <c r="P19" s="5">
         <f t="shared" si="7"/>
-        <v>10.427678</v>
+        <v>10.282985</v>
       </c>
       <c r="Q19" s="5">
         <f t="shared" si="7"/>
-        <v>8.47449600000001</v>
+        <v>8.329803</v>
       </c>
       <c r="R19" s="5">
         <f t="shared" si="7"/>
-        <v>2.66050100000001</v>
+        <v>2.515808</v>
       </c>
       <c r="S19" s="5">
         <f t="shared" si="7"/>
-        <v>2.55649900000001</v>
+        <v>2.411806</v>
       </c>
       <c r="T19" s="5">
         <f t="shared" si="7"/>
-        <v>2.47735300000001</v>
+        <v>2.33266</v>
       </c>
       <c r="U19" s="5">
         <f t="shared" si="7"/>
-        <v>7.105427357601e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:21">
@@ -16527,75 +16536,75 @@
       </c>
       <c r="D20" s="7">
         <f>D19/$C$56</f>
-        <v>0.99995388037132</v>
+        <v>0.99995388394793</v>
       </c>
       <c r="E20" s="7">
         <f t="shared" ref="E20:U20" si="8">E19/$C$56</f>
-        <v>0.972024724443295</v>
+        <v>0.970376362569213</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" si="8"/>
-        <v>0.940620900094513</v>
+        <v>0.938974973609421</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="8"/>
-        <v>0.934506050031932</v>
+        <v>0.932860597757826</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="8"/>
-        <v>0.87148625104244</v>
+        <v>0.86984568599872</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="8"/>
-        <v>0.24539614984205</v>
+        <v>0.243804138532487</v>
       </c>
       <c r="J20" s="7">
         <f t="shared" si="8"/>
-        <v>0.210075164857342</v>
+        <v>0.208485892715371</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="8"/>
-        <v>0.203960314794761</v>
+        <v>0.202371516863777</v>
       </c>
       <c r="L20" s="7">
         <f t="shared" si="8"/>
-        <v>0.203141234645408</v>
+        <v>0.201552500234674</v>
       </c>
       <c r="M20" s="7">
         <f t="shared" si="8"/>
-        <v>0.175543505063484</v>
+        <v>0.175568666896215</v>
       </c>
       <c r="N20" s="7">
         <f t="shared" si="8"/>
-        <v>0.175497385434804</v>
+        <v>0.175522550844145</v>
       </c>
       <c r="O20" s="7">
         <f t="shared" si="8"/>
-        <v>0.147568229506779</v>
+        <v>0.145945029465428</v>
       </c>
       <c r="P20" s="7">
         <f t="shared" si="8"/>
-        <v>0.116164405157997</v>
+        <v>0.114543640505636</v>
       </c>
       <c r="Q20" s="7">
         <f t="shared" si="8"/>
-        <v>0.0944059441472805</v>
+        <v>0.0927868668790983</v>
       </c>
       <c r="R20" s="7">
         <f t="shared" si="8"/>
-        <v>0.0296379995706865</v>
+        <v>0.0280239451028278</v>
       </c>
       <c r="S20" s="7">
         <f t="shared" si="8"/>
-        <v>0.0284794165702101</v>
+        <v>0.0268654519512899</v>
       </c>
       <c r="T20" s="7">
         <f t="shared" si="8"/>
-        <v>0.0275977295819242</v>
+        <v>0.0259838333384592</v>
       </c>
       <c r="U20" s="7">
         <f t="shared" si="8"/>
-        <v>7.91545099866987e-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:21">
@@ -16628,7 +16637,7 @@
         <v>0.003135</v>
       </c>
       <c r="E22" s="5">
-        <v>1.559359</v>
+        <v>1.649377</v>
       </c>
       <c r="F22" s="5">
         <v>2.55495</v>
@@ -16652,13 +16661,13 @@
         <v>0.476162</v>
       </c>
       <c r="M22" s="5">
-        <v>1.536832</v>
+        <v>1.448976</v>
       </c>
       <c r="N22" s="5">
         <v>0.003135</v>
       </c>
       <c r="O22" s="5">
-        <v>1.559359</v>
+        <v>1.649377</v>
       </c>
       <c r="P22" s="5">
         <v>2.55495</v>
@@ -16676,86 +16685,86 @@
         <v>0.480418</v>
       </c>
       <c r="U22" s="5">
-        <v>1.536832</v>
+        <v>1.448976</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:21">
       <c r="A23" s="4"/>
       <c r="C23" s="8">
         <f>C57</f>
-        <v>62.583252</v>
+        <v>62.587576</v>
       </c>
       <c r="D23" s="5">
         <f>$C$57-D22</f>
-        <v>62.580117</v>
+        <v>62.584441</v>
       </c>
       <c r="E23" s="5">
         <f>D23-E22</f>
-        <v>61.020758</v>
+        <v>60.935064</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ref="F23:U23" si="9">E23-F22</f>
-        <v>58.465808</v>
+        <v>58.380114</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="9"/>
-        <v>57.936586</v>
+        <v>57.850892</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" si="9"/>
-        <v>53.033327</v>
+        <v>52.947633</v>
       </c>
       <c r="I23" s="5">
         <f t="shared" si="9"/>
-        <v>17.058336</v>
+        <v>16.972642</v>
       </c>
       <c r="J23" s="5">
         <f t="shared" si="9"/>
-        <v>14.037712</v>
+        <v>13.952018</v>
       </c>
       <c r="K23" s="5">
         <f t="shared" si="9"/>
-        <v>13.50849</v>
+        <v>13.422796</v>
       </c>
       <c r="L23" s="5">
         <f t="shared" si="9"/>
-        <v>13.032328</v>
+        <v>12.946634</v>
       </c>
       <c r="M23" s="5">
         <f t="shared" si="9"/>
-        <v>11.495496</v>
+        <v>11.497658</v>
       </c>
       <c r="N23" s="5">
         <f t="shared" si="9"/>
-        <v>11.492361</v>
+        <v>11.494523</v>
       </c>
       <c r="O23" s="5">
         <f t="shared" si="9"/>
-        <v>9.933002</v>
+        <v>9.84514600000001</v>
       </c>
       <c r="P23" s="5">
         <f t="shared" si="9"/>
-        <v>7.378052</v>
+        <v>7.29019600000001</v>
       </c>
       <c r="Q23" s="5">
         <f t="shared" si="9"/>
-        <v>5.79585</v>
+        <v>5.70799400000001</v>
       </c>
       <c r="R23" s="5">
         <f t="shared" si="9"/>
-        <v>2.074299</v>
+        <v>1.98644300000001</v>
       </c>
       <c r="S23" s="5">
         <f t="shared" si="9"/>
-        <v>2.01725</v>
+        <v>1.92939400000001</v>
       </c>
       <c r="T23" s="5">
         <f t="shared" si="9"/>
-        <v>1.536832</v>
+        <v>1.44897600000001</v>
       </c>
       <c r="U23" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.66133814775094e-15</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:21">
@@ -16765,75 +16774,75 @@
       </c>
       <c r="D24" s="7">
         <f>D23/$C$57</f>
-        <v>0.999949906725844</v>
+        <v>0.999949910186648</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" ref="E24:U24" si="10">E23/$C$57</f>
-        <v>0.975033352373571</v>
+        <v>0.973596804579874</v>
       </c>
       <c r="F24" s="7">
         <f t="shared" si="10"/>
-        <v>0.93420853234025</v>
+        <v>0.932774805018811</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="10"/>
-        <v>0.925752244386406</v>
+        <v>0.924319101286172</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="10"/>
-        <v>0.847404462139488</v>
+        <v>0.845976731867679</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="10"/>
-        <v>0.272570303633311</v>
+        <v>0.271182287040482</v>
       </c>
       <c r="J24" s="7">
         <f t="shared" si="10"/>
-        <v>0.224304611080294</v>
+        <v>0.222919929028726</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="10"/>
-        <v>0.215848323126449</v>
+        <v>0.214464225296088</v>
       </c>
       <c r="L24" s="7">
         <f t="shared" si="10"/>
-        <v>0.208239865835032</v>
+        <v>0.206856293651635</v>
       </c>
       <c r="M24" s="7">
         <f t="shared" si="10"/>
-        <v>0.183683264014468</v>
+        <v>0.183705117450147</v>
       </c>
       <c r="N24" s="7">
         <f t="shared" si="10"/>
-        <v>0.183633170740312</v>
+        <v>0.183655027636795</v>
       </c>
       <c r="O24" s="7">
         <f t="shared" si="10"/>
-        <v>0.158716616388039</v>
+        <v>0.157301922030021</v>
       </c>
       <c r="P24" s="7">
         <f t="shared" si="10"/>
-        <v>0.117891796354718</v>
+        <v>0.116479922468958</v>
       </c>
       <c r="Q24" s="7">
         <f t="shared" si="10"/>
-        <v>0.0926102401965306</v>
+        <v>0.0912001129425432</v>
       </c>
       <c r="R24" s="7">
         <f t="shared" si="10"/>
-        <v>0.0331446342865021</v>
+        <v>0.0317386153443617</v>
       </c>
       <c r="S24" s="7">
         <f t="shared" si="10"/>
-        <v>0.0322330645265925</v>
+        <v>0.0308271085622489</v>
       </c>
       <c r="T24" s="7">
         <f t="shared" si="10"/>
-        <v>0.0245566018205638</v>
+        <v>0.0231511762014878</v>
       </c>
       <c r="U24" s="7">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1.06432275756309e-16</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:21">
@@ -16866,7 +16875,7 @@
         <v>0.004368</v>
       </c>
       <c r="E26" s="5">
-        <v>1.853556</v>
+        <v>1.958099</v>
       </c>
       <c r="F26" s="5">
         <v>3.106308</v>
@@ -16890,13 +16899,13 @@
         <v>0.209495</v>
       </c>
       <c r="M26" s="5">
-        <v>1.822165</v>
+        <v>1.720189</v>
       </c>
       <c r="N26" s="5">
         <v>0.004368</v>
       </c>
       <c r="O26" s="5">
-        <v>1.853556</v>
+        <v>1.958099</v>
       </c>
       <c r="P26" s="5">
         <v>3.106308</v>
@@ -16914,7 +16923,7 @@
         <v>0.215425</v>
       </c>
       <c r="U26" s="5">
-        <v>1.822165</v>
+        <v>1.720189</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:21">
@@ -16922,79 +16931,79 @@
       <c r="B27" s="2"/>
       <c r="C27" s="8">
         <f>C58</f>
-        <v>97.53787</v>
+        <v>97.543004</v>
       </c>
       <c r="D27" s="5">
         <f>$C$58-D26</f>
-        <v>97.533502</v>
+        <v>97.538636</v>
       </c>
       <c r="E27" s="5">
         <f>D27-E26</f>
-        <v>95.679946</v>
+        <v>95.580537</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ref="F27:U27" si="11">E27-F26</f>
-        <v>92.573638</v>
+        <v>92.474229</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="11"/>
-        <v>91.924881</v>
+        <v>91.825472</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" si="11"/>
-        <v>85.300861</v>
+        <v>85.201452</v>
       </c>
       <c r="I27" s="5">
         <f t="shared" si="11"/>
-        <v>22.442234</v>
+        <v>22.342825</v>
       </c>
       <c r="J27" s="5">
         <f t="shared" si="11"/>
-        <v>18.441688</v>
+        <v>18.342279</v>
       </c>
       <c r="K27" s="5">
         <f t="shared" si="11"/>
-        <v>17.792931</v>
+        <v>17.693522</v>
       </c>
       <c r="L27" s="5">
         <f t="shared" si="11"/>
-        <v>17.583436</v>
+        <v>17.484027</v>
       </c>
       <c r="M27" s="5">
         <f t="shared" si="11"/>
-        <v>15.761271</v>
+        <v>15.763838</v>
       </c>
       <c r="N27" s="5">
         <f t="shared" si="11"/>
-        <v>15.756903</v>
+        <v>15.75947</v>
       </c>
       <c r="O27" s="5">
         <f t="shared" si="11"/>
-        <v>13.903347</v>
+        <v>13.801371</v>
       </c>
       <c r="P27" s="5">
         <f t="shared" si="11"/>
-        <v>10.797039</v>
+        <v>10.695063</v>
       </c>
       <c r="Q27" s="5">
         <f t="shared" si="11"/>
-        <v>8.627011</v>
+        <v>8.525035</v>
       </c>
       <c r="R27" s="5">
         <f t="shared" si="11"/>
-        <v>2.124394</v>
+        <v>2.022418</v>
       </c>
       <c r="S27" s="5">
         <f t="shared" si="11"/>
-        <v>2.03759</v>
+        <v>1.935614</v>
       </c>
       <c r="T27" s="5">
         <f t="shared" si="11"/>
-        <v>1.822165</v>
+        <v>1.720189</v>
       </c>
       <c r="U27" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4.44089209850063e-15</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:21">
@@ -17005,75 +17014,75 @@
       </c>
       <c r="D28" s="7">
         <f>D27/$C$58</f>
-        <v>0.999955217394023</v>
+        <v>0.999955219751075</v>
       </c>
       <c r="E28" s="7">
         <f t="shared" ref="E28:U28" si="12">E27/$C$58</f>
-        <v>0.980951767759538</v>
+        <v>0.979881007150446</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="12"/>
-        <v>0.949104568307674</v>
+        <v>0.948035483918457</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="12"/>
-        <v>0.942453233805495</v>
+        <v>0.941384499497268</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="12"/>
-        <v>0.874540944968349</v>
+        <v>0.873475785100898</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="12"/>
-        <v>0.230087390671951</v>
+        <v>0.229056150454419</v>
       </c>
       <c r="J28" s="7">
         <f t="shared" si="12"/>
-        <v>0.189072080413485</v>
+        <v>0.188042998962796</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="12"/>
-        <v>0.182420745911306</v>
+        <v>0.181392014541607</v>
       </c>
       <c r="L28" s="7">
         <f t="shared" si="12"/>
-        <v>0.180272913484783</v>
+        <v>0.179244295162368</v>
       </c>
       <c r="M28" s="7">
         <f t="shared" si="12"/>
-        <v>0.161591297821041</v>
+        <v>0.161609109352425</v>
       </c>
       <c r="N28" s="7">
         <f t="shared" si="12"/>
-        <v>0.161546515215065</v>
+        <v>0.1615643291035</v>
       </c>
       <c r="O28" s="7">
         <f t="shared" si="12"/>
-        <v>0.142543065580579</v>
+        <v>0.141490116502871</v>
       </c>
       <c r="P28" s="7">
         <f t="shared" si="12"/>
-        <v>0.110695866128715</v>
+        <v>0.109644593270882</v>
       </c>
       <c r="Q28" s="7">
         <f t="shared" si="12"/>
-        <v>0.0884478100659774</v>
+        <v>0.0873977081944288</v>
       </c>
       <c r="R28" s="7">
         <f t="shared" si="12"/>
-        <v>0.0217801967584488</v>
+        <v>0.0207336038164255</v>
       </c>
       <c r="S28" s="7">
         <f t="shared" si="12"/>
-        <v>0.0208902449889463</v>
+        <v>0.0198436988879285</v>
       </c>
       <c r="T28" s="7">
         <f t="shared" si="12"/>
-        <v>0.0186816156637417</v>
+        <v>0.0176351858099429</v>
       </c>
       <c r="U28" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4.5527530590514e-17</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:21">
@@ -17191,7 +17200,7 @@
         <v>0.00414</v>
       </c>
       <c r="E32" s="5">
-        <v>2.507104</v>
+        <v>2.655278</v>
       </c>
       <c r="F32" s="5">
         <v>2.819013</v>
@@ -17215,13 +17224,13 @@
         <v>0.073526</v>
       </c>
       <c r="M32" s="5">
-        <v>2.477353</v>
+        <v>2.33266</v>
       </c>
       <c r="N32" s="5">
         <v>0.00414</v>
       </c>
       <c r="O32" s="5">
-        <v>2.507104</v>
+        <v>2.655278</v>
       </c>
       <c r="P32" s="5">
         <v>2.819013</v>
@@ -17239,86 +17248,86 @@
         <v>0.079146</v>
       </c>
       <c r="U32" s="5">
-        <v>2.477353</v>
+        <v>2.33266</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:21">
       <c r="A33" s="4"/>
       <c r="C33" s="8">
         <f>C62</f>
-        <v>115.606528</v>
+        <v>115.61349</v>
       </c>
       <c r="D33" s="5">
         <f>$C$62-D32</f>
-        <v>115.602388</v>
+        <v>115.60935</v>
       </c>
       <c r="E33" s="5">
         <f>D33-E32</f>
-        <v>113.095284</v>
+        <v>112.954072</v>
       </c>
       <c r="F33" s="5">
         <f t="shared" ref="F33:U33" si="13">E33-F32</f>
-        <v>110.276271</v>
+        <v>110.135059</v>
       </c>
       <c r="G33" s="5">
         <f t="shared" si="13"/>
-        <v>109.727362</v>
+        <v>109.58615</v>
       </c>
       <c r="H33" s="5">
         <f t="shared" si="13"/>
-        <v>104.070292</v>
+        <v>103.92908</v>
       </c>
       <c r="I33" s="5">
         <f t="shared" si="13"/>
-        <v>22.028366</v>
+        <v>21.887154</v>
       </c>
       <c r="J33" s="5">
         <f t="shared" si="13"/>
-        <v>18.857723</v>
+        <v>18.716511</v>
       </c>
       <c r="K33" s="5">
         <f t="shared" si="13"/>
-        <v>18.308814</v>
+        <v>18.167602</v>
       </c>
       <c r="L33" s="5">
         <f t="shared" si="13"/>
-        <v>18.235288</v>
+        <v>18.094076</v>
       </c>
       <c r="M33" s="5">
         <f t="shared" si="13"/>
-        <v>15.757935</v>
+        <v>15.761416</v>
       </c>
       <c r="N33" s="5">
         <f t="shared" si="13"/>
-        <v>15.753795</v>
+        <v>15.757276</v>
       </c>
       <c r="O33" s="5">
         <f t="shared" si="13"/>
-        <v>13.246691</v>
+        <v>13.101998</v>
       </c>
       <c r="P33" s="5">
         <f t="shared" si="13"/>
-        <v>10.427678</v>
+        <v>10.282985</v>
       </c>
       <c r="Q33" s="5">
         <f t="shared" si="13"/>
-        <v>8.47449599999999</v>
+        <v>8.329803</v>
       </c>
       <c r="R33" s="5">
         <f t="shared" si="13"/>
-        <v>2.66050099999999</v>
+        <v>2.515808</v>
       </c>
       <c r="S33" s="5">
         <f t="shared" si="13"/>
-        <v>2.55649899999999</v>
+        <v>2.411806</v>
       </c>
       <c r="T33" s="5">
         <f t="shared" si="13"/>
-        <v>2.47735299999999</v>
+        <v>2.33266</v>
       </c>
       <c r="U33" s="5">
         <f t="shared" si="13"/>
-        <v>-7.105427357601e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:21">
@@ -17328,75 +17337,75 @@
       </c>
       <c r="D34" s="7">
         <f>D33/$C$62</f>
-        <v>0.999964188873486</v>
+        <v>0.999964191029957</v>
       </c>
       <c r="E34" s="7">
         <f t="shared" ref="E34:U34" si="14">E33/$C$62</f>
-        <v>0.978277662659327</v>
+        <v>0.976997338286389</v>
       </c>
       <c r="F34" s="7">
         <f t="shared" si="14"/>
-        <v>0.953893114063593</v>
+        <v>0.952614258076631</v>
       </c>
       <c r="G34" s="7">
         <f t="shared" si="14"/>
-        <v>0.949145034439578</v>
+        <v>0.947866464371934</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" si="14"/>
-        <v>0.900211206066149</v>
+        <v>0.898935582690221</v>
       </c>
       <c r="I34" s="7">
         <f t="shared" si="14"/>
-        <v>0.190546039061047</v>
+        <v>0.189313150221484</v>
       </c>
       <c r="J34" s="7">
         <f t="shared" si="14"/>
-        <v>0.163119880219913</v>
+        <v>0.161888642925665</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="14"/>
-        <v>0.158371800595897</v>
+        <v>0.157140849220969</v>
       </c>
       <c r="L34" s="7">
         <f t="shared" si="14"/>
-        <v>0.157735798449029</v>
+        <v>0.156504885372806</v>
       </c>
       <c r="M34" s="7">
         <f t="shared" si="14"/>
-        <v>0.136306619294025</v>
+        <v>0.136328520140686</v>
       </c>
       <c r="N34" s="7">
         <f t="shared" si="14"/>
-        <v>0.136270808167511</v>
+        <v>0.136292711170643</v>
       </c>
       <c r="O34" s="7">
         <f t="shared" si="14"/>
-        <v>0.114584281953351</v>
+        <v>0.113325858427075</v>
       </c>
       <c r="P34" s="7">
         <f t="shared" si="14"/>
-        <v>0.090199733357618</v>
+        <v>0.088942778217317</v>
       </c>
       <c r="Q34" s="7">
         <f t="shared" si="14"/>
-        <v>0.0733046493706652</v>
+        <v>0.0720487116166115</v>
       </c>
       <c r="R34" s="7">
         <f t="shared" si="14"/>
-        <v>0.0230134149517923</v>
+        <v>0.0217605056295766</v>
       </c>
       <c r="S34" s="7">
         <f t="shared" si="14"/>
-        <v>0.0221137944736131</v>
+        <v>0.0208609393246411</v>
       </c>
       <c r="T34" s="7">
         <f t="shared" si="14"/>
-        <v>0.0214291791550041</v>
+        <v>0.0201763652321195</v>
       </c>
       <c r="U34" s="7">
         <f t="shared" si="14"/>
-        <v>-6.14621637767809e-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:21">
@@ -17430,7 +17439,7 @@
         <v>0.003135</v>
       </c>
       <c r="E36" s="5">
-        <v>1.559359</v>
+        <v>1.649377</v>
       </c>
       <c r="F36" s="5">
         <v>2.55495</v>
@@ -17454,13 +17463,13 @@
         <v>0.476162</v>
       </c>
       <c r="M36" s="5">
-        <v>1.536832</v>
+        <v>1.448976</v>
       </c>
       <c r="N36" s="5">
         <v>0.003135</v>
       </c>
       <c r="O36" s="5">
-        <v>1.559359</v>
+        <v>1.649377</v>
       </c>
       <c r="P36" s="5">
         <v>2.55495</v>
@@ -17478,86 +17487,86 @@
         <v>0.480418</v>
       </c>
       <c r="U36" s="5">
-        <v>1.536832</v>
+        <v>1.448976</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:21">
       <c r="A37" s="4"/>
       <c r="C37" s="8">
         <f>C63</f>
-        <v>79.123477</v>
+        <v>79.127801</v>
       </c>
       <c r="D37" s="5">
         <f>$C$63-D36</f>
-        <v>79.120342</v>
+        <v>79.124666</v>
       </c>
       <c r="E37" s="5">
         <f>D37-E36</f>
-        <v>77.560983</v>
+        <v>77.475289</v>
       </c>
       <c r="F37" s="5">
         <f t="shared" ref="F37:U37" si="15">E37-F36</f>
-        <v>75.006033</v>
+        <v>74.920339</v>
       </c>
       <c r="G37" s="5">
         <f t="shared" si="15"/>
-        <v>74.476811</v>
+        <v>74.391117</v>
       </c>
       <c r="H37" s="5">
         <f t="shared" si="15"/>
-        <v>69.573552</v>
+        <v>69.487858</v>
       </c>
       <c r="I37" s="5">
         <f t="shared" si="15"/>
-        <v>17.058336</v>
+        <v>16.972642</v>
       </c>
       <c r="J37" s="5">
         <f t="shared" si="15"/>
-        <v>14.037712</v>
+        <v>13.952018</v>
       </c>
       <c r="K37" s="5">
         <f t="shared" si="15"/>
-        <v>13.50849</v>
+        <v>13.422796</v>
       </c>
       <c r="L37" s="5">
         <f t="shared" si="15"/>
-        <v>13.032328</v>
+        <v>12.946634</v>
       </c>
       <c r="M37" s="5">
         <f t="shared" si="15"/>
-        <v>11.495496</v>
+        <v>11.497658</v>
       </c>
       <c r="N37" s="5">
         <f t="shared" si="15"/>
-        <v>11.492361</v>
+        <v>11.494523</v>
       </c>
       <c r="O37" s="5">
         <f t="shared" si="15"/>
-        <v>9.93300199999997</v>
+        <v>9.845146</v>
       </c>
       <c r="P37" s="5">
         <f t="shared" si="15"/>
-        <v>7.37805199999997</v>
+        <v>7.290196</v>
       </c>
       <c r="Q37" s="5">
         <f t="shared" si="15"/>
-        <v>5.79584999999997</v>
+        <v>5.707994</v>
       </c>
       <c r="R37" s="5">
         <f t="shared" si="15"/>
-        <v>2.07429899999997</v>
+        <v>1.986443</v>
       </c>
       <c r="S37" s="5">
         <f t="shared" si="15"/>
-        <v>2.01724999999997</v>
+        <v>1.929394</v>
       </c>
       <c r="T37" s="5">
         <f t="shared" si="15"/>
-        <v>1.53683199999997</v>
+        <v>1.448976</v>
       </c>
       <c r="U37" s="5">
         <f t="shared" si="15"/>
-        <v>-2.68673971959288e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:21">
@@ -17567,75 +17576,75 @@
       </c>
       <c r="D38" s="7">
         <f>D37/$C$63</f>
-        <v>0.999960378384282</v>
+        <v>0.999960380549435</v>
       </c>
       <c r="E38" s="7">
         <f t="shared" ref="E38:U38" si="16">E37/$C$63</f>
-        <v>0.980252460341196</v>
+        <v>0.979115911486028</v>
       </c>
       <c r="F38" s="7">
         <f t="shared" si="16"/>
-        <v>0.947961791416219</v>
+        <v>0.946827007109676</v>
       </c>
       <c r="G38" s="7">
         <f t="shared" si="16"/>
-        <v>0.941273232974835</v>
+        <v>0.94013881416975</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="16"/>
-        <v>0.879303522012815</v>
+        <v>0.878172489590605</v>
       </c>
       <c r="I38" s="7">
         <f t="shared" si="16"/>
-        <v>0.21559133454158</v>
+        <v>0.21449657118615</v>
       </c>
       <c r="J38" s="7">
         <f t="shared" si="16"/>
-        <v>0.177415256915466</v>
+        <v>0.17632257972138</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="16"/>
-        <v>0.170726698474082</v>
+        <v>0.169634386781455</v>
       </c>
       <c r="L38" s="7">
         <f t="shared" si="16"/>
-        <v>0.164708737458542</v>
+        <v>0.163616754622057</v>
       </c>
       <c r="M38" s="7">
         <f t="shared" si="16"/>
-        <v>0.145285526317302</v>
+        <v>0.145304909964577</v>
       </c>
       <c r="N38" s="7">
         <f t="shared" si="16"/>
-        <v>0.145245904701584</v>
+        <v>0.145265290514013</v>
       </c>
       <c r="O38" s="7">
         <f t="shared" si="16"/>
-        <v>0.125537986658498</v>
+        <v>0.124420821450605</v>
       </c>
       <c r="P38" s="7">
         <f t="shared" si="16"/>
-        <v>0.0932473177335214</v>
+        <v>0.0921319170742531</v>
       </c>
       <c r="Q38" s="7">
         <f t="shared" si="16"/>
-        <v>0.0732506990308322</v>
+        <v>0.0721363911022878</v>
       </c>
       <c r="R38" s="7">
         <f t="shared" si="16"/>
-        <v>0.0262159738000388</v>
+        <v>0.0251042361205008</v>
       </c>
       <c r="S38" s="7">
         <f t="shared" si="16"/>
-        <v>0.0254949615017547</v>
+        <v>0.0243832632224924</v>
       </c>
       <c r="T38" s="7">
         <f t="shared" si="16"/>
-        <v>0.0194232111412391</v>
+        <v>0.0183118446574801</v>
       </c>
       <c r="U38" s="7">
         <f t="shared" si="16"/>
-        <v>-3.39562898581022e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:21">
@@ -17669,7 +17678,7 @@
         <v>0.004368</v>
       </c>
       <c r="E40" s="5">
-        <v>1.853556</v>
+        <v>1.958099</v>
       </c>
       <c r="F40" s="5">
         <v>3.106308</v>
@@ -17693,13 +17702,13 @@
         <v>0.209495</v>
       </c>
       <c r="M40" s="5">
-        <v>1.822165</v>
+        <v>1.720189</v>
       </c>
       <c r="N40" s="5">
         <v>0.004368</v>
       </c>
       <c r="O40" s="5">
-        <v>1.853556</v>
+        <v>1.958099</v>
       </c>
       <c r="P40" s="5">
         <v>3.106308</v>
@@ -17717,7 +17726,7 @@
         <v>0.215425</v>
       </c>
       <c r="U40" s="5">
-        <v>1.822165</v>
+        <v>1.720189</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:21">
@@ -17725,79 +17734,79 @@
       <c r="B41" s="2"/>
       <c r="C41" s="8">
         <f>C64</f>
-        <v>126.438388</v>
+        <v>126.443522</v>
       </c>
       <c r="D41" s="5">
         <f>$C$64-D40</f>
-        <v>126.43402</v>
+        <v>126.439154</v>
       </c>
       <c r="E41" s="5">
         <f>D41-E40</f>
-        <v>124.580464</v>
+        <v>124.481055</v>
       </c>
       <c r="F41" s="5">
         <f t="shared" ref="F41:U41" si="17">E41-F40</f>
-        <v>121.474156</v>
+        <v>121.374747</v>
       </c>
       <c r="G41" s="5">
         <f t="shared" si="17"/>
-        <v>120.825399</v>
+        <v>120.72599</v>
       </c>
       <c r="H41" s="5">
         <f t="shared" si="17"/>
-        <v>114.201379</v>
+        <v>114.10197</v>
       </c>
       <c r="I41" s="5">
         <f t="shared" si="17"/>
-        <v>22.442234</v>
+        <v>22.342825</v>
       </c>
       <c r="J41" s="5">
         <f t="shared" si="17"/>
-        <v>18.441688</v>
+        <v>18.342279</v>
       </c>
       <c r="K41" s="5">
         <f t="shared" si="17"/>
-        <v>17.792931</v>
+        <v>17.693522</v>
       </c>
       <c r="L41" s="5">
         <f t="shared" si="17"/>
-        <v>17.583436</v>
+        <v>17.484027</v>
       </c>
       <c r="M41" s="5">
         <f t="shared" si="17"/>
-        <v>15.761271</v>
+        <v>15.763838</v>
       </c>
       <c r="N41" s="5">
         <f t="shared" si="17"/>
-        <v>15.756903</v>
+        <v>15.75947</v>
       </c>
       <c r="O41" s="5">
         <f t="shared" si="17"/>
-        <v>13.903347</v>
+        <v>13.801371</v>
       </c>
       <c r="P41" s="5">
         <f t="shared" si="17"/>
-        <v>10.797039</v>
+        <v>10.695063</v>
       </c>
       <c r="Q41" s="5">
         <f t="shared" si="17"/>
-        <v>8.627011</v>
+        <v>8.525035</v>
       </c>
       <c r="R41" s="5">
         <f t="shared" si="17"/>
-        <v>2.124394</v>
+        <v>2.022418</v>
       </c>
       <c r="S41" s="5">
         <f t="shared" si="17"/>
-        <v>2.03759</v>
+        <v>1.935614</v>
       </c>
       <c r="T41" s="5">
         <f t="shared" si="17"/>
-        <v>1.822165</v>
+        <v>1.720189</v>
       </c>
       <c r="U41" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4.44089209850063e-15</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:21">
@@ -17808,75 +17817,75 @@
       </c>
       <c r="D42" s="7">
         <f>D41/$C$64</f>
-        <v>0.999965453529825</v>
+        <v>0.999965454932519</v>
       </c>
       <c r="E42" s="7">
         <f t="shared" ref="E42:U42" si="18">E41/$C$64</f>
-        <v>0.985305696874275</v>
+        <v>0.984479497494541</v>
       </c>
       <c r="F42" s="7">
         <f t="shared" si="18"/>
-        <v>0.960737936646266</v>
+        <v>0.959912734793958</v>
       </c>
       <c r="G42" s="7">
         <f t="shared" si="18"/>
-        <v>0.955606923745342</v>
+        <v>0.954781930228106</v>
       </c>
       <c r="H42" s="7">
         <f t="shared" si="18"/>
-        <v>0.903217612992662</v>
+        <v>0.902394746644276</v>
       </c>
       <c r="I42" s="7">
         <f t="shared" si="18"/>
-        <v>0.177495413813722</v>
+        <v>0.176702014042285</v>
       </c>
       <c r="J42" s="7">
         <f t="shared" si="18"/>
-        <v>0.145855133806356</v>
+        <v>0.145063018728631</v>
       </c>
       <c r="K42" s="7">
         <f t="shared" si="18"/>
-        <v>0.140724120905433</v>
+        <v>0.139932214162779</v>
       </c>
       <c r="L42" s="7">
         <f t="shared" si="18"/>
-        <v>0.139067226956421</v>
+        <v>0.138275387488811</v>
       </c>
       <c r="M42" s="7">
         <f t="shared" si="18"/>
-        <v>0.124655741419291</v>
+        <v>0.12467098156282</v>
       </c>
       <c r="N42" s="7">
         <f t="shared" si="18"/>
-        <v>0.124621194949116</v>
+        <v>0.124636436495339</v>
       </c>
       <c r="O42" s="7">
         <f t="shared" si="18"/>
-        <v>0.109961438293566</v>
+        <v>0.109150479057361</v>
       </c>
       <c r="P42" s="7">
         <f t="shared" si="18"/>
-        <v>0.0853936780655571</v>
+        <v>0.0845837163567779</v>
       </c>
       <c r="Q42" s="7">
         <f t="shared" si="18"/>
-        <v>0.0682309473923378</v>
+        <v>0.0674216825437685</v>
       </c>
       <c r="R42" s="7">
         <f t="shared" si="18"/>
-        <v>0.0168018118041809</v>
+        <v>0.0159946351383664</v>
       </c>
       <c r="S42" s="7">
         <f t="shared" si="18"/>
-        <v>0.0161152797993597</v>
+        <v>0.0153081310088784</v>
       </c>
       <c r="T42" s="7">
         <f t="shared" si="18"/>
-        <v>0.0144114855371298</v>
+        <v>0.0136044059259912</v>
       </c>
       <c r="U42" s="7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3.51215469820639e-17</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:21">
@@ -17914,7 +17923,7 @@
         <v>20</v>
       </c>
       <c r="C50" s="9">
-        <v>63.926575</v>
+        <v>63.933537</v>
       </c>
     </row>
     <row r="51" spans="2:3">
@@ -17922,7 +17931,7 @@
         <v>21</v>
       </c>
       <c r="C51" s="8">
-        <v>46.043026</v>
+        <v>46.04735</v>
       </c>
     </row>
     <row r="52" spans="2:3">
@@ -17930,7 +17939,7 @@
         <v>22</v>
       </c>
       <c r="C52" s="8">
-        <v>68.637352</v>
+        <v>68.642486</v>
       </c>
     </row>
     <row r="53" spans="3:3">
@@ -17952,7 +17961,7 @@
         <v>20</v>
       </c>
       <c r="C56" s="8">
-        <v>89.766551</v>
+        <v>89.773513</v>
       </c>
     </row>
     <row r="57" spans="2:3">
@@ -17960,7 +17969,7 @@
         <v>21</v>
       </c>
       <c r="C57" s="8">
-        <v>62.583252</v>
+        <v>62.587576</v>
       </c>
     </row>
     <row r="58" spans="2:3">
@@ -17968,7 +17977,7 @@
         <v>22</v>
       </c>
       <c r="C58" s="8">
-        <v>97.53787</v>
+        <v>97.543004</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -17990,7 +17999,7 @@
         <v>20</v>
       </c>
       <c r="C62" s="8">
-        <v>115.606528</v>
+        <v>115.61349</v>
       </c>
     </row>
     <row r="63" spans="2:3">
@@ -17998,7 +18007,7 @@
         <v>21</v>
       </c>
       <c r="C63" s="8">
-        <v>79.123477</v>
+        <v>79.127801</v>
       </c>
     </row>
     <row r="64" spans="2:3">
@@ -18006,7 +18015,7 @@
         <v>22</v>
       </c>
       <c r="C64" s="8">
-        <v>126.438388</v>
+        <v>126.443522</v>
       </c>
     </row>
     <row r="65" spans="4:4">
